--- a/BackTest/2020-01-14 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-14 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M194"/>
+  <dimension ref="A1:M195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>40280</v>
+        <v>40260</v>
       </c>
       <c r="C2" t="n">
-        <v>40350</v>
+        <v>40260</v>
       </c>
       <c r="D2" t="n">
-        <v>40350</v>
+        <v>40260</v>
       </c>
       <c r="E2" t="n">
-        <v>40280</v>
+        <v>40260</v>
       </c>
       <c r="F2" t="n">
-        <v>7.3669</v>
+        <v>4.4</v>
       </c>
       <c r="G2" t="n">
-        <v>39453.5</v>
+        <v>39443.83333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>40370</v>
+        <v>40280</v>
       </c>
       <c r="C3" t="n">
-        <v>40390</v>
+        <v>40350</v>
       </c>
       <c r="D3" t="n">
-        <v>40390</v>
+        <v>40350</v>
       </c>
       <c r="E3" t="n">
-        <v>40370</v>
+        <v>40280</v>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>7.3669</v>
       </c>
       <c r="G3" t="n">
-        <v>39466.33333333334</v>
+        <v>39453.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>40370</v>
+      </c>
+      <c r="C4" t="n">
         <v>40390</v>
       </c>
-      <c r="C4" t="n">
-        <v>40570</v>
-      </c>
       <c r="D4" t="n">
-        <v>40570</v>
+        <v>40390</v>
       </c>
       <c r="E4" t="n">
-        <v>40390</v>
+        <v>40370</v>
       </c>
       <c r="F4" t="n">
-        <v>56.2289</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
-        <v>39482.16666666666</v>
+        <v>39466.33333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,28 +538,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40550</v>
+        <v>40390</v>
       </c>
       <c r="C5" t="n">
-        <v>40550</v>
+        <v>40570</v>
       </c>
       <c r="D5" t="n">
-        <v>40550</v>
+        <v>40570</v>
       </c>
       <c r="E5" t="n">
-        <v>40550</v>
+        <v>40390</v>
       </c>
       <c r="F5" t="n">
-        <v>13.9359</v>
+        <v>56.2289</v>
       </c>
       <c r="G5" t="n">
-        <v>39497.5</v>
+        <v>39482.16666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -573,28 +573,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40300</v>
+        <v>40550</v>
       </c>
       <c r="C6" t="n">
-        <v>40280</v>
+        <v>40550</v>
       </c>
       <c r="D6" t="n">
-        <v>40300</v>
+        <v>40550</v>
       </c>
       <c r="E6" t="n">
-        <v>40280</v>
+        <v>40550</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13.9359</v>
       </c>
       <c r="G6" t="n">
-        <v>39507.83333333334</v>
+        <v>39497.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -608,28 +608,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40530</v>
+        <v>40300</v>
       </c>
       <c r="C7" t="n">
-        <v>40220</v>
+        <v>40280</v>
       </c>
       <c r="D7" t="n">
-        <v>40530</v>
+        <v>40300</v>
       </c>
       <c r="E7" t="n">
-        <v>40220</v>
+        <v>40280</v>
       </c>
       <c r="F7" t="n">
-        <v>154.7269</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>39517</v>
+        <v>39507.83333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40230</v>
+        <v>40530</v>
       </c>
       <c r="C8" t="n">
         <v>40220</v>
       </c>
       <c r="D8" t="n">
-        <v>40230</v>
+        <v>40530</v>
       </c>
       <c r="E8" t="n">
         <v>40220</v>
       </c>
       <c r="F8" t="n">
-        <v>56.2289</v>
+        <v>154.7269</v>
       </c>
       <c r="G8" t="n">
-        <v>39526.16666666666</v>
+        <v>39517</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40300</v>
+        <v>40230</v>
       </c>
       <c r="C9" t="n">
-        <v>40300</v>
+        <v>40220</v>
       </c>
       <c r="D9" t="n">
-        <v>40300</v>
+        <v>40230</v>
       </c>
       <c r="E9" t="n">
-        <v>40300</v>
+        <v>40220</v>
       </c>
       <c r="F9" t="n">
-        <v>4.2191</v>
+        <v>56.2289</v>
       </c>
       <c r="G9" t="n">
-        <v>39536.66666666666</v>
+        <v>39526.16666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>40290</v>
+        <v>40300</v>
       </c>
       <c r="C10" t="n">
-        <v>40220</v>
+        <v>40300</v>
       </c>
       <c r="D10" t="n">
-        <v>40290</v>
+        <v>40300</v>
       </c>
       <c r="E10" t="n">
-        <v>40220</v>
+        <v>40300</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>4.2191</v>
       </c>
       <c r="G10" t="n">
-        <v>39545.83333333334</v>
+        <v>39536.66666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>40300</v>
+        <v>40290</v>
       </c>
       <c r="C11" t="n">
-        <v>40300</v>
+        <v>40220</v>
       </c>
       <c r="D11" t="n">
-        <v>40300</v>
+        <v>40290</v>
       </c>
       <c r="E11" t="n">
-        <v>40300</v>
+        <v>40220</v>
       </c>
       <c r="F11" t="n">
-        <v>70.5851</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>39556.33333333334</v>
+        <v>39545.83333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>40580</v>
+        <v>40300</v>
       </c>
       <c r="C12" t="n">
-        <v>40580</v>
+        <v>40300</v>
       </c>
       <c r="D12" t="n">
-        <v>40580</v>
+        <v>40300</v>
       </c>
       <c r="E12" t="n">
-        <v>40580</v>
+        <v>40300</v>
       </c>
       <c r="F12" t="n">
-        <v>0.074</v>
+        <v>70.5851</v>
       </c>
       <c r="G12" t="n">
-        <v>39569.66666666666</v>
+        <v>39556.33333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>40580</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1692</v>
+        <v>0.074</v>
       </c>
       <c r="G13" t="n">
-        <v>39584.83333333334</v>
+        <v>39569.66666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>40580</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0338</v>
+        <v>0.1692</v>
       </c>
       <c r="G14" t="n">
-        <v>39600</v>
+        <v>39584.83333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,28 +888,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40590</v>
+        <v>40580</v>
       </c>
       <c r="C15" t="n">
-        <v>40960</v>
+        <v>40580</v>
       </c>
       <c r="D15" t="n">
-        <v>40960</v>
+        <v>40580</v>
       </c>
       <c r="E15" t="n">
-        <v>40590</v>
+        <v>40580</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0258</v>
+        <v>0.0338</v>
       </c>
       <c r="G15" t="n">
-        <v>39621.5</v>
+        <v>39600</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -926,25 +926,25 @@
         <v>40590</v>
       </c>
       <c r="C16" t="n">
-        <v>40600</v>
+        <v>40960</v>
       </c>
       <c r="D16" t="n">
-        <v>40600</v>
+        <v>40960</v>
       </c>
       <c r="E16" t="n">
         <v>40590</v>
       </c>
       <c r="F16" t="n">
-        <v>0.253</v>
+        <v>0.0258</v>
       </c>
       <c r="G16" t="n">
-        <v>39637</v>
+        <v>39621.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -958,28 +958,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>40940</v>
+        <v>40590</v>
       </c>
       <c r="C17" t="n">
-        <v>40590</v>
+        <v>40600</v>
       </c>
       <c r="D17" t="n">
-        <v>40940</v>
+        <v>40600</v>
       </c>
       <c r="E17" t="n">
         <v>40590</v>
       </c>
       <c r="F17" t="n">
-        <v>16.7932</v>
+        <v>0.253</v>
       </c>
       <c r="G17" t="n">
-        <v>39655.16666666666</v>
+        <v>39637</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -996,25 +996,25 @@
         <v>40940</v>
       </c>
       <c r="C18" t="n">
-        <v>40950</v>
+        <v>40590</v>
       </c>
       <c r="D18" t="n">
-        <v>40950</v>
+        <v>40940</v>
       </c>
       <c r="E18" t="n">
-        <v>40940</v>
+        <v>40590</v>
       </c>
       <c r="F18" t="n">
-        <v>295.6384</v>
+        <v>16.7932</v>
       </c>
       <c r="G18" t="n">
-        <v>39679.33333333334</v>
+        <v>39655.16666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1028,28 +1028,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>40880</v>
+        <v>40940</v>
       </c>
       <c r="C19" t="n">
-        <v>40880</v>
+        <v>40950</v>
       </c>
       <c r="D19" t="n">
-        <v>40880</v>
+        <v>40950</v>
       </c>
       <c r="E19" t="n">
-        <v>40600</v>
+        <v>40940</v>
       </c>
       <c r="F19" t="n">
-        <v>9.7485</v>
+        <v>295.6384</v>
       </c>
       <c r="G19" t="n">
-        <v>39702.16666666666</v>
+        <v>39679.33333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1063,28 +1063,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>40870</v>
+        <v>40880</v>
       </c>
       <c r="C20" t="n">
-        <v>40620</v>
+        <v>40880</v>
       </c>
       <c r="D20" t="n">
         <v>40880</v>
       </c>
       <c r="E20" t="n">
-        <v>40620</v>
+        <v>40600</v>
       </c>
       <c r="F20" t="n">
-        <v>55.1658</v>
+        <v>9.7485</v>
       </c>
       <c r="G20" t="n">
-        <v>39720.66666666666</v>
+        <v>39702.16666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1098,28 +1098,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>40850</v>
+        <v>40870</v>
       </c>
       <c r="C21" t="n">
-        <v>40860</v>
+        <v>40620</v>
       </c>
       <c r="D21" t="n">
-        <v>40860</v>
+        <v>40880</v>
       </c>
       <c r="E21" t="n">
-        <v>40850</v>
+        <v>40620</v>
       </c>
       <c r="F21" t="n">
-        <v>81.9383</v>
+        <v>55.1658</v>
       </c>
       <c r="G21" t="n">
-        <v>39745.5</v>
+        <v>39720.66666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>40990</v>
+        <v>40850</v>
       </c>
       <c r="C22" t="n">
-        <v>40680</v>
+        <v>40860</v>
       </c>
       <c r="D22" t="n">
-        <v>40990</v>
+        <v>40860</v>
       </c>
       <c r="E22" t="n">
-        <v>40670</v>
+        <v>40850</v>
       </c>
       <c r="F22" t="n">
-        <v>119.1536</v>
+        <v>81.9383</v>
       </c>
       <c r="G22" t="n">
-        <v>39767.5</v>
+        <v>39745.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>40750</v>
+        <v>40990</v>
       </c>
       <c r="C23" t="n">
-        <v>40750</v>
+        <v>40680</v>
       </c>
       <c r="D23" t="n">
-        <v>40750</v>
+        <v>40990</v>
       </c>
       <c r="E23" t="n">
-        <v>40750</v>
+        <v>40670</v>
       </c>
       <c r="F23" t="n">
-        <v>12.4116</v>
+        <v>119.1536</v>
       </c>
       <c r="G23" t="n">
-        <v>39792.16666666666</v>
+        <v>39767.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>40950</v>
+        <v>40750</v>
       </c>
       <c r="C24" t="n">
-        <v>40990</v>
+        <v>40750</v>
       </c>
       <c r="D24" t="n">
-        <v>40990</v>
+        <v>40750</v>
       </c>
       <c r="E24" t="n">
-        <v>40780</v>
+        <v>40750</v>
       </c>
       <c r="F24" t="n">
-        <v>10.6932</v>
+        <v>12.4116</v>
       </c>
       <c r="G24" t="n">
-        <v>39820.83333333334</v>
+        <v>39792.16666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>40970</v>
+        <v>40950</v>
       </c>
       <c r="C25" t="n">
-        <v>41010</v>
+        <v>40990</v>
       </c>
       <c r="D25" t="n">
-        <v>41010</v>
+        <v>40990</v>
       </c>
       <c r="E25" t="n">
-        <v>40560</v>
+        <v>40780</v>
       </c>
       <c r="F25" t="n">
-        <v>340.1154</v>
+        <v>10.6932</v>
       </c>
       <c r="G25" t="n">
-        <v>39849.83333333334</v>
+        <v>39820.83333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>40970</v>
+      </c>
+      <c r="C26" t="n">
         <v>41010</v>
-      </c>
-      <c r="C26" t="n">
-        <v>41000</v>
       </c>
       <c r="D26" t="n">
         <v>41010</v>
       </c>
       <c r="E26" t="n">
-        <v>40720</v>
+        <v>40560</v>
       </c>
       <c r="F26" t="n">
-        <v>12.2587</v>
+        <v>340.1154</v>
       </c>
       <c r="G26" t="n">
-        <v>39878.66666666666</v>
+        <v>39849.83333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>41000</v>
+        <v>41010</v>
       </c>
       <c r="C27" t="n">
         <v>41000</v>
       </c>
       <c r="D27" t="n">
-        <v>41000</v>
+        <v>41010</v>
       </c>
       <c r="E27" t="n">
-        <v>41000</v>
+        <v>40720</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0746</v>
+        <v>12.2587</v>
       </c>
       <c r="G27" t="n">
-        <v>39907.83333333334</v>
+        <v>39878.66666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>41000</v>
       </c>
       <c r="F28" t="n">
-        <v>4.5922</v>
+        <v>0.0746</v>
       </c>
       <c r="G28" t="n">
-        <v>39937</v>
+        <v>39907.83333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40990</v>
+        <v>41000</v>
       </c>
       <c r="C29" t="n">
         <v>41000</v>
@@ -1387,13 +1387,13 @@
         <v>41000</v>
       </c>
       <c r="E29" t="n">
-        <v>40990</v>
+        <v>41000</v>
       </c>
       <c r="F29" t="n">
-        <v>44.7368</v>
+        <v>4.5922</v>
       </c>
       <c r="G29" t="n">
-        <v>39969.5</v>
+        <v>39937</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>41060</v>
+        <v>40990</v>
       </c>
       <c r="C30" t="n">
-        <v>41060</v>
+        <v>41000</v>
       </c>
       <c r="D30" t="n">
-        <v>41060</v>
+        <v>41000</v>
       </c>
       <c r="E30" t="n">
-        <v>41060</v>
+        <v>40990</v>
       </c>
       <c r="F30" t="n">
-        <v>0.07439999999999999</v>
+        <v>44.7368</v>
       </c>
       <c r="G30" t="n">
-        <v>39999.66666666666</v>
+        <v>39969.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>41060</v>
       </c>
       <c r="C31" t="n">
-        <v>40830</v>
+        <v>41060</v>
       </c>
       <c r="D31" t="n">
         <v>41060</v>
       </c>
       <c r="E31" t="n">
-        <v>40830</v>
+        <v>41060</v>
       </c>
       <c r="F31" t="n">
-        <v>15.4366</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>40026</v>
+        <v>39999.66666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>40860</v>
+        <v>41060</v>
       </c>
       <c r="C32" t="n">
-        <v>40860</v>
+        <v>40830</v>
       </c>
       <c r="D32" t="n">
-        <v>40860</v>
+        <v>41060</v>
       </c>
       <c r="E32" t="n">
-        <v>40860</v>
+        <v>40830</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>15.4366</v>
       </c>
       <c r="G32" t="n">
-        <v>40053.66666666666</v>
+        <v>40026</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>40860</v>
       </c>
       <c r="C33" t="n">
-        <v>40890</v>
+        <v>40860</v>
       </c>
       <c r="D33" t="n">
-        <v>40890</v>
+        <v>40860</v>
       </c>
       <c r="E33" t="n">
-        <v>40850</v>
+        <v>40860</v>
       </c>
       <c r="F33" t="n">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>40081</v>
+        <v>40053.66666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>40860</v>
+      </c>
+      <c r="C34" t="n">
         <v>40890</v>
-      </c>
-      <c r="C34" t="n">
-        <v>40880</v>
       </c>
       <c r="D34" t="n">
         <v>40890</v>
       </c>
       <c r="E34" t="n">
-        <v>40880</v>
+        <v>40850</v>
       </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>1.24</v>
       </c>
       <c r="G34" t="n">
-        <v>40108.66666666666</v>
+        <v>40081</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>41050</v>
+        <v>40890</v>
       </c>
       <c r="C35" t="n">
-        <v>41190</v>
+        <v>40880</v>
       </c>
       <c r="D35" t="n">
-        <v>41190</v>
+        <v>40890</v>
       </c>
       <c r="E35" t="n">
-        <v>41050</v>
+        <v>40880</v>
       </c>
       <c r="F35" t="n">
-        <v>168.50237858</v>
+        <v>6</v>
       </c>
       <c r="G35" t="n">
-        <v>40146.83333333334</v>
+        <v>40108.66666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>41190</v>
+        <v>41050</v>
       </c>
       <c r="C36" t="n">
         <v>41190</v>
@@ -1632,13 +1632,13 @@
         <v>41190</v>
       </c>
       <c r="E36" t="n">
-        <v>41190</v>
+        <v>41050</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>168.50237858</v>
       </c>
       <c r="G36" t="n">
-        <v>40179.33333333334</v>
+        <v>40146.83333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>41190</v>
       </c>
       <c r="C37" t="n">
-        <v>41200</v>
+        <v>41190</v>
       </c>
       <c r="D37" t="n">
-        <v>41200</v>
+        <v>41190</v>
       </c>
       <c r="E37" t="n">
         <v>41190</v>
       </c>
       <c r="F37" t="n">
-        <v>13.44542142</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>40224</v>
+        <v>40179.33333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>41190</v>
+      </c>
+      <c r="C38" t="n">
         <v>41200</v>
       </c>
-      <c r="C38" t="n">
-        <v>41400</v>
-      </c>
       <c r="D38" t="n">
-        <v>41400</v>
+        <v>41200</v>
       </c>
       <c r="E38" t="n">
-        <v>41200</v>
+        <v>41190</v>
       </c>
       <c r="F38" t="n">
-        <v>0.36081763</v>
+        <v>13.44542142</v>
       </c>
       <c r="G38" t="n">
-        <v>40257.66666666666</v>
+        <v>40224</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>41200</v>
+      </c>
+      <c r="C39" t="n">
         <v>41400</v>
       </c>
-      <c r="C39" t="n">
-        <v>41500</v>
-      </c>
       <c r="D39" t="n">
-        <v>41500</v>
+        <v>41400</v>
       </c>
       <c r="E39" t="n">
-        <v>41400</v>
+        <v>41200</v>
       </c>
       <c r="F39" t="n">
-        <v>101.21401393</v>
+        <v>0.36081763</v>
       </c>
       <c r="G39" t="n">
-        <v>40301.66666666666</v>
+        <v>40257.66666666666</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>41400</v>
+      </c>
+      <c r="C40" t="n">
         <v>41500</v>
       </c>
-      <c r="C40" t="n">
-        <v>41590</v>
-      </c>
       <c r="D40" t="n">
-        <v>41590</v>
+        <v>41500</v>
       </c>
       <c r="E40" t="n">
-        <v>41500</v>
+        <v>41400</v>
       </c>
       <c r="F40" t="n">
-        <v>68.08221473</v>
+        <v>101.21401393</v>
       </c>
       <c r="G40" t="n">
-        <v>40340</v>
+        <v>40301.66666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>41500</v>
+      </c>
+      <c r="C41" t="n">
         <v>41590</v>
-      </c>
-      <c r="C41" t="n">
-        <v>41270</v>
       </c>
       <c r="D41" t="n">
         <v>41590</v>
       </c>
       <c r="E41" t="n">
-        <v>41270</v>
+        <v>41500</v>
       </c>
       <c r="F41" t="n">
-        <v>5.5683</v>
+        <v>68.08221473</v>
       </c>
       <c r="G41" t="n">
-        <v>40369.33333333334</v>
+        <v>40340</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,28 +1833,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>41290</v>
+        <v>41590</v>
       </c>
       <c r="C42" t="n">
-        <v>41230</v>
+        <v>41270</v>
       </c>
       <c r="D42" t="n">
-        <v>41290</v>
+        <v>41590</v>
       </c>
       <c r="E42" t="n">
-        <v>41170</v>
+        <v>41270</v>
       </c>
       <c r="F42" t="n">
-        <v>56.6482</v>
+        <v>5.5683</v>
       </c>
       <c r="G42" t="n">
-        <v>40397.83333333334</v>
+        <v>40369.33333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>41500</v>
+        <v>41290</v>
       </c>
       <c r="C43" t="n">
-        <v>41340</v>
+        <v>41230</v>
       </c>
       <c r="D43" t="n">
-        <v>41500</v>
+        <v>41290</v>
       </c>
       <c r="E43" t="n">
-        <v>41340</v>
+        <v>41170</v>
       </c>
       <c r="F43" t="n">
-        <v>16.3638</v>
+        <v>56.6482</v>
       </c>
       <c r="G43" t="n">
-        <v>40428.16666666666</v>
+        <v>40397.83333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>41040</v>
+        <v>41500</v>
       </c>
       <c r="C44" t="n">
-        <v>41200</v>
+        <v>41340</v>
       </c>
       <c r="D44" t="n">
-        <v>41200</v>
+        <v>41500</v>
       </c>
       <c r="E44" t="n">
-        <v>41040</v>
+        <v>41340</v>
       </c>
       <c r="F44" t="n">
-        <v>9.756532030000001</v>
+        <v>16.3638</v>
       </c>
       <c r="G44" t="n">
-        <v>40456</v>
+        <v>40428.16666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>40910</v>
+        <v>41040</v>
       </c>
       <c r="C45" t="n">
-        <v>40910</v>
+        <v>41200</v>
       </c>
       <c r="D45" t="n">
-        <v>40910</v>
+        <v>41200</v>
       </c>
       <c r="E45" t="n">
-        <v>40910</v>
+        <v>41040</v>
       </c>
       <c r="F45" t="n">
-        <v>36</v>
+        <v>9.756532030000001</v>
       </c>
       <c r="G45" t="n">
-        <v>40479</v>
+        <v>40456</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>40990</v>
+        <v>40910</v>
       </c>
       <c r="C46" t="n">
-        <v>40990</v>
+        <v>40910</v>
       </c>
       <c r="D46" t="n">
-        <v>40990</v>
+        <v>40910</v>
       </c>
       <c r="E46" t="n">
-        <v>40990</v>
+        <v>40910</v>
       </c>
       <c r="F46" t="n">
-        <v>5.7597</v>
+        <v>36</v>
       </c>
       <c r="G46" t="n">
-        <v>40504</v>
+        <v>40479</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>40770</v>
+        <v>40990</v>
       </c>
       <c r="C47" t="n">
-        <v>40970</v>
+        <v>40990</v>
       </c>
       <c r="D47" t="n">
         <v>40990</v>
       </c>
       <c r="E47" t="n">
-        <v>40770</v>
+        <v>40990</v>
       </c>
       <c r="F47" t="n">
-        <v>1.9314</v>
+        <v>5.7597</v>
       </c>
       <c r="G47" t="n">
-        <v>40530.16666666666</v>
+        <v>40504</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>40800</v>
+        <v>40770</v>
       </c>
       <c r="C48" t="n">
         <v>40970</v>
       </c>
       <c r="D48" t="n">
-        <v>40970</v>
+        <v>40990</v>
       </c>
       <c r="E48" t="n">
-        <v>40800</v>
+        <v>40770</v>
       </c>
       <c r="F48" t="n">
-        <v>1.4442</v>
+        <v>1.9314</v>
       </c>
       <c r="G48" t="n">
-        <v>40555.5</v>
+        <v>40530.16666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>40800</v>
+      </c>
+      <c r="C49" t="n">
         <v>40970</v>
-      </c>
-      <c r="C49" t="n">
-        <v>40850</v>
       </c>
       <c r="D49" t="n">
         <v>40970</v>
       </c>
       <c r="E49" t="n">
-        <v>40840</v>
+        <v>40800</v>
       </c>
       <c r="F49" t="n">
-        <v>4.8513</v>
+        <v>1.4442</v>
       </c>
       <c r="G49" t="n">
-        <v>40583.66666666666</v>
+        <v>40555.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,32 +2113,38 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>40950</v>
+        <v>40970</v>
       </c>
       <c r="C50" t="n">
         <v>40850</v>
       </c>
       <c r="D50" t="n">
-        <v>40960</v>
+        <v>40970</v>
       </c>
       <c r="E50" t="n">
-        <v>40850</v>
+        <v>40840</v>
       </c>
       <c r="F50" t="n">
-        <v>34.217</v>
+        <v>4.8513</v>
       </c>
       <c r="G50" t="n">
-        <v>40611</v>
+        <v>40583.66666666666</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>40970</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,32 +2154,38 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>40860</v>
+        <v>40950</v>
       </c>
       <c r="C51" t="n">
-        <v>40860</v>
+        <v>40850</v>
       </c>
       <c r="D51" t="n">
-        <v>40870</v>
+        <v>40960</v>
       </c>
       <c r="E51" t="n">
-        <v>40860</v>
+        <v>40850</v>
       </c>
       <c r="F51" t="n">
-        <v>1.5694</v>
+        <v>34.217</v>
       </c>
       <c r="G51" t="n">
-        <v>40633</v>
+        <v>40611</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>40850</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2195,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>40880</v>
+        <v>40860</v>
       </c>
       <c r="C52" t="n">
-        <v>40880</v>
+        <v>40860</v>
       </c>
       <c r="D52" t="n">
-        <v>40880</v>
+        <v>40870</v>
       </c>
       <c r="E52" t="n">
-        <v>40880</v>
+        <v>40860</v>
       </c>
       <c r="F52" t="n">
-        <v>2.4045</v>
+        <v>1.5694</v>
       </c>
       <c r="G52" t="n">
-        <v>40658.5</v>
+        <v>40633</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2220,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2234,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>40920</v>
+        <v>40880</v>
       </c>
       <c r="C53" t="n">
-        <v>40900</v>
+        <v>40880</v>
       </c>
       <c r="D53" t="n">
-        <v>40920</v>
+        <v>40880</v>
       </c>
       <c r="E53" t="n">
-        <v>40900</v>
+        <v>40880</v>
       </c>
       <c r="F53" t="n">
-        <v>20.8267</v>
+        <v>2.4045</v>
       </c>
       <c r="G53" t="n">
-        <v>40685.83333333334</v>
+        <v>40658.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2259,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2273,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>40900</v>
+        <v>40920</v>
       </c>
       <c r="C54" t="n">
         <v>40900</v>
       </c>
       <c r="D54" t="n">
-        <v>40900</v>
+        <v>40920</v>
       </c>
       <c r="E54" t="n">
         <v>40900</v>
       </c>
       <c r="F54" t="n">
-        <v>9.112500000000001</v>
+        <v>20.8267</v>
       </c>
       <c r="G54" t="n">
-        <v>40708.5</v>
+        <v>40685.83333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2298,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2312,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>40860</v>
+        <v>40900</v>
       </c>
       <c r="C55" t="n">
-        <v>40860</v>
+        <v>40900</v>
       </c>
       <c r="D55" t="n">
-        <v>40860</v>
+        <v>40900</v>
       </c>
       <c r="E55" t="n">
-        <v>40860</v>
+        <v>40900</v>
       </c>
       <c r="F55" t="n">
-        <v>11.4372</v>
+        <v>9.112500000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>40733.5</v>
+        <v>40708.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2337,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2351,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>40870</v>
+        <v>40860</v>
       </c>
       <c r="C56" t="n">
-        <v>40850</v>
+        <v>40860</v>
       </c>
       <c r="D56" t="n">
-        <v>40870</v>
+        <v>40860</v>
       </c>
       <c r="E56" t="n">
-        <v>40850</v>
+        <v>40860</v>
       </c>
       <c r="F56" t="n">
-        <v>18.5</v>
+        <v>11.4372</v>
       </c>
       <c r="G56" t="n">
-        <v>40759.5</v>
+        <v>40733.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2376,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2390,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>40850</v>
+        <v>40870</v>
       </c>
       <c r="C57" t="n">
         <v>40850</v>
       </c>
       <c r="D57" t="n">
-        <v>40850</v>
+        <v>40870</v>
       </c>
       <c r="E57" t="n">
         <v>40850</v>
       </c>
       <c r="F57" t="n">
-        <v>2.671</v>
+        <v>18.5</v>
       </c>
       <c r="G57" t="n">
-        <v>40785.33333333334</v>
+        <v>40759.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2415,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2405,10 +2441,10 @@
         <v>40850</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2</v>
+        <v>2.671</v>
       </c>
       <c r="G58" t="n">
-        <v>40809.66666666666</v>
+        <v>40785.33333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2454,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2440,10 +2480,10 @@
         <v>40850</v>
       </c>
       <c r="F59" t="n">
-        <v>3.9965</v>
+        <v>0.2</v>
       </c>
       <c r="G59" t="n">
-        <v>40825.33333333334</v>
+        <v>40809.66666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2493,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2507,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>40970</v>
+        <v>40850</v>
       </c>
       <c r="C60" t="n">
-        <v>40970</v>
+        <v>40850</v>
       </c>
       <c r="D60" t="n">
-        <v>40970</v>
+        <v>40850</v>
       </c>
       <c r="E60" t="n">
-        <v>40970</v>
+        <v>40850</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0679</v>
+        <v>3.9965</v>
       </c>
       <c r="G60" t="n">
-        <v>40837.16666666666</v>
+        <v>40825.33333333334</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2532,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2546,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>40740</v>
+        <v>40970</v>
       </c>
       <c r="C61" t="n">
-        <v>40740</v>
+        <v>40970</v>
       </c>
       <c r="D61" t="n">
-        <v>40740</v>
+        <v>40970</v>
       </c>
       <c r="E61" t="n">
-        <v>40740</v>
+        <v>40970</v>
       </c>
       <c r="F61" t="n">
-        <v>2.9038</v>
+        <v>0.0679</v>
       </c>
       <c r="G61" t="n">
-        <v>40845.16666666666</v>
+        <v>40837.16666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2571,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2585,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>40750</v>
+        <v>40740</v>
       </c>
       <c r="C62" t="n">
-        <v>40930</v>
+        <v>40740</v>
       </c>
       <c r="D62" t="n">
-        <v>40970</v>
+        <v>40740</v>
       </c>
       <c r="E62" t="n">
-        <v>40750</v>
+        <v>40740</v>
       </c>
       <c r="F62" t="n">
-        <v>4.208</v>
+        <v>2.9038</v>
       </c>
       <c r="G62" t="n">
-        <v>40854.83333333334</v>
+        <v>40845.16666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2610,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2624,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>40770</v>
+        <v>40750</v>
       </c>
       <c r="C63" t="n">
-        <v>40750</v>
+        <v>40930</v>
       </c>
       <c r="D63" t="n">
-        <v>40770</v>
+        <v>40970</v>
       </c>
       <c r="E63" t="n">
         <v>40750</v>
       </c>
       <c r="F63" t="n">
-        <v>18.1115</v>
+        <v>4.208</v>
       </c>
       <c r="G63" t="n">
-        <v>40860.83333333334</v>
+        <v>40854.83333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2649,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2663,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>40750</v>
+        <v>40770</v>
       </c>
       <c r="C64" t="n">
         <v>40750</v>
       </c>
       <c r="D64" t="n">
-        <v>40750</v>
+        <v>40770</v>
       </c>
       <c r="E64" t="n">
         <v>40750</v>
       </c>
       <c r="F64" t="n">
-        <v>4.0414</v>
+        <v>18.1115</v>
       </c>
       <c r="G64" t="n">
-        <v>40863.83333333334</v>
+        <v>40860.83333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2688,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2650,10 +2714,10 @@
         <v>40750</v>
       </c>
       <c r="F65" t="n">
-        <v>3.2001</v>
+        <v>4.0414</v>
       </c>
       <c r="G65" t="n">
-        <v>40867.16666666666</v>
+        <v>40863.83333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2727,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2676,19 +2744,19 @@
         <v>40750</v>
       </c>
       <c r="C66" t="n">
-        <v>40760</v>
+        <v>40750</v>
       </c>
       <c r="D66" t="n">
-        <v>40760</v>
+        <v>40750</v>
       </c>
       <c r="E66" t="n">
         <v>40750</v>
       </c>
       <c r="F66" t="n">
-        <v>18.6056</v>
+        <v>3.2001</v>
       </c>
       <c r="G66" t="n">
-        <v>40875.16666666666</v>
+        <v>40867.16666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2766,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2711,19 +2783,19 @@
         <v>40750</v>
       </c>
       <c r="C67" t="n">
-        <v>40720</v>
+        <v>40760</v>
       </c>
       <c r="D67" t="n">
+        <v>40760</v>
+      </c>
+      <c r="E67" t="n">
         <v>40750</v>
       </c>
-      <c r="E67" t="n">
-        <v>40720</v>
-      </c>
       <c r="F67" t="n">
-        <v>24.3</v>
+        <v>18.6056</v>
       </c>
       <c r="G67" t="n">
-        <v>40883.5</v>
+        <v>40875.16666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2805,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2746,19 +2822,19 @@
         <v>40750</v>
       </c>
       <c r="C68" t="n">
-        <v>40750</v>
+        <v>40720</v>
       </c>
       <c r="D68" t="n">
         <v>40750</v>
       </c>
       <c r="E68" t="n">
-        <v>40750</v>
+        <v>40720</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5</v>
+        <v>24.3</v>
       </c>
       <c r="G68" t="n">
-        <v>40892.33333333334</v>
+        <v>40883.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2844,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,36 +2858,36 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>40800</v>
+        <v>40750</v>
       </c>
       <c r="C69" t="n">
-        <v>40800</v>
+        <v>40750</v>
       </c>
       <c r="D69" t="n">
-        <v>40800</v>
+        <v>40750</v>
       </c>
       <c r="E69" t="n">
-        <v>40800</v>
+        <v>40750</v>
       </c>
       <c r="F69" t="n">
-        <v>0.111</v>
+        <v>0.5</v>
       </c>
       <c r="G69" t="n">
-        <v>40900.66666666666</v>
+        <v>40892.33333333334</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>40750</v>
-      </c>
-      <c r="K69" t="n">
-        <v>40750</v>
-      </c>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2817,38 +2897,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>40770</v>
+        <v>40800</v>
       </c>
       <c r="C70" t="n">
-        <v>40990</v>
+        <v>40800</v>
       </c>
       <c r="D70" t="n">
-        <v>40990</v>
+        <v>40800</v>
       </c>
       <c r="E70" t="n">
-        <v>40730</v>
+        <v>40800</v>
       </c>
       <c r="F70" t="n">
-        <v>104.6106</v>
+        <v>0.111</v>
       </c>
       <c r="G70" t="n">
-        <v>40913.5</v>
+        <v>40900.66666666666</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>40800</v>
-      </c>
-      <c r="K70" t="n">
-        <v>40750</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -2860,35 +2936,31 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>40770</v>
+      </c>
+      <c r="C71" t="n">
         <v>40990</v>
       </c>
-      <c r="C71" t="n">
-        <v>41130</v>
-      </c>
       <c r="D71" t="n">
-        <v>41130</v>
+        <v>40990</v>
       </c>
       <c r="E71" t="n">
-        <v>40990</v>
+        <v>40730</v>
       </c>
       <c r="F71" t="n">
-        <v>17.0691</v>
+        <v>104.6106</v>
       </c>
       <c r="G71" t="n">
-        <v>40927.33333333334</v>
+        <v>40913.5</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>40990</v>
-      </c>
-      <c r="K71" t="n">
-        <v>40750</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2903,35 +2975,31 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>40860</v>
+        <v>40990</v>
       </c>
       <c r="C72" t="n">
-        <v>40860</v>
+        <v>41130</v>
       </c>
       <c r="D72" t="n">
-        <v>40860</v>
+        <v>41130</v>
       </c>
       <c r="E72" t="n">
-        <v>40860</v>
+        <v>40990</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7328</v>
+        <v>17.0691</v>
       </c>
       <c r="G72" t="n">
-        <v>40932</v>
+        <v>40927.33333333334</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>41130</v>
-      </c>
-      <c r="K72" t="n">
-        <v>40750</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2958,23 +3026,19 @@
         <v>40860</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0235</v>
+        <v>0.7328</v>
       </c>
       <c r="G73" t="n">
-        <v>40936.66666666666</v>
+        <v>40932</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>40860</v>
-      </c>
-      <c r="K73" t="n">
-        <v>40750</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2989,35 +3053,31 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>41140</v>
+        <v>40860</v>
       </c>
       <c r="C74" t="n">
-        <v>41140</v>
+        <v>40860</v>
       </c>
       <c r="D74" t="n">
-        <v>41140</v>
+        <v>40860</v>
       </c>
       <c r="E74" t="n">
-        <v>41140</v>
+        <v>40860</v>
       </c>
       <c r="F74" t="n">
-        <v>9.574299999999999</v>
+        <v>0.0235</v>
       </c>
       <c r="G74" t="n">
-        <v>40946</v>
+        <v>40936.66666666666</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>40860</v>
-      </c>
-      <c r="K74" t="n">
-        <v>40750</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3044,23 +3104,19 @@
         <v>41140</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4257</v>
+        <v>9.574299999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>40949</v>
+        <v>40946</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>41140</v>
-      </c>
-      <c r="K75" t="n">
-        <v>40750</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3087,23 +3143,19 @@
         <v>41140</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1459</v>
+        <v>0.4257</v>
       </c>
       <c r="G76" t="n">
-        <v>40958</v>
+        <v>40949</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>41140</v>
-      </c>
-      <c r="K76" t="n">
-        <v>40750</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3130,23 +3182,19 @@
         <v>41140</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9058</v>
+        <v>0.1459</v>
       </c>
       <c r="G77" t="n">
-        <v>40967.16666666666</v>
+        <v>40958</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>41140</v>
-      </c>
-      <c r="K77" t="n">
-        <v>40750</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3173,23 +3221,19 @@
         <v>41140</v>
       </c>
       <c r="F78" t="n">
-        <v>13.4302</v>
+        <v>0.9058</v>
       </c>
       <c r="G78" t="n">
-        <v>40970.33333333334</v>
+        <v>40967.16666666666</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>41140</v>
-      </c>
-      <c r="K78" t="n">
-        <v>40750</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3204,35 +3248,31 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>41230</v>
+        <v>41140</v>
       </c>
       <c r="C79" t="n">
-        <v>41270</v>
+        <v>41140</v>
       </c>
       <c r="D79" t="n">
-        <v>41270</v>
+        <v>41140</v>
       </c>
       <c r="E79" t="n">
-        <v>41230</v>
+        <v>41140</v>
       </c>
       <c r="F79" t="n">
-        <v>30</v>
+        <v>13.4302</v>
       </c>
       <c r="G79" t="n">
-        <v>40976.83333333334</v>
+        <v>40970.33333333334</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>41140</v>
-      </c>
-      <c r="K79" t="n">
-        <v>40750</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3247,22 +3287,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>41450</v>
+        <v>41230</v>
       </c>
       <c r="C80" t="n">
-        <v>41450</v>
+        <v>41270</v>
       </c>
       <c r="D80" t="n">
-        <v>41450</v>
+        <v>41270</v>
       </c>
       <c r="E80" t="n">
-        <v>41450</v>
+        <v>41230</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G80" t="n">
-        <v>40990.66666666666</v>
+        <v>40976.83333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3271,9 +3311,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>40750</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3288,22 +3326,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>41400</v>
+        <v>41450</v>
       </c>
       <c r="C81" t="n">
-        <v>41400</v>
+        <v>41450</v>
       </c>
       <c r="D81" t="n">
-        <v>41400</v>
+        <v>41450</v>
       </c>
       <c r="E81" t="n">
-        <v>41400</v>
+        <v>41450</v>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>40999.66666666666</v>
+        <v>40990.66666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3312,9 +3350,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>40750</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3329,22 +3365,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>41530</v>
+        <v>41400</v>
       </c>
       <c r="C82" t="n">
-        <v>41530</v>
+        <v>41400</v>
       </c>
       <c r="D82" t="n">
-        <v>41530</v>
+        <v>41400</v>
       </c>
       <c r="E82" t="n">
-        <v>41530</v>
+        <v>41400</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0566</v>
+        <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>41013.83333333334</v>
+        <v>40999.66666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3353,9 +3389,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>40750</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3370,22 +3404,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>41400</v>
+        <v>41530</v>
       </c>
       <c r="C83" t="n">
-        <v>41470</v>
+        <v>41530</v>
       </c>
       <c r="D83" t="n">
-        <v>41470</v>
+        <v>41530</v>
       </c>
       <c r="E83" t="n">
-        <v>41400</v>
+        <v>41530</v>
       </c>
       <c r="F83" t="n">
-        <v>70.5772</v>
+        <v>0.0566</v>
       </c>
       <c r="G83" t="n">
-        <v>41025.83333333334</v>
+        <v>41013.83333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3394,9 +3428,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>40750</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3414,19 +3446,19 @@
         <v>41400</v>
       </c>
       <c r="C84" t="n">
-        <v>41400</v>
+        <v>41470</v>
       </c>
       <c r="D84" t="n">
-        <v>41400</v>
+        <v>41470</v>
       </c>
       <c r="E84" t="n">
         <v>41400</v>
       </c>
       <c r="F84" t="n">
-        <v>6.2013</v>
+        <v>70.5772</v>
       </c>
       <c r="G84" t="n">
-        <v>41032.66666666666</v>
+        <v>41025.83333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3435,9 +3467,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>40750</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3455,19 +3485,19 @@
         <v>41400</v>
       </c>
       <c r="C85" t="n">
-        <v>41260</v>
+        <v>41400</v>
       </c>
       <c r="D85" t="n">
         <v>41400</v>
       </c>
       <c r="E85" t="n">
-        <v>41260</v>
+        <v>41400</v>
       </c>
       <c r="F85" t="n">
-        <v>0.539</v>
+        <v>6.2013</v>
       </c>
       <c r="G85" t="n">
-        <v>41036.83333333334</v>
+        <v>41032.66666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3476,9 +3506,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>40750</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3493,22 +3521,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>41260</v>
+        <v>41400</v>
       </c>
       <c r="C86" t="n">
         <v>41260</v>
       </c>
       <c r="D86" t="n">
-        <v>41260</v>
+        <v>41400</v>
       </c>
       <c r="E86" t="n">
         <v>41260</v>
       </c>
       <c r="F86" t="n">
-        <v>8.4695</v>
+        <v>0.539</v>
       </c>
       <c r="G86" t="n">
-        <v>41041.16666666666</v>
+        <v>41036.83333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3517,9 +3545,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>40750</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3534,22 +3560,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>41250</v>
+        <v>41260</v>
       </c>
       <c r="C87" t="n">
-        <v>41250</v>
+        <v>41260</v>
       </c>
       <c r="D87" t="n">
-        <v>41250</v>
+        <v>41260</v>
       </c>
       <c r="E87" t="n">
-        <v>41250</v>
+        <v>41260</v>
       </c>
       <c r="F87" t="n">
-        <v>13.3963</v>
+        <v>8.4695</v>
       </c>
       <c r="G87" t="n">
-        <v>41045.33333333334</v>
+        <v>41041.16666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3558,9 +3584,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>40750</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3575,22 +3599,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>41230</v>
+        <v>41250</v>
       </c>
       <c r="C88" t="n">
-        <v>41230</v>
+        <v>41250</v>
       </c>
       <c r="D88" t="n">
-        <v>41230</v>
+        <v>41250</v>
       </c>
       <c r="E88" t="n">
-        <v>41230</v>
+        <v>41250</v>
       </c>
       <c r="F88" t="n">
-        <v>24.5143</v>
+        <v>13.3963</v>
       </c>
       <c r="G88" t="n">
-        <v>41049.16666666666</v>
+        <v>41045.33333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3599,9 +3623,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>40750</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3616,22 +3638,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>41500</v>
+        <v>41230</v>
       </c>
       <c r="C89" t="n">
-        <v>41500</v>
+        <v>41230</v>
       </c>
       <c r="D89" t="n">
-        <v>41500</v>
+        <v>41230</v>
       </c>
       <c r="E89" t="n">
-        <v>41500</v>
+        <v>41230</v>
       </c>
       <c r="F89" t="n">
-        <v>1.0852</v>
+        <v>24.5143</v>
       </c>
       <c r="G89" t="n">
-        <v>41057.5</v>
+        <v>41049.16666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3640,9 +3662,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>40750</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3669,10 +3689,10 @@
         <v>41500</v>
       </c>
       <c r="F90" t="n">
-        <v>0.06633733999999999</v>
+        <v>1.0852</v>
       </c>
       <c r="G90" t="n">
-        <v>41064.83333333334</v>
+        <v>41057.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3681,9 +3701,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>40750</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3698,22 +3716,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>41540</v>
+        <v>41500</v>
       </c>
       <c r="C91" t="n">
-        <v>41650</v>
+        <v>41500</v>
       </c>
       <c r="D91" t="n">
-        <v>41650</v>
+        <v>41500</v>
       </c>
       <c r="E91" t="n">
-        <v>41540</v>
+        <v>41500</v>
       </c>
       <c r="F91" t="n">
-        <v>75.0574</v>
+        <v>0.06633733999999999</v>
       </c>
       <c r="G91" t="n">
-        <v>41078.5</v>
+        <v>41064.83333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3722,9 +3740,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>40750</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3739,22 +3755,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>41540</v>
+      </c>
+      <c r="C92" t="n">
         <v>41650</v>
-      </c>
-      <c r="C92" t="n">
-        <v>41530</v>
       </c>
       <c r="D92" t="n">
         <v>41650</v>
       </c>
       <c r="E92" t="n">
-        <v>41530</v>
+        <v>41540</v>
       </c>
       <c r="F92" t="n">
-        <v>23.20912364</v>
+        <v>75.0574</v>
       </c>
       <c r="G92" t="n">
-        <v>41089.66666666666</v>
+        <v>41078.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3763,9 +3779,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>40750</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3780,22 +3794,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>41380</v>
+        <v>41650</v>
       </c>
       <c r="C93" t="n">
-        <v>41380</v>
+        <v>41530</v>
       </c>
       <c r="D93" t="n">
-        <v>41380</v>
+        <v>41650</v>
       </c>
       <c r="E93" t="n">
-        <v>41380</v>
+        <v>41530</v>
       </c>
       <c r="F93" t="n">
-        <v>2.8091</v>
+        <v>23.20912364</v>
       </c>
       <c r="G93" t="n">
-        <v>41097.83333333334</v>
+        <v>41089.66666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3804,9 +3818,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>40750</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3821,22 +3833,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>41650</v>
+        <v>41380</v>
       </c>
       <c r="C94" t="n">
-        <v>41650</v>
+        <v>41380</v>
       </c>
       <c r="D94" t="n">
-        <v>41650</v>
+        <v>41380</v>
       </c>
       <c r="E94" t="n">
-        <v>41650</v>
+        <v>41380</v>
       </c>
       <c r="F94" t="n">
-        <v>3.3862</v>
+        <v>2.8091</v>
       </c>
       <c r="G94" t="n">
-        <v>41110.66666666666</v>
+        <v>41097.83333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3845,9 +3857,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>40750</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3865,19 +3875,19 @@
         <v>41650</v>
       </c>
       <c r="C95" t="n">
-        <v>41810</v>
+        <v>41650</v>
       </c>
       <c r="D95" t="n">
-        <v>41810</v>
+        <v>41650</v>
       </c>
       <c r="E95" t="n">
         <v>41650</v>
       </c>
       <c r="F95" t="n">
-        <v>2.99907149</v>
+        <v>3.3862</v>
       </c>
       <c r="G95" t="n">
-        <v>41121</v>
+        <v>41110.66666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3886,9 +3896,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>40750</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3903,22 +3911,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>41650</v>
+      </c>
+      <c r="C96" t="n">
         <v>41810</v>
       </c>
-      <c r="C96" t="n">
-        <v>41740</v>
-      </c>
       <c r="D96" t="n">
-        <v>42300</v>
+        <v>41810</v>
       </c>
       <c r="E96" t="n">
-        <v>41740</v>
+        <v>41650</v>
       </c>
       <c r="F96" t="n">
-        <v>491.03090487</v>
+        <v>2.99907149</v>
       </c>
       <c r="G96" t="n">
-        <v>41130.16666666666</v>
+        <v>41121</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3927,9 +3935,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>40750</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3944,22 +3950,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>42110</v>
+        <v>41810</v>
       </c>
       <c r="C97" t="n">
-        <v>42110</v>
+        <v>41740</v>
       </c>
       <c r="D97" t="n">
-        <v>42110</v>
+        <v>42300</v>
       </c>
       <c r="E97" t="n">
-        <v>42070</v>
+        <v>41740</v>
       </c>
       <c r="F97" t="n">
-        <v>30.1757</v>
+        <v>491.03090487</v>
       </c>
       <c r="G97" t="n">
-        <v>41145.33333333334</v>
+        <v>41130.16666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3968,9 +3974,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>40750</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3985,22 +3989,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>42070</v>
+        <v>42110</v>
       </c>
       <c r="C98" t="n">
-        <v>42070</v>
+        <v>42110</v>
       </c>
       <c r="D98" t="n">
-        <v>42070</v>
+        <v>42110</v>
       </c>
       <c r="E98" t="n">
         <v>42070</v>
       </c>
       <c r="F98" t="n">
-        <v>4.3207</v>
+        <v>30.1757</v>
       </c>
       <c r="G98" t="n">
-        <v>41156.5</v>
+        <v>41145.33333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4009,9 +4013,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>40750</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4026,40 +4028,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>42060</v>
+        <v>42070</v>
       </c>
       <c r="C99" t="n">
-        <v>42060</v>
+        <v>42070</v>
       </c>
       <c r="D99" t="n">
-        <v>42060</v>
+        <v>42070</v>
       </c>
       <c r="E99" t="n">
-        <v>42060</v>
+        <v>42070</v>
       </c>
       <c r="F99" t="n">
-        <v>60.407</v>
+        <v>4.3207</v>
       </c>
       <c r="G99" t="n">
-        <v>41165.83333333334</v>
+        <v>41156.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>40750</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1.027147239263804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -4067,32 +4067,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>42100</v>
+        <v>42060</v>
       </c>
       <c r="C100" t="n">
         <v>42060</v>
       </c>
       <c r="D100" t="n">
-        <v>42100</v>
+        <v>42060</v>
       </c>
       <c r="E100" t="n">
         <v>42060</v>
       </c>
       <c r="F100" t="n">
-        <v>9.041399999999999</v>
+        <v>60.407</v>
       </c>
       <c r="G100" t="n">
-        <v>41173.66666666666</v>
+        <v>41165.83333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4102,22 +4106,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>42090</v>
+        <v>42100</v>
       </c>
       <c r="C101" t="n">
-        <v>41880</v>
+        <v>42060</v>
       </c>
       <c r="D101" t="n">
-        <v>42090</v>
+        <v>42100</v>
       </c>
       <c r="E101" t="n">
-        <v>41850</v>
+        <v>42060</v>
       </c>
       <c r="F101" t="n">
-        <v>154.1</v>
+        <v>9.041399999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>41183.83333333334</v>
+        <v>41173.66666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4127,7 +4131,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4137,22 +4145,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>42040</v>
+        <v>42090</v>
       </c>
       <c r="C102" t="n">
-        <v>41850</v>
+        <v>41880</v>
       </c>
       <c r="D102" t="n">
-        <v>42040</v>
+        <v>42090</v>
       </c>
       <c r="E102" t="n">
         <v>41850</v>
       </c>
       <c r="F102" t="n">
-        <v>9.6012</v>
+        <v>154.1</v>
       </c>
       <c r="G102" t="n">
-        <v>41194.16666666666</v>
+        <v>41183.83333333334</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4162,7 +4170,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4172,22 +4184,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>41820</v>
+        <v>42040</v>
       </c>
       <c r="C103" t="n">
-        <v>42020</v>
+        <v>41850</v>
       </c>
       <c r="D103" t="n">
-        <v>42030</v>
+        <v>42040</v>
       </c>
       <c r="E103" t="n">
-        <v>41730</v>
+        <v>41850</v>
       </c>
       <c r="F103" t="n">
-        <v>66.818</v>
+        <v>9.6012</v>
       </c>
       <c r="G103" t="n">
-        <v>41205.5</v>
+        <v>41194.16666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4197,7 +4209,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4207,22 +4223,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>41820</v>
+      </c>
+      <c r="C104" t="n">
         <v>42020</v>
       </c>
-      <c r="C104" t="n">
-        <v>42040</v>
-      </c>
       <c r="D104" t="n">
-        <v>42040</v>
+        <v>42030</v>
       </c>
       <c r="E104" t="n">
-        <v>42020</v>
+        <v>41730</v>
       </c>
       <c r="F104" t="n">
-        <v>4.3891</v>
+        <v>66.818</v>
       </c>
       <c r="G104" t="n">
-        <v>41219.5</v>
+        <v>41205.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4232,7 +4248,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4242,22 +4262,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>42140</v>
+        <v>42020</v>
       </c>
       <c r="C105" t="n">
-        <v>42140</v>
+        <v>42040</v>
       </c>
       <c r="D105" t="n">
-        <v>42140</v>
+        <v>42040</v>
       </c>
       <c r="E105" t="n">
-        <v>42140</v>
+        <v>42020</v>
       </c>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>4.3891</v>
       </c>
       <c r="G105" t="n">
-        <v>41240</v>
+        <v>41219.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4267,7 +4287,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4277,22 +4301,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>42290</v>
+        <v>42140</v>
       </c>
       <c r="C106" t="n">
-        <v>42290</v>
+        <v>42140</v>
       </c>
       <c r="D106" t="n">
-        <v>42290</v>
+        <v>42140</v>
       </c>
       <c r="E106" t="n">
-        <v>42290</v>
+        <v>42140</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0532</v>
+        <v>2</v>
       </c>
       <c r="G106" t="n">
-        <v>41261.66666666666</v>
+        <v>41240</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4302,7 +4326,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4312,22 +4340,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>42280</v>
+        <v>42290</v>
       </c>
       <c r="C107" t="n">
-        <v>42380</v>
+        <v>42290</v>
       </c>
       <c r="D107" t="n">
-        <v>42380</v>
+        <v>42290</v>
       </c>
       <c r="E107" t="n">
-        <v>41990</v>
+        <v>42290</v>
       </c>
       <c r="F107" t="n">
-        <v>23.3876</v>
+        <v>0.0532</v>
       </c>
       <c r="G107" t="n">
-        <v>41285.16666666666</v>
+        <v>41261.66666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4337,7 +4365,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4347,22 +4379,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>42280</v>
+      </c>
+      <c r="C108" t="n">
         <v>42380</v>
       </c>
-      <c r="C108" t="n">
-        <v>42490</v>
-      </c>
       <c r="D108" t="n">
-        <v>42490</v>
+        <v>42380</v>
       </c>
       <c r="E108" t="n">
-        <v>42040</v>
+        <v>41990</v>
       </c>
       <c r="F108" t="n">
-        <v>58.6219</v>
+        <v>23.3876</v>
       </c>
       <c r="G108" t="n">
-        <v>41310.5</v>
+        <v>41285.16666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4372,7 +4404,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4382,22 +4418,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>42450</v>
+        <v>42380</v>
       </c>
       <c r="C109" t="n">
-        <v>42220</v>
+        <v>42490</v>
       </c>
       <c r="D109" t="n">
-        <v>42450</v>
+        <v>42490</v>
       </c>
       <c r="E109" t="n">
-        <v>42220</v>
+        <v>42040</v>
       </c>
       <c r="F109" t="n">
-        <v>73.3501</v>
+        <v>58.6219</v>
       </c>
       <c r="G109" t="n">
-        <v>41333.33333333334</v>
+        <v>41310.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4407,7 +4443,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4417,22 +4457,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>42450</v>
+      </c>
+      <c r="C110" t="n">
         <v>42220</v>
       </c>
-      <c r="C110" t="n">
-        <v>42560</v>
-      </c>
       <c r="D110" t="n">
-        <v>42560</v>
+        <v>42450</v>
       </c>
       <c r="E110" t="n">
         <v>42220</v>
       </c>
       <c r="F110" t="n">
-        <v>41.8689</v>
+        <v>73.3501</v>
       </c>
       <c r="G110" t="n">
-        <v>41361.83333333334</v>
+        <v>41333.33333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4442,7 +4482,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4452,22 +4496,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>42500</v>
+        <v>42220</v>
       </c>
       <c r="C111" t="n">
         <v>42560</v>
       </c>
       <c r="D111" t="n">
-        <v>42590</v>
+        <v>42560</v>
       </c>
       <c r="E111" t="n">
-        <v>42500</v>
+        <v>42220</v>
       </c>
       <c r="F111" t="n">
-        <v>27.21579002</v>
+        <v>41.8689</v>
       </c>
       <c r="G111" t="n">
-        <v>41390.16666666666</v>
+        <v>41361.83333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4477,7 +4521,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4490,19 +4538,19 @@
         <v>42500</v>
       </c>
       <c r="C112" t="n">
-        <v>42370</v>
+        <v>42560</v>
       </c>
       <c r="D112" t="n">
-        <v>42880</v>
+        <v>42590</v>
       </c>
       <c r="E112" t="n">
-        <v>42370</v>
+        <v>42500</v>
       </c>
       <c r="F112" t="n">
-        <v>73.45601007</v>
+        <v>27.21579002</v>
       </c>
       <c r="G112" t="n">
-        <v>41415</v>
+        <v>41390.16666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4512,7 +4560,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4522,22 +4574,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>42400</v>
+        <v>42500</v>
       </c>
       <c r="C113" t="n">
-        <v>42410</v>
+        <v>42370</v>
       </c>
       <c r="D113" t="n">
-        <v>42800</v>
+        <v>42880</v>
       </c>
       <c r="E113" t="n">
-        <v>42350</v>
+        <v>42370</v>
       </c>
       <c r="F113" t="n">
-        <v>120.0305</v>
+        <v>73.45601007</v>
       </c>
       <c r="G113" t="n">
-        <v>41440.16666666666</v>
+        <v>41415</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4547,7 +4599,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4557,22 +4613,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>42530</v>
+        <v>42400</v>
       </c>
       <c r="C114" t="n">
-        <v>42530</v>
+        <v>42410</v>
       </c>
       <c r="D114" t="n">
-        <v>42540</v>
+        <v>42800</v>
       </c>
       <c r="E114" t="n">
-        <v>42500</v>
+        <v>42350</v>
       </c>
       <c r="F114" t="n">
-        <v>82.916</v>
+        <v>120.0305</v>
       </c>
       <c r="G114" t="n">
-        <v>41467.33333333334</v>
+        <v>41440.16666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4582,7 +4638,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4595,19 +4655,19 @@
         <v>42530</v>
       </c>
       <c r="C115" t="n">
-        <v>42650</v>
+        <v>42530</v>
       </c>
       <c r="D115" t="n">
-        <v>42650</v>
+        <v>42540</v>
       </c>
       <c r="E115" t="n">
-        <v>42530</v>
+        <v>42500</v>
       </c>
       <c r="F115" t="n">
-        <v>36.0055</v>
+        <v>82.916</v>
       </c>
       <c r="G115" t="n">
-        <v>41497.16666666666</v>
+        <v>41467.33333333334</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4617,7 +4677,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4627,22 +4691,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>42700</v>
+        <v>42530</v>
       </c>
       <c r="C116" t="n">
-        <v>42800</v>
+        <v>42650</v>
       </c>
       <c r="D116" t="n">
-        <v>42990</v>
+        <v>42650</v>
       </c>
       <c r="E116" t="n">
-        <v>42700</v>
+        <v>42530</v>
       </c>
       <c r="F116" t="n">
-        <v>449.3857</v>
+        <v>36.0055</v>
       </c>
       <c r="G116" t="n">
-        <v>41529.66666666666</v>
+        <v>41497.16666666666</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4652,7 +4716,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4662,22 +4730,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>42700</v>
+      </c>
+      <c r="C117" t="n">
         <v>42800</v>
       </c>
-      <c r="C117" t="n">
-        <v>42550</v>
-      </c>
       <c r="D117" t="n">
-        <v>42810</v>
+        <v>42990</v>
       </c>
       <c r="E117" t="n">
-        <v>42550</v>
+        <v>42700</v>
       </c>
       <c r="F117" t="n">
-        <v>140.87911772</v>
+        <v>449.3857</v>
       </c>
       <c r="G117" t="n">
-        <v>41558</v>
+        <v>41529.66666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4687,7 +4755,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4697,32 +4769,36 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>42590</v>
+        <v>42800</v>
       </c>
       <c r="C118" t="n">
-        <v>42600</v>
+        <v>42550</v>
       </c>
       <c r="D118" t="n">
-        <v>42600</v>
+        <v>42810</v>
       </c>
       <c r="E118" t="n">
-        <v>42590</v>
+        <v>42550</v>
       </c>
       <c r="F118" t="n">
-        <v>84.69889999999999</v>
+        <v>140.87911772</v>
       </c>
       <c r="G118" t="n">
-        <v>41587.16666666666</v>
+        <v>41558</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4732,22 +4808,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>42690</v>
+        <v>42590</v>
       </c>
       <c r="C119" t="n">
-        <v>42690</v>
+        <v>42600</v>
       </c>
       <c r="D119" t="n">
-        <v>42910</v>
+        <v>42600</v>
       </c>
       <c r="E119" t="n">
-        <v>42680</v>
+        <v>42590</v>
       </c>
       <c r="F119" t="n">
-        <v>151.1048</v>
+        <v>84.69889999999999</v>
       </c>
       <c r="G119" t="n">
-        <v>41617.83333333334</v>
+        <v>41587.16666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4757,7 +4833,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4767,22 +4847,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>42680</v>
+        <v>42690</v>
       </c>
       <c r="C120" t="n">
-        <v>42680</v>
+        <v>42690</v>
       </c>
       <c r="D120" t="n">
-        <v>42680</v>
+        <v>42910</v>
       </c>
       <c r="E120" t="n">
         <v>42680</v>
       </c>
       <c r="F120" t="n">
-        <v>64.22790000000001</v>
+        <v>151.1048</v>
       </c>
       <c r="G120" t="n">
-        <v>41646.33333333334</v>
+        <v>41617.83333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4792,7 +4872,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4805,19 +4889,19 @@
         <v>42680</v>
       </c>
       <c r="C121" t="n">
-        <v>42670</v>
+        <v>42680</v>
       </c>
       <c r="D121" t="n">
         <v>42680</v>
       </c>
       <c r="E121" t="n">
-        <v>42600</v>
+        <v>42680</v>
       </c>
       <c r="F121" t="n">
-        <v>103.0951</v>
+        <v>64.22790000000001</v>
       </c>
       <c r="G121" t="n">
-        <v>41678.5</v>
+        <v>41646.33333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4827,7 +4911,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4837,22 +4925,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>42680</v>
+      </c>
+      <c r="C122" t="n">
         <v>42670</v>
       </c>
-      <c r="C122" t="n">
-        <v>42600</v>
-      </c>
       <c r="D122" t="n">
-        <v>42670</v>
+        <v>42680</v>
       </c>
       <c r="E122" t="n">
         <v>42600</v>
       </c>
       <c r="F122" t="n">
-        <v>16.4506</v>
+        <v>103.0951</v>
       </c>
       <c r="G122" t="n">
-        <v>41706.33333333334</v>
+        <v>41678.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4862,7 +4950,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4872,22 +4964,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>42670</v>
+      </c>
+      <c r="C123" t="n">
         <v>42600</v>
       </c>
-      <c r="C123" t="n">
-        <v>42660</v>
-      </c>
       <c r="D123" t="n">
-        <v>42690</v>
+        <v>42670</v>
       </c>
       <c r="E123" t="n">
-        <v>42350</v>
+        <v>42600</v>
       </c>
       <c r="F123" t="n">
-        <v>4.9997</v>
+        <v>16.4506</v>
       </c>
       <c r="G123" t="n">
-        <v>41738.16666666666</v>
+        <v>41706.33333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4897,7 +4989,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4907,22 +5003,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>42580</v>
+        <v>42600</v>
       </c>
       <c r="C124" t="n">
-        <v>42600</v>
+        <v>42660</v>
       </c>
       <c r="D124" t="n">
-        <v>42600</v>
+        <v>42690</v>
       </c>
       <c r="E124" t="n">
-        <v>42580</v>
+        <v>42350</v>
       </c>
       <c r="F124" t="n">
-        <v>1.94222752</v>
+        <v>4.9997</v>
       </c>
       <c r="G124" t="n">
-        <v>41769</v>
+        <v>41738.16666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4932,7 +5028,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4942,22 +5042,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>42530</v>
+        <v>42580</v>
       </c>
       <c r="C125" t="n">
-        <v>42530</v>
+        <v>42600</v>
       </c>
       <c r="D125" t="n">
-        <v>42530</v>
+        <v>42600</v>
       </c>
       <c r="E125" t="n">
-        <v>42530</v>
+        <v>42580</v>
       </c>
       <c r="F125" t="n">
-        <v>2.1528</v>
+        <v>1.94222752</v>
       </c>
       <c r="G125" t="n">
-        <v>41798.66666666666</v>
+        <v>41769</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4967,7 +5067,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4980,19 +5084,19 @@
         <v>42530</v>
       </c>
       <c r="C126" t="n">
-        <v>42560</v>
+        <v>42530</v>
       </c>
       <c r="D126" t="n">
-        <v>42560</v>
+        <v>42530</v>
       </c>
       <c r="E126" t="n">
-        <v>42030</v>
+        <v>42530</v>
       </c>
       <c r="F126" t="n">
-        <v>233.2349624</v>
+        <v>2.1528</v>
       </c>
       <c r="G126" t="n">
-        <v>41828.66666666666</v>
+        <v>41798.66666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5002,7 +5106,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5012,22 +5120,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>42330</v>
+        <v>42530</v>
       </c>
       <c r="C127" t="n">
-        <v>42370</v>
+        <v>42560</v>
       </c>
       <c r="D127" t="n">
-        <v>42370</v>
+        <v>42560</v>
       </c>
       <c r="E127" t="n">
-        <v>42330</v>
+        <v>42030</v>
       </c>
       <c r="F127" t="n">
-        <v>87.2944</v>
+        <v>233.2349624</v>
       </c>
       <c r="G127" t="n">
-        <v>41856.16666666666</v>
+        <v>41828.66666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5037,7 +5145,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5047,7 +5159,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>42370</v>
+        <v>42330</v>
       </c>
       <c r="C128" t="n">
         <v>42370</v>
@@ -5056,13 +5168,13 @@
         <v>42370</v>
       </c>
       <c r="E128" t="n">
-        <v>42370</v>
+        <v>42330</v>
       </c>
       <c r="F128" t="n">
-        <v>11.8901</v>
+        <v>87.2944</v>
       </c>
       <c r="G128" t="n">
-        <v>41883.16666666666</v>
+        <v>41856.16666666666</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5072,7 +5184,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5082,22 +5198,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>42340</v>
+        <v>42370</v>
       </c>
       <c r="C129" t="n">
-        <v>42340</v>
+        <v>42370</v>
       </c>
       <c r="D129" t="n">
-        <v>42340</v>
+        <v>42370</v>
       </c>
       <c r="E129" t="n">
-        <v>42340</v>
+        <v>42370</v>
       </c>
       <c r="F129" t="n">
-        <v>8.731400000000001</v>
+        <v>11.8901</v>
       </c>
       <c r="G129" t="n">
-        <v>41908.83333333334</v>
+        <v>41883.16666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5107,7 +5223,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5117,22 +5237,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>42350</v>
+        <v>42340</v>
       </c>
       <c r="C130" t="n">
-        <v>42350</v>
+        <v>42340</v>
       </c>
       <c r="D130" t="n">
-        <v>42350</v>
+        <v>42340</v>
       </c>
       <c r="E130" t="n">
-        <v>42350</v>
+        <v>42340</v>
       </c>
       <c r="F130" t="n">
-        <v>2.4522</v>
+        <v>8.731400000000001</v>
       </c>
       <c r="G130" t="n">
-        <v>41931.5</v>
+        <v>41908.83333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5142,7 +5262,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5152,7 +5276,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>42340</v>
+        <v>42350</v>
       </c>
       <c r="C131" t="n">
         <v>42350</v>
@@ -5161,13 +5285,13 @@
         <v>42350</v>
       </c>
       <c r="E131" t="n">
-        <v>42340</v>
+        <v>42350</v>
       </c>
       <c r="F131" t="n">
-        <v>3.3639</v>
+        <v>2.4522</v>
       </c>
       <c r="G131" t="n">
-        <v>41951.83333333334</v>
+        <v>41931.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5177,7 +5301,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5187,7 +5315,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>42350</v>
+        <v>42340</v>
       </c>
       <c r="C132" t="n">
         <v>42350</v>
@@ -5196,13 +5324,13 @@
         <v>42350</v>
       </c>
       <c r="E132" t="n">
-        <v>42350</v>
+        <v>42340</v>
       </c>
       <c r="F132" t="n">
-        <v>13.9814</v>
+        <v>3.3639</v>
       </c>
       <c r="G132" t="n">
-        <v>41976.66666666666</v>
+        <v>41951.83333333334</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5212,7 +5340,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5225,19 +5357,19 @@
         <v>42350</v>
       </c>
       <c r="C133" t="n">
-        <v>42340</v>
+        <v>42350</v>
       </c>
       <c r="D133" t="n">
         <v>42350</v>
       </c>
       <c r="E133" t="n">
-        <v>42340</v>
+        <v>42350</v>
       </c>
       <c r="F133" t="n">
-        <v>4.1812</v>
+        <v>13.9814</v>
       </c>
       <c r="G133" t="n">
-        <v>42001.33333333334</v>
+        <v>41976.66666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5247,7 +5379,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5257,22 +5393,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>42260</v>
+        <v>42350</v>
       </c>
       <c r="C134" t="n">
-        <v>42260</v>
+        <v>42340</v>
       </c>
       <c r="D134" t="n">
-        <v>42260</v>
+        <v>42350</v>
       </c>
       <c r="E134" t="n">
-        <v>42260</v>
+        <v>42340</v>
       </c>
       <c r="F134" t="n">
-        <v>7.0813</v>
+        <v>4.1812</v>
       </c>
       <c r="G134" t="n">
-        <v>42020</v>
+        <v>42001.33333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5282,7 +5418,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5292,22 +5432,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>42100</v>
+        <v>42260</v>
       </c>
       <c r="C135" t="n">
-        <v>42100</v>
+        <v>42260</v>
       </c>
       <c r="D135" t="n">
-        <v>42100</v>
+        <v>42260</v>
       </c>
       <c r="E135" t="n">
-        <v>42100</v>
+        <v>42260</v>
       </c>
       <c r="F135" t="n">
-        <v>5.02</v>
+        <v>7.0813</v>
       </c>
       <c r="G135" t="n">
-        <v>42036</v>
+        <v>42020</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5317,7 +5457,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5330,19 +5474,19 @@
         <v>42100</v>
       </c>
       <c r="C136" t="n">
-        <v>41970</v>
+        <v>42100</v>
       </c>
       <c r="D136" t="n">
         <v>42100</v>
       </c>
       <c r="E136" t="n">
-        <v>41970</v>
+        <v>42100</v>
       </c>
       <c r="F136" t="n">
-        <v>7.0846</v>
+        <v>5.02</v>
       </c>
       <c r="G136" t="n">
-        <v>42049.83333333334</v>
+        <v>42036</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5352,7 +5496,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5362,22 +5510,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>42100</v>
+      </c>
+      <c r="C137" t="n">
         <v>41970</v>
       </c>
-      <c r="C137" t="n">
-        <v>42000</v>
-      </c>
       <c r="D137" t="n">
-        <v>42000</v>
+        <v>42100</v>
       </c>
       <c r="E137" t="n">
         <v>41970</v>
       </c>
       <c r="F137" t="n">
-        <v>102.0641</v>
+        <v>7.0846</v>
       </c>
       <c r="G137" t="n">
-        <v>42064.16666666666</v>
+        <v>42049.83333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5387,7 +5535,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5397,22 +5549,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>41960</v>
+        <v>41970</v>
       </c>
       <c r="C138" t="n">
-        <v>41960</v>
+        <v>42000</v>
       </c>
       <c r="D138" t="n">
-        <v>41960</v>
+        <v>42000</v>
       </c>
       <c r="E138" t="n">
-        <v>41960</v>
+        <v>41970</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5499000000000001</v>
+        <v>102.0641</v>
       </c>
       <c r="G138" t="n">
-        <v>42077.83333333334</v>
+        <v>42064.16666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5422,7 +5574,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5435,19 +5591,19 @@
         <v>41960</v>
       </c>
       <c r="C139" t="n">
-        <v>41950</v>
+        <v>41960</v>
       </c>
       <c r="D139" t="n">
         <v>41960</v>
       </c>
       <c r="E139" t="n">
-        <v>41950</v>
+        <v>41960</v>
       </c>
       <c r="F139" t="n">
-        <v>2.4539</v>
+        <v>0.5499000000000001</v>
       </c>
       <c r="G139" t="n">
-        <v>42089.16666666666</v>
+        <v>42077.83333333334</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5457,7 +5613,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5467,22 +5627,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>41900</v>
+        <v>41960</v>
       </c>
       <c r="C140" t="n">
-        <v>41900</v>
+        <v>41950</v>
       </c>
       <c r="D140" t="n">
-        <v>41900</v>
+        <v>41960</v>
       </c>
       <c r="E140" t="n">
-        <v>41900</v>
+        <v>41950</v>
       </c>
       <c r="F140" t="n">
-        <v>2.0686</v>
+        <v>2.4539</v>
       </c>
       <c r="G140" t="n">
-        <v>42096.66666666666</v>
+        <v>42089.16666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5492,7 +5652,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5505,19 +5669,19 @@
         <v>41900</v>
       </c>
       <c r="C141" t="n">
-        <v>41960</v>
+        <v>41900</v>
       </c>
       <c r="D141" t="n">
-        <v>41960</v>
+        <v>41900</v>
       </c>
       <c r="E141" t="n">
-        <v>41600</v>
+        <v>41900</v>
       </c>
       <c r="F141" t="n">
-        <v>15.0196</v>
+        <v>2.0686</v>
       </c>
       <c r="G141" t="n">
-        <v>42106</v>
+        <v>42096.66666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5527,7 +5691,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +5705,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>41960</v>
+        <v>41900</v>
       </c>
       <c r="C142" t="n">
         <v>41960</v>
@@ -5546,13 +5714,13 @@
         <v>41960</v>
       </c>
       <c r="E142" t="n">
-        <v>41960</v>
+        <v>41600</v>
       </c>
       <c r="F142" t="n">
-        <v>0.8492</v>
+        <v>15.0196</v>
       </c>
       <c r="G142" t="n">
-        <v>42113.16666666666</v>
+        <v>42106</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5562,7 +5730,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5572,22 +5744,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>42210</v>
+        <v>41960</v>
       </c>
       <c r="C143" t="n">
-        <v>42210</v>
+        <v>41960</v>
       </c>
       <c r="D143" t="n">
-        <v>42210</v>
+        <v>41960</v>
       </c>
       <c r="E143" t="n">
-        <v>42210</v>
+        <v>41960</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0585</v>
+        <v>0.8492</v>
       </c>
       <c r="G143" t="n">
-        <v>42125.5</v>
+        <v>42113.16666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5597,7 +5769,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5607,22 +5783,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>41920</v>
+        <v>42210</v>
       </c>
       <c r="C144" t="n">
-        <v>42200</v>
+        <v>42210</v>
       </c>
       <c r="D144" t="n">
-        <v>42200</v>
+        <v>42210</v>
       </c>
       <c r="E144" t="n">
-        <v>41890</v>
+        <v>42210</v>
       </c>
       <c r="F144" t="n">
-        <v>31.1296</v>
+        <v>0.0585</v>
       </c>
       <c r="G144" t="n">
-        <v>42138.83333333334</v>
+        <v>42125.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5632,7 +5808,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5642,7 +5822,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>42200</v>
+        <v>41920</v>
       </c>
       <c r="C145" t="n">
         <v>42200</v>
@@ -5651,13 +5831,13 @@
         <v>42200</v>
       </c>
       <c r="E145" t="n">
-        <v>42200</v>
+        <v>41890</v>
       </c>
       <c r="F145" t="n">
-        <v>0.6239</v>
+        <v>31.1296</v>
       </c>
       <c r="G145" t="n">
-        <v>42154.5</v>
+        <v>42138.83333333334</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5667,7 +5847,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5677,7 +5861,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>41970</v>
+        <v>42200</v>
       </c>
       <c r="C146" t="n">
         <v>42200</v>
@@ -5686,13 +5870,13 @@
         <v>42200</v>
       </c>
       <c r="E146" t="n">
-        <v>41970</v>
+        <v>42200</v>
       </c>
       <c r="F146" t="n">
-        <v>20.1206</v>
+        <v>0.6239</v>
       </c>
       <c r="G146" t="n">
-        <v>42170.16666666666</v>
+        <v>42154.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5702,7 +5886,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5712,22 +5900,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>41970</v>
+      </c>
+      <c r="C147" t="n">
         <v>42200</v>
-      </c>
-      <c r="C147" t="n">
-        <v>41990</v>
       </c>
       <c r="D147" t="n">
         <v>42200</v>
       </c>
       <c r="E147" t="n">
-        <v>41990</v>
+        <v>41970</v>
       </c>
       <c r="F147" t="n">
-        <v>11.9315</v>
+        <v>20.1206</v>
       </c>
       <c r="G147" t="n">
-        <v>42182.5</v>
+        <v>42170.16666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5737,7 +5925,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5747,22 +5939,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>42210</v>
+        <v>42200</v>
       </c>
       <c r="C148" t="n">
-        <v>42210</v>
+        <v>41990</v>
       </c>
       <c r="D148" t="n">
-        <v>42210</v>
+        <v>42200</v>
       </c>
       <c r="E148" t="n">
-        <v>42210</v>
+        <v>41990</v>
       </c>
       <c r="F148" t="n">
-        <v>0.1223</v>
+        <v>11.9315</v>
       </c>
       <c r="G148" t="n">
-        <v>42198.83333333334</v>
+        <v>42182.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5772,7 +5964,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5794,10 +5990,10 @@
         <v>42210</v>
       </c>
       <c r="F149" t="n">
-        <v>2.2508</v>
+        <v>0.1223</v>
       </c>
       <c r="G149" t="n">
-        <v>42210.66666666666</v>
+        <v>42198.83333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5807,7 +6003,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5817,22 +6017,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>41990</v>
+        <v>42210</v>
       </c>
       <c r="C150" t="n">
-        <v>41970</v>
+        <v>42210</v>
       </c>
       <c r="D150" t="n">
-        <v>41990</v>
+        <v>42210</v>
       </c>
       <c r="E150" t="n">
-        <v>41970</v>
+        <v>42210</v>
       </c>
       <c r="F150" t="n">
-        <v>32.7787</v>
+        <v>2.2508</v>
       </c>
       <c r="G150" t="n">
-        <v>42218.5</v>
+        <v>42210.66666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5842,7 +6042,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5852,22 +6056,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>41970</v>
+        <v>41990</v>
       </c>
       <c r="C151" t="n">
         <v>41970</v>
       </c>
       <c r="D151" t="n">
-        <v>41970</v>
+        <v>41990</v>
       </c>
       <c r="E151" t="n">
         <v>41970</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8989</v>
+        <v>32.7787</v>
       </c>
       <c r="G151" t="n">
-        <v>42223.83333333334</v>
+        <v>42218.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5877,7 +6081,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5890,19 +6098,19 @@
         <v>41970</v>
       </c>
       <c r="C152" t="n">
-        <v>42140</v>
+        <v>41970</v>
       </c>
       <c r="D152" t="n">
-        <v>42140</v>
+        <v>41970</v>
       </c>
       <c r="E152" t="n">
-        <v>41950</v>
+        <v>41970</v>
       </c>
       <c r="F152" t="n">
-        <v>0.3768</v>
+        <v>0.8989</v>
       </c>
       <c r="G152" t="n">
-        <v>42234</v>
+        <v>42223.83333333334</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5912,7 +6120,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5922,22 +6134,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>42190</v>
+        <v>41970</v>
       </c>
       <c r="C153" t="n">
-        <v>41970</v>
+        <v>42140</v>
       </c>
       <c r="D153" t="n">
-        <v>42190</v>
+        <v>42140</v>
       </c>
       <c r="E153" t="n">
-        <v>41970</v>
+        <v>41950</v>
       </c>
       <c r="F153" t="n">
-        <v>0.4622</v>
+        <v>0.3768</v>
       </c>
       <c r="G153" t="n">
-        <v>42243.83333333334</v>
+        <v>42234</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5947,7 +6159,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5957,22 +6173,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>41950</v>
+        <v>42190</v>
       </c>
       <c r="C154" t="n">
-        <v>42160</v>
+        <v>41970</v>
       </c>
       <c r="D154" t="n">
-        <v>42160</v>
+        <v>42190</v>
       </c>
       <c r="E154" t="n">
-        <v>41950</v>
+        <v>41970</v>
       </c>
       <c r="F154" t="n">
-        <v>2.4532</v>
+        <v>0.4622</v>
       </c>
       <c r="G154" t="n">
-        <v>42252.33333333334</v>
+        <v>42243.83333333334</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5982,7 +6198,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5995,19 +6215,19 @@
         <v>41950</v>
       </c>
       <c r="C155" t="n">
-        <v>42130</v>
+        <v>42160</v>
       </c>
       <c r="D155" t="n">
-        <v>42140</v>
+        <v>42160</v>
       </c>
       <c r="E155" t="n">
         <v>41950</v>
       </c>
       <c r="F155" t="n">
-        <v>21.8153</v>
+        <v>2.4532</v>
       </c>
       <c r="G155" t="n">
-        <v>42257.66666666666</v>
+        <v>42252.33333333334</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6017,7 +6237,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6030,19 +6254,19 @@
         <v>41950</v>
       </c>
       <c r="C156" t="n">
-        <v>41940</v>
+        <v>42130</v>
       </c>
       <c r="D156" t="n">
+        <v>42140</v>
+      </c>
+      <c r="E156" t="n">
         <v>41950</v>
       </c>
-      <c r="E156" t="n">
-        <v>41940</v>
-      </c>
       <c r="F156" t="n">
-        <v>0.3491</v>
+        <v>21.8153</v>
       </c>
       <c r="G156" t="n">
-        <v>42261</v>
+        <v>42257.66666666666</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6052,7 +6276,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6062,19 +6290,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>42110</v>
+        <v>41950</v>
       </c>
       <c r="C157" t="n">
-        <v>42110</v>
+        <v>41940</v>
       </c>
       <c r="D157" t="n">
-        <v>42110</v>
+        <v>41950</v>
       </c>
       <c r="E157" t="n">
-        <v>42110</v>
+        <v>41940</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0907</v>
+        <v>0.3491</v>
       </c>
       <c r="G157" t="n">
         <v>42261</v>
@@ -6087,7 +6315,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6097,22 +6329,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>42170</v>
+        <v>42110</v>
       </c>
       <c r="C158" t="n">
-        <v>42170</v>
+        <v>42110</v>
       </c>
       <c r="D158" t="n">
-        <v>42170</v>
+        <v>42110</v>
       </c>
       <c r="E158" t="n">
-        <v>42170</v>
+        <v>42110</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0272</v>
+        <v>0.0907</v>
       </c>
       <c r="G158" t="n">
-        <v>42262.66666666666</v>
+        <v>42261</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6122,7 +6354,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6132,22 +6368,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>41940</v>
+        <v>42170</v>
       </c>
       <c r="C159" t="n">
-        <v>41920</v>
+        <v>42170</v>
       </c>
       <c r="D159" t="n">
-        <v>41940</v>
+        <v>42170</v>
       </c>
       <c r="E159" t="n">
-        <v>41920</v>
+        <v>42170</v>
       </c>
       <c r="F159" t="n">
-        <v>10</v>
+        <v>0.0272</v>
       </c>
       <c r="G159" t="n">
-        <v>42260.33333333334</v>
+        <v>42262.66666666666</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6157,7 +6393,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6167,22 +6407,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>41910</v>
+        <v>41940</v>
       </c>
       <c r="C160" t="n">
-        <v>41910</v>
+        <v>41920</v>
       </c>
       <c r="D160" t="n">
-        <v>41910</v>
+        <v>41940</v>
       </c>
       <c r="E160" t="n">
-        <v>41910</v>
+        <v>41920</v>
       </c>
       <c r="F160" t="n">
-        <v>0.1144</v>
+        <v>10</v>
       </c>
       <c r="G160" t="n">
-        <v>42257.83333333334</v>
+        <v>42260.33333333334</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6192,7 +6432,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6202,22 +6446,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>41900</v>
+        <v>41910</v>
       </c>
       <c r="C161" t="n">
-        <v>41860</v>
+        <v>41910</v>
       </c>
       <c r="D161" t="n">
-        <v>41900</v>
+        <v>41910</v>
       </c>
       <c r="E161" t="n">
-        <v>41860</v>
+        <v>41910</v>
       </c>
       <c r="F161" t="n">
-        <v>5.2488</v>
+        <v>0.1144</v>
       </c>
       <c r="G161" t="n">
-        <v>42257.5</v>
+        <v>42257.83333333334</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6227,7 +6471,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6237,19 +6485,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>41850</v>
+        <v>41900</v>
       </c>
       <c r="C162" t="n">
-        <v>41850</v>
+        <v>41860</v>
       </c>
       <c r="D162" t="n">
-        <v>41850</v>
+        <v>41900</v>
       </c>
       <c r="E162" t="n">
-        <v>41850</v>
+        <v>41860</v>
       </c>
       <c r="F162" t="n">
-        <v>3.5559</v>
+        <v>5.2488</v>
       </c>
       <c r="G162" t="n">
         <v>42257.5</v>
@@ -6262,7 +6510,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6272,22 +6524,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>41630</v>
+        <v>41850</v>
       </c>
       <c r="C163" t="n">
-        <v>41630</v>
+        <v>41850</v>
       </c>
       <c r="D163" t="n">
-        <v>41630</v>
+        <v>41850</v>
       </c>
       <c r="E163" t="n">
-        <v>41630</v>
+        <v>41850</v>
       </c>
       <c r="F163" t="n">
-        <v>16.2363</v>
+        <v>3.5559</v>
       </c>
       <c r="G163" t="n">
-        <v>42251</v>
+        <v>42257.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6297,7 +6549,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6307,22 +6563,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>41500</v>
+        <v>41630</v>
       </c>
       <c r="C164" t="n">
-        <v>41500</v>
+        <v>41630</v>
       </c>
       <c r="D164" t="n">
-        <v>41500</v>
+        <v>41630</v>
       </c>
       <c r="E164" t="n">
-        <v>41500</v>
+        <v>41630</v>
       </c>
       <c r="F164" t="n">
-        <v>10</v>
+        <v>16.2363</v>
       </c>
       <c r="G164" t="n">
-        <v>42242</v>
+        <v>42251</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6332,7 +6588,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6345,19 +6605,19 @@
         <v>41500</v>
       </c>
       <c r="C165" t="n">
-        <v>41450</v>
+        <v>41500</v>
       </c>
       <c r="D165" t="n">
         <v>41500</v>
       </c>
       <c r="E165" t="n">
-        <v>41440</v>
+        <v>41500</v>
       </c>
       <c r="F165" t="n">
-        <v>471.8304</v>
+        <v>10</v>
       </c>
       <c r="G165" t="n">
-        <v>42230.5</v>
+        <v>42242</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6367,7 +6627,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6377,22 +6641,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>41400</v>
+        <v>41500</v>
       </c>
       <c r="C166" t="n">
         <v>41450</v>
       </c>
       <c r="D166" t="n">
-        <v>41450</v>
+        <v>41500</v>
       </c>
       <c r="E166" t="n">
-        <v>41390</v>
+        <v>41440</v>
       </c>
       <c r="F166" t="n">
-        <v>29.8164</v>
+        <v>471.8304</v>
       </c>
       <c r="G166" t="n">
-        <v>42216.5</v>
+        <v>42230.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6402,7 +6666,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6412,22 +6680,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>41630</v>
+        <v>41400</v>
       </c>
       <c r="C167" t="n">
-        <v>41630</v>
+        <v>41450</v>
       </c>
       <c r="D167" t="n">
-        <v>41630</v>
+        <v>41450</v>
       </c>
       <c r="E167" t="n">
-        <v>41630</v>
+        <v>41390</v>
       </c>
       <c r="F167" t="n">
-        <v>1.6818</v>
+        <v>29.8164</v>
       </c>
       <c r="G167" t="n">
-        <v>42204</v>
+        <v>42216.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6437,7 +6705,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6447,22 +6719,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>41540</v>
+        <v>41630</v>
       </c>
       <c r="C168" t="n">
-        <v>41530</v>
+        <v>41630</v>
       </c>
       <c r="D168" t="n">
-        <v>41540</v>
+        <v>41630</v>
       </c>
       <c r="E168" t="n">
-        <v>41530</v>
+        <v>41630</v>
       </c>
       <c r="F168" t="n">
-        <v>26.2673</v>
+        <v>1.6818</v>
       </c>
       <c r="G168" t="n">
-        <v>42188</v>
+        <v>42204</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6472,7 +6744,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6482,22 +6758,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>41560</v>
+        <v>41540</v>
       </c>
       <c r="C169" t="n">
         <v>41530</v>
       </c>
       <c r="D169" t="n">
-        <v>41560</v>
+        <v>41540</v>
       </c>
       <c r="E169" t="n">
         <v>41530</v>
       </c>
       <c r="F169" t="n">
-        <v>75.1511</v>
+        <v>26.2673</v>
       </c>
       <c r="G169" t="n">
-        <v>42176.5</v>
+        <v>42188</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6507,7 +6783,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6517,22 +6797,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>41760</v>
+        <v>41560</v>
       </c>
       <c r="C170" t="n">
-        <v>41620</v>
+        <v>41530</v>
       </c>
       <c r="D170" t="n">
-        <v>41850</v>
+        <v>41560</v>
       </c>
       <c r="E170" t="n">
-        <v>41610</v>
+        <v>41530</v>
       </c>
       <c r="F170" t="n">
-        <v>4.4081</v>
+        <v>75.1511</v>
       </c>
       <c r="G170" t="n">
-        <v>42160.83333333334</v>
+        <v>42176.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6542,7 +6822,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6552,22 +6836,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>41620</v>
+        <v>41760</v>
       </c>
       <c r="C171" t="n">
         <v>41620</v>
       </c>
       <c r="D171" t="n">
-        <v>41620</v>
+        <v>41850</v>
       </c>
       <c r="E171" t="n">
-        <v>41620</v>
+        <v>41610</v>
       </c>
       <c r="F171" t="n">
-        <v>0.2314</v>
+        <v>4.4081</v>
       </c>
       <c r="G171" t="n">
-        <v>42145.16666666666</v>
+        <v>42160.83333333334</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6577,7 +6861,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6587,22 +6875,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>41570</v>
+        <v>41620</v>
       </c>
       <c r="C172" t="n">
-        <v>41810</v>
+        <v>41620</v>
       </c>
       <c r="D172" t="n">
-        <v>41830</v>
+        <v>41620</v>
       </c>
       <c r="E172" t="n">
-        <v>41570</v>
+        <v>41620</v>
       </c>
       <c r="F172" t="n">
-        <v>2.2062</v>
+        <v>0.2314</v>
       </c>
       <c r="G172" t="n">
-        <v>42135.83333333334</v>
+        <v>42145.16666666666</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6612,7 +6900,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6622,22 +6914,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>41790</v>
+        <v>41570</v>
       </c>
       <c r="C173" t="n">
-        <v>41790</v>
+        <v>41810</v>
       </c>
       <c r="D173" t="n">
-        <v>41790</v>
+        <v>41830</v>
       </c>
       <c r="E173" t="n">
-        <v>41790</v>
+        <v>41570</v>
       </c>
       <c r="F173" t="n">
-        <v>4.0972</v>
+        <v>2.2062</v>
       </c>
       <c r="G173" t="n">
-        <v>42125.5</v>
+        <v>42135.83333333334</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6647,7 +6939,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6660,19 +6956,19 @@
         <v>41790</v>
       </c>
       <c r="C174" t="n">
-        <v>41800</v>
+        <v>41790</v>
       </c>
       <c r="D174" t="n">
-        <v>41800</v>
+        <v>41790</v>
       </c>
       <c r="E174" t="n">
-        <v>41620</v>
+        <v>41790</v>
       </c>
       <c r="F174" t="n">
-        <v>31.258</v>
+        <v>4.0972</v>
       </c>
       <c r="G174" t="n">
-        <v>42113.33333333334</v>
+        <v>42125.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6682,7 +6978,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6692,22 +6992,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>41790</v>
+      </c>
+      <c r="C175" t="n">
         <v>41800</v>
       </c>
-      <c r="C175" t="n">
-        <v>41870</v>
-      </c>
       <c r="D175" t="n">
-        <v>42180</v>
+        <v>41800</v>
       </c>
       <c r="E175" t="n">
-        <v>41800</v>
+        <v>41620</v>
       </c>
       <c r="F175" t="n">
-        <v>137.0738</v>
+        <v>31.258</v>
       </c>
       <c r="G175" t="n">
-        <v>42100.33333333334</v>
+        <v>42113.33333333334</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6717,7 +7017,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6727,22 +7031,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>42170</v>
+        <v>41800</v>
       </c>
       <c r="C176" t="n">
-        <v>42170</v>
+        <v>41870</v>
       </c>
       <c r="D176" t="n">
-        <v>42170</v>
+        <v>42180</v>
       </c>
       <c r="E176" t="n">
-        <v>42170</v>
+        <v>41800</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0414</v>
+        <v>137.0738</v>
       </c>
       <c r="G176" t="n">
-        <v>42089.83333333334</v>
+        <v>42100.33333333334</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6752,7 +7056,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6762,22 +7070,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>42190</v>
+        <v>42170</v>
       </c>
       <c r="C177" t="n">
-        <v>42360</v>
+        <v>42170</v>
       </c>
       <c r="D177" t="n">
-        <v>42360</v>
+        <v>42170</v>
       </c>
       <c r="E177" t="n">
-        <v>42190</v>
+        <v>42170</v>
       </c>
       <c r="F177" t="n">
-        <v>12</v>
+        <v>0.0414</v>
       </c>
       <c r="G177" t="n">
-        <v>42086.66666666666</v>
+        <v>42089.83333333334</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6787,7 +7095,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6797,22 +7109,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
+        <v>42190</v>
+      </c>
+      <c r="C178" t="n">
         <v>42360</v>
       </c>
-      <c r="C178" t="n">
-        <v>42350</v>
-      </c>
       <c r="D178" t="n">
-        <v>42370</v>
+        <v>42360</v>
       </c>
       <c r="E178" t="n">
-        <v>42350</v>
+        <v>42190</v>
       </c>
       <c r="F178" t="n">
-        <v>89.90000000000001</v>
+        <v>12</v>
       </c>
       <c r="G178" t="n">
-        <v>42082.5</v>
+        <v>42086.66666666666</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6822,7 +7134,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6832,22 +7148,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>42500</v>
+        <v>42360</v>
       </c>
       <c r="C179" t="n">
-        <v>42530</v>
+        <v>42350</v>
       </c>
       <c r="D179" t="n">
-        <v>42530</v>
+        <v>42370</v>
       </c>
       <c r="E179" t="n">
-        <v>42500</v>
+        <v>42350</v>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="G179" t="n">
-        <v>42079.83333333334</v>
+        <v>42082.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6857,7 +7173,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6867,22 +7187,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>42320</v>
+        <v>42500</v>
       </c>
       <c r="C180" t="n">
-        <v>42190</v>
+        <v>42530</v>
       </c>
       <c r="D180" t="n">
-        <v>42320</v>
+        <v>42530</v>
       </c>
       <c r="E180" t="n">
-        <v>42190</v>
+        <v>42500</v>
       </c>
       <c r="F180" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>42071.66666666666</v>
+        <v>42079.83333333334</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6892,7 +7212,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6902,22 +7226,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>42220</v>
+        <v>42320</v>
       </c>
       <c r="C181" t="n">
-        <v>42510</v>
+        <v>42190</v>
       </c>
       <c r="D181" t="n">
-        <v>42510</v>
+        <v>42320</v>
       </c>
       <c r="E181" t="n">
-        <v>42220</v>
+        <v>42190</v>
       </c>
       <c r="F181" t="n">
-        <v>20.5</v>
+        <v>4.7</v>
       </c>
       <c r="G181" t="n">
-        <v>42069</v>
+        <v>42071.66666666666</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6927,7 +7251,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6937,22 +7265,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>42310</v>
+        <v>42220</v>
       </c>
       <c r="C182" t="n">
-        <v>42300</v>
+        <v>42510</v>
       </c>
       <c r="D182" t="n">
-        <v>42310</v>
+        <v>42510</v>
       </c>
       <c r="E182" t="n">
-        <v>42300</v>
+        <v>42220</v>
       </c>
       <c r="F182" t="n">
-        <v>17.8406</v>
+        <v>20.5</v>
       </c>
       <c r="G182" t="n">
-        <v>42064</v>
+        <v>42069</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6962,7 +7290,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6972,22 +7304,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>42410</v>
+        <v>42310</v>
       </c>
       <c r="C183" t="n">
-        <v>42590</v>
+        <v>42300</v>
       </c>
       <c r="D183" t="n">
-        <v>42590</v>
+        <v>42310</v>
       </c>
       <c r="E183" t="n">
-        <v>42390</v>
+        <v>42300</v>
       </c>
       <c r="F183" t="n">
-        <v>361.6331</v>
+        <v>17.8406</v>
       </c>
       <c r="G183" t="n">
-        <v>42062.83333333334</v>
+        <v>42064</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6997,7 +7329,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7007,22 +7343,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>42570</v>
+        <v>42410</v>
       </c>
       <c r="C184" t="n">
-        <v>42580</v>
+        <v>42590</v>
       </c>
       <c r="D184" t="n">
-        <v>42580</v>
+        <v>42590</v>
       </c>
       <c r="E184" t="n">
-        <v>42570</v>
+        <v>42390</v>
       </c>
       <c r="F184" t="n">
-        <v>34.91430368</v>
+        <v>361.6331</v>
       </c>
       <c r="G184" t="n">
-        <v>42062.5</v>
+        <v>42062.83333333334</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7032,7 +7368,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7042,22 +7382,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>42260</v>
+        <v>42570</v>
       </c>
       <c r="C185" t="n">
-        <v>42280</v>
+        <v>42580</v>
       </c>
       <c r="D185" t="n">
-        <v>42590</v>
+        <v>42580</v>
       </c>
       <c r="E185" t="n">
-        <v>42250</v>
+        <v>42570</v>
       </c>
       <c r="F185" t="n">
-        <v>35.3</v>
+        <v>34.91430368</v>
       </c>
       <c r="G185" t="n">
-        <v>42058.33333333334</v>
+        <v>42062.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7067,7 +7407,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7077,19 +7421,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
+        <v>42260</v>
+      </c>
+      <c r="C186" t="n">
         <v>42280</v>
       </c>
-      <c r="C186" t="n">
-        <v>42560</v>
-      </c>
       <c r="D186" t="n">
-        <v>42740</v>
+        <v>42590</v>
       </c>
       <c r="E186" t="n">
-        <v>42280</v>
+        <v>42250</v>
       </c>
       <c r="F186" t="n">
-        <v>231.62152583</v>
+        <v>35.3</v>
       </c>
       <c r="G186" t="n">
         <v>42058.33333333334</v>
@@ -7102,7 +7446,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7112,22 +7460,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>42270</v>
+        <v>42280</v>
       </c>
       <c r="C187" t="n">
-        <v>42480</v>
+        <v>42560</v>
       </c>
       <c r="D187" t="n">
-        <v>42480</v>
+        <v>42740</v>
       </c>
       <c r="E187" t="n">
-        <v>42270</v>
+        <v>42280</v>
       </c>
       <c r="F187" t="n">
-        <v>3.0164</v>
+        <v>231.62152583</v>
       </c>
       <c r="G187" t="n">
-        <v>42060.16666666666</v>
+        <v>42058.33333333334</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7137,7 +7485,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7147,22 +7499,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>42260</v>
+        <v>42270</v>
       </c>
       <c r="C188" t="n">
-        <v>42260</v>
+        <v>42480</v>
       </c>
       <c r="D188" t="n">
-        <v>42260</v>
+        <v>42480</v>
       </c>
       <c r="E188" t="n">
-        <v>42230</v>
+        <v>42270</v>
       </c>
       <c r="F188" t="n">
-        <v>41.7143</v>
+        <v>3.0164</v>
       </c>
       <c r="G188" t="n">
-        <v>42058.33333333334</v>
+        <v>42060.16666666666</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7172,7 +7524,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7182,22 +7538,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>42210</v>
+        <v>42260</v>
       </c>
       <c r="C189" t="n">
-        <v>42210</v>
+        <v>42260</v>
       </c>
       <c r="D189" t="n">
-        <v>42210</v>
+        <v>42260</v>
       </c>
       <c r="E189" t="n">
-        <v>42210</v>
+        <v>42230</v>
       </c>
       <c r="F189" t="n">
-        <v>22.322</v>
+        <v>41.7143</v>
       </c>
       <c r="G189" t="n">
-        <v>42056.16666666666</v>
+        <v>42058.33333333334</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7207,7 +7563,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7217,22 +7577,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>42200</v>
+        <v>42210</v>
       </c>
       <c r="C190" t="n">
-        <v>42200</v>
+        <v>42210</v>
       </c>
       <c r="D190" t="n">
-        <v>42200</v>
+        <v>42210</v>
       </c>
       <c r="E190" t="n">
-        <v>42200</v>
+        <v>42210</v>
       </c>
       <c r="F190" t="n">
-        <v>1.5674</v>
+        <v>22.322</v>
       </c>
       <c r="G190" t="n">
-        <v>42053.66666666666</v>
+        <v>42056.16666666666</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7242,7 +7602,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7255,19 +7619,19 @@
         <v>42200</v>
       </c>
       <c r="C191" t="n">
-        <v>42210</v>
+        <v>42200</v>
       </c>
       <c r="D191" t="n">
-        <v>42210</v>
+        <v>42200</v>
       </c>
       <c r="E191" t="n">
         <v>42200</v>
       </c>
       <c r="F191" t="n">
-        <v>16.8383</v>
+        <v>1.5674</v>
       </c>
       <c r="G191" t="n">
-        <v>42051.33333333334</v>
+        <v>42053.66666666666</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7277,7 +7641,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7290,19 +7658,19 @@
         <v>42200</v>
       </c>
       <c r="C192" t="n">
-        <v>41870</v>
+        <v>42210</v>
       </c>
       <c r="D192" t="n">
+        <v>42210</v>
+      </c>
+      <c r="E192" t="n">
         <v>42200</v>
       </c>
-      <c r="E192" t="n">
-        <v>41870</v>
-      </c>
       <c r="F192" t="n">
-        <v>10</v>
+        <v>16.8383</v>
       </c>
       <c r="G192" t="n">
-        <v>42043.33333333334</v>
+        <v>42051.33333333334</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7312,7 +7680,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7325,19 +7697,19 @@
         <v>42200</v>
       </c>
       <c r="C193" t="n">
-        <v>41910</v>
+        <v>41870</v>
       </c>
       <c r="D193" t="n">
         <v>42200</v>
       </c>
       <c r="E193" t="n">
-        <v>41910</v>
+        <v>41870</v>
       </c>
       <c r="F193" t="n">
-        <v>16.1634</v>
+        <v>10</v>
       </c>
       <c r="G193" t="n">
-        <v>42036.16666666666</v>
+        <v>42043.33333333334</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7347,7 +7719,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7357,22 +7733,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>41890</v>
+        <v>42200</v>
       </c>
       <c r="C194" t="n">
-        <v>42090</v>
+        <v>41910</v>
       </c>
       <c r="D194" t="n">
-        <v>42090</v>
+        <v>42200</v>
       </c>
       <c r="E194" t="n">
-        <v>41870</v>
+        <v>41910</v>
       </c>
       <c r="F194" t="n">
-        <v>37.1962</v>
+        <v>16.1634</v>
       </c>
       <c r="G194" t="n">
-        <v>42033.33333333334</v>
+        <v>42036.16666666666</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7382,8 +7758,51 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>41890</v>
+      </c>
+      <c r="C195" t="n">
+        <v>42090</v>
+      </c>
+      <c r="D195" t="n">
+        <v>42090</v>
+      </c>
+      <c r="E195" t="n">
+        <v>41870</v>
+      </c>
+      <c r="F195" t="n">
+        <v>37.1962</v>
+      </c>
+      <c r="G195" t="n">
+        <v>42033.33333333334</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-14 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-14 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M195"/>
+  <dimension ref="A1:N205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>4.4</v>
       </c>
       <c r="G2" t="n">
+        <v>39512</v>
+      </c>
+      <c r="H2" t="n">
         <v>39443.83333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>7.3669</v>
       </c>
       <c r="G3" t="n">
+        <v>39575.33333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>39453.5</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>40260</v>
+      </c>
+      <c r="L3" t="n">
+        <v>40260</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>24</v>
       </c>
       <c r="G4" t="n">
+        <v>39638</v>
+      </c>
+      <c r="H4" t="n">
         <v>39466.33333333334</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40350</v>
+      </c>
+      <c r="L4" t="n">
+        <v>40260</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>56.2289</v>
       </c>
       <c r="G5" t="n">
+        <v>39732</v>
+      </c>
+      <c r="H5" t="n">
         <v>39482.16666666666</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>40260</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,21 @@
         <v>13.9359</v>
       </c>
       <c r="G6" t="n">
+        <v>39821.33333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>39497.5</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +661,21 @@
         <v>12</v>
       </c>
       <c r="G7" t="n">
+        <v>39870.66666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>39507.83333333334</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +699,21 @@
         <v>154.7269</v>
       </c>
       <c r="G8" t="n">
+        <v>39928.66666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>39517</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +737,21 @@
         <v>56.2289</v>
       </c>
       <c r="G9" t="n">
+        <v>39992.66666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>39526.16666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +775,21 @@
         <v>4.2191</v>
       </c>
       <c r="G10" t="n">
+        <v>40043.33333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>39536.66666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +813,27 @@
         <v>12</v>
       </c>
       <c r="G11" t="n">
+        <v>40100.66666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>39545.83333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>40300</v>
+      </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +857,27 @@
         <v>70.5851</v>
       </c>
       <c r="G12" t="n">
+        <v>40168</v>
+      </c>
+      <c r="H12" t="n">
         <v>39556.33333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>40220</v>
+      </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +901,27 @@
         <v>0.074</v>
       </c>
       <c r="G13" t="n">
+        <v>40253.33333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>39569.66666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>40300</v>
+      </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +945,27 @@
         <v>0.1692</v>
       </c>
       <c r="G14" t="n">
+        <v>40332.66666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>39584.83333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>40580</v>
+      </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +989,25 @@
         <v>0.0338</v>
       </c>
       <c r="G15" t="n">
+        <v>40377.33333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>39600</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1031,25 @@
         <v>0.0258</v>
       </c>
       <c r="G16" t="n">
+        <v>40424</v>
+      </c>
+      <c r="H16" t="n">
         <v>39621.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1073,25 @@
         <v>0.253</v>
       </c>
       <c r="G17" t="n">
+        <v>40446.66666666666</v>
+      </c>
+      <c r="H17" t="n">
         <v>39637</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1115,25 @@
         <v>16.7932</v>
       </c>
       <c r="G18" t="n">
+        <v>40462.66666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>39655.16666666666</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1157,25 @@
         <v>295.6384</v>
       </c>
       <c r="G19" t="n">
+        <v>40500</v>
+      </c>
+      <c r="H19" t="n">
         <v>39679.33333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1199,25 @@
         <v>9.7485</v>
       </c>
       <c r="G20" t="n">
+        <v>40520.66666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>39702.16666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1241,25 @@
         <v>55.1658</v>
       </c>
       <c r="G21" t="n">
+        <v>40525.33333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>39720.66666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1283,25 @@
         <v>81.9383</v>
       </c>
       <c r="G22" t="n">
+        <v>40564</v>
+      </c>
+      <c r="H22" t="n">
         <v>39745.5</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1325,25 @@
         <v>119.1536</v>
       </c>
       <c r="G23" t="n">
+        <v>40594.66666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>39767.5</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1367,25 @@
         <v>12.4116</v>
       </c>
       <c r="G24" t="n">
+        <v>40630</v>
+      </c>
+      <c r="H24" t="n">
         <v>39792.16666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1409,25 @@
         <v>10.6932</v>
       </c>
       <c r="G25" t="n">
+        <v>40676</v>
+      </c>
+      <c r="H25" t="n">
         <v>39820.83333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1451,25 @@
         <v>340.1154</v>
       </c>
       <c r="G26" t="n">
+        <v>40728.66666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>39849.83333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1493,25 @@
         <v>12.2587</v>
       </c>
       <c r="G27" t="n">
+        <v>40775.33333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>39878.66666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1535,25 @@
         <v>0.0746</v>
       </c>
       <c r="G28" t="n">
+        <v>40803.33333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>39907.83333333334</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1577,25 @@
         <v>4.5922</v>
       </c>
       <c r="G29" t="n">
+        <v>40831.33333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>39937</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1619,25 @@
         <v>44.7368</v>
       </c>
       <c r="G30" t="n">
+        <v>40859.33333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>39969.5</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1661,25 @@
         <v>0.07439999999999999</v>
       </c>
       <c r="G31" t="n">
+        <v>40866</v>
+      </c>
+      <c r="H31" t="n">
         <v>39999.66666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1703,25 @@
         <v>15.4366</v>
       </c>
       <c r="G32" t="n">
+        <v>40881.33333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>40026</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1745,25 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
+        <v>40899.33333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>40053.66666666666</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1787,25 @@
         <v>1.24</v>
       </c>
       <c r="G34" t="n">
+        <v>40895.33333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>40081</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1829,25 @@
         <v>6</v>
       </c>
       <c r="G35" t="n">
+        <v>40895.33333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>40108.66666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1871,25 @@
         <v>168.50237858</v>
       </c>
       <c r="G36" t="n">
+        <v>40933.33333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>40146.83333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1913,25 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
+        <v>40955.33333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>40179.33333333334</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1955,25 @@
         <v>13.44542142</v>
       </c>
       <c r="G38" t="n">
+        <v>40990</v>
+      </c>
+      <c r="H38" t="n">
         <v>40224</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1997,25 @@
         <v>0.36081763</v>
       </c>
       <c r="G39" t="n">
+        <v>41033.33333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>40257.66666666666</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2039,25 @@
         <v>101.21401393</v>
       </c>
       <c r="G40" t="n">
+        <v>41067.33333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>40301.66666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2081,25 @@
         <v>68.08221473</v>
       </c>
       <c r="G41" t="n">
+        <v>41106</v>
+      </c>
+      <c r="H41" t="n">
         <v>40340</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2123,25 @@
         <v>5.5683</v>
       </c>
       <c r="G42" t="n">
+        <v>41124</v>
+      </c>
+      <c r="H42" t="n">
         <v>40369.33333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2165,25 @@
         <v>56.6482</v>
       </c>
       <c r="G43" t="n">
+        <v>41139.33333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>40397.83333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2207,25 @@
         <v>16.3638</v>
       </c>
       <c r="G44" t="n">
+        <v>41162</v>
+      </c>
+      <c r="H44" t="n">
         <v>40428.16666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2249,25 @@
         <v>9.756532030000001</v>
       </c>
       <c r="G45" t="n">
+        <v>41175.33333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>40456</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2291,25 @@
         <v>36</v>
       </c>
       <c r="G46" t="n">
+        <v>41165.33333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>40479</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2333,25 @@
         <v>5.7597</v>
       </c>
       <c r="G47" t="n">
+        <v>41176</v>
+      </c>
+      <c r="H47" t="n">
         <v>40504</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2375,25 @@
         <v>1.9314</v>
       </c>
       <c r="G48" t="n">
+        <v>41183.33333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>40530.16666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2417,25 @@
         <v>1.4442</v>
       </c>
       <c r="G49" t="n">
+        <v>41188.66666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>40555.5</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,24 +2459,25 @@
         <v>4.8513</v>
       </c>
       <c r="G50" t="n">
+        <v>41186.66666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>40583.66666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>40970</v>
+        <v>0</v>
       </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2169,24 +2501,25 @@
         <v>34.217</v>
       </c>
       <c r="G51" t="n">
+        <v>41164</v>
+      </c>
+      <c r="H51" t="n">
         <v>40611</v>
       </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>40850</v>
+        <v>0</v>
       </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2210,22 +2543,25 @@
         <v>1.5694</v>
       </c>
       <c r="G52" t="n">
+        <v>41142</v>
+      </c>
+      <c r="H52" t="n">
         <v>40633</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,22 +2585,25 @@
         <v>2.4045</v>
       </c>
       <c r="G53" t="n">
+        <v>41120.66666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>40658.5</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2288,22 +2627,25 @@
         <v>20.8267</v>
       </c>
       <c r="G54" t="n">
+        <v>41087.33333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>40685.83333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2327,22 +2669,25 @@
         <v>9.112500000000001</v>
       </c>
       <c r="G55" t="n">
+        <v>41047.33333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>40708.5</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2366,22 +2711,25 @@
         <v>11.4372</v>
       </c>
       <c r="G56" t="n">
+        <v>40998.66666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>40733.5</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2405,22 +2753,25 @@
         <v>18.5</v>
       </c>
       <c r="G57" t="n">
+        <v>40970.66666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>40759.5</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2444,22 +2795,25 @@
         <v>2.671</v>
       </c>
       <c r="G58" t="n">
+        <v>40945.33333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>40785.33333333334</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2483,22 +2837,25 @@
         <v>0.2</v>
       </c>
       <c r="G59" t="n">
+        <v>40912.66666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>40809.66666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2522,22 +2879,25 @@
         <v>3.9965</v>
       </c>
       <c r="G60" t="n">
+        <v>40889.33333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>40825.33333333334</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2561,22 +2921,25 @@
         <v>0.0679</v>
       </c>
       <c r="G61" t="n">
+        <v>40893.33333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>40837.16666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2600,22 +2963,25 @@
         <v>2.9038</v>
       </c>
       <c r="G62" t="n">
+        <v>40876.66666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>40845.16666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2639,22 +3005,25 @@
         <v>4.208</v>
       </c>
       <c r="G63" t="n">
+        <v>40874</v>
+      </c>
+      <c r="H63" t="n">
         <v>40854.83333333334</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2678,22 +3047,25 @@
         <v>18.1115</v>
       </c>
       <c r="G64" t="n">
+        <v>40859.33333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>40860.83333333334</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2717,22 +3089,25 @@
         <v>4.0414</v>
       </c>
       <c r="G65" t="n">
+        <v>40852.66666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>40863.83333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,22 +3131,27 @@
         <v>3.2001</v>
       </c>
       <c r="G66" t="n">
+        <v>40846</v>
+      </c>
+      <c r="H66" t="n">
         <v>40867.16666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>40750</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2795,22 +3175,27 @@
         <v>18.6056</v>
       </c>
       <c r="G67" t="n">
+        <v>40839.33333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>40875.16666666666</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>40750</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2834,22 +3219,27 @@
         <v>24.3</v>
       </c>
       <c r="G68" t="n">
+        <v>40828.66666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>40883.5</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>40760</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2873,22 +3263,27 @@
         <v>0.5</v>
       </c>
       <c r="G69" t="n">
+        <v>40818.66666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>40892.33333333334</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>40720</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2912,22 +3307,27 @@
         <v>0.111</v>
       </c>
       <c r="G70" t="n">
+        <v>40812</v>
+      </c>
+      <c r="H70" t="n">
         <v>40900.66666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>40750</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2951,22 +3351,27 @@
         <v>104.6106</v>
       </c>
       <c r="G71" t="n">
+        <v>40820.66666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>40913.5</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>40800</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2990,22 +3395,27 @@
         <v>17.0691</v>
       </c>
       <c r="G72" t="n">
+        <v>40839.33333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>40927.33333333334</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>40990</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3029,22 +3439,25 @@
         <v>0.7328</v>
       </c>
       <c r="G73" t="n">
+        <v>40840</v>
+      </c>
+      <c r="H73" t="n">
         <v>40932</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3068,22 +3481,25 @@
         <v>0.0235</v>
       </c>
       <c r="G74" t="n">
+        <v>40840.66666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>40936.66666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3107,22 +3523,27 @@
         <v>9.574299999999999</v>
       </c>
       <c r="G75" t="n">
+        <v>40860</v>
+      </c>
+      <c r="H75" t="n">
         <v>40946</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>40860</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3146,22 +3567,25 @@
         <v>0.4257</v>
       </c>
       <c r="G76" t="n">
+        <v>40871.33333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>40949</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3185,22 +3609,25 @@
         <v>0.1459</v>
       </c>
       <c r="G77" t="n">
+        <v>40898</v>
+      </c>
+      <c r="H77" t="n">
         <v>40958</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3224,22 +3651,25 @@
         <v>0.9058</v>
       </c>
       <c r="G78" t="n">
+        <v>40912</v>
+      </c>
+      <c r="H78" t="n">
         <v>40967.16666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3263,22 +3693,25 @@
         <v>13.4302</v>
       </c>
       <c r="G79" t="n">
+        <v>40938</v>
+      </c>
+      <c r="H79" t="n">
         <v>40970.33333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3302,22 +3735,25 @@
         <v>30</v>
       </c>
       <c r="G80" t="n">
+        <v>40972.66666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>40976.83333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3341,22 +3777,25 @@
         <v>3</v>
       </c>
       <c r="G81" t="n">
+        <v>41019.33333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>40990.66666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3380,22 +3819,25 @@
         <v>10</v>
       </c>
       <c r="G82" t="n">
+        <v>41062</v>
+      </c>
+      <c r="H82" t="n">
         <v>40999.66666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3419,22 +3861,25 @@
         <v>0.0566</v>
       </c>
       <c r="G83" t="n">
+        <v>41116</v>
+      </c>
+      <c r="H83" t="n">
         <v>41013.83333333334</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,22 +3903,25 @@
         <v>70.5772</v>
       </c>
       <c r="G84" t="n">
+        <v>41164</v>
+      </c>
+      <c r="H84" t="n">
         <v>41025.83333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3497,22 +3945,25 @@
         <v>6.2013</v>
       </c>
       <c r="G85" t="n">
+        <v>41204</v>
+      </c>
+      <c r="H85" t="n">
         <v>41032.66666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3536,22 +3987,25 @@
         <v>0.539</v>
       </c>
       <c r="G86" t="n">
+        <v>41222</v>
+      </c>
+      <c r="H86" t="n">
         <v>41036.83333333334</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3575,22 +4029,25 @@
         <v>8.4695</v>
       </c>
       <c r="G87" t="n">
+        <v>41230.66666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>41041.16666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,22 +4071,25 @@
         <v>13.3963</v>
       </c>
       <c r="G88" t="n">
+        <v>41256.66666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>41045.33333333334</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3653,22 +4113,25 @@
         <v>24.5143</v>
       </c>
       <c r="G89" t="n">
+        <v>41281.33333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>41049.16666666666</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3692,22 +4155,25 @@
         <v>1.0852</v>
       </c>
       <c r="G90" t="n">
+        <v>41305.33333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>41057.5</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3731,22 +4197,25 @@
         <v>0.06633733999999999</v>
       </c>
       <c r="G91" t="n">
+        <v>41329.33333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>41064.83333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3770,22 +4239,25 @@
         <v>75.0574</v>
       </c>
       <c r="G92" t="n">
+        <v>41363.33333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>41078.5</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3809,22 +4281,25 @@
         <v>23.20912364</v>
       </c>
       <c r="G93" t="n">
+        <v>41389.33333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>41089.66666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3848,22 +4323,25 @@
         <v>2.8091</v>
       </c>
       <c r="G94" t="n">
+        <v>41405.33333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>41097.83333333334</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3887,22 +4365,25 @@
         <v>3.3862</v>
       </c>
       <c r="G95" t="n">
+        <v>41430.66666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>41110.66666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3926,22 +4407,25 @@
         <v>2.99907149</v>
       </c>
       <c r="G96" t="n">
+        <v>41454.66666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>41121</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3965,22 +4449,25 @@
         <v>491.03090487</v>
       </c>
       <c r="G97" t="n">
+        <v>41477.33333333334</v>
+      </c>
+      <c r="H97" t="n">
         <v>41130.16666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4004,22 +4491,25 @@
         <v>30.1757</v>
       </c>
       <c r="G98" t="n">
+        <v>41516</v>
+      </c>
+      <c r="H98" t="n">
         <v>41145.33333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4043,22 +4533,25 @@
         <v>4.3207</v>
       </c>
       <c r="G99" t="n">
+        <v>41556</v>
+      </c>
+      <c r="H99" t="n">
         <v>41156.5</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4082,22 +4575,25 @@
         <v>60.407</v>
       </c>
       <c r="G100" t="n">
+        <v>41600</v>
+      </c>
+      <c r="H100" t="n">
         <v>41165.83333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4121,22 +4617,25 @@
         <v>9.041399999999999</v>
       </c>
       <c r="G101" t="n">
+        <v>41653.33333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>41173.66666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4160,22 +4659,25 @@
         <v>154.1</v>
       </c>
       <c r="G102" t="n">
+        <v>41694.66666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>41183.83333333334</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4199,22 +4701,25 @@
         <v>9.6012</v>
       </c>
       <c r="G103" t="n">
+        <v>41734.66666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>41194.16666666666</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,22 +4743,25 @@
         <v>66.818</v>
       </c>
       <c r="G104" t="n">
+        <v>41787.33333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>41205.5</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4277,22 +4785,25 @@
         <v>4.3891</v>
       </c>
       <c r="G105" t="n">
+        <v>41823.33333333334</v>
+      </c>
+      <c r="H105" t="n">
         <v>41219.5</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,22 +4827,25 @@
         <v>2</v>
       </c>
       <c r="G106" t="n">
+        <v>41866</v>
+      </c>
+      <c r="H106" t="n">
         <v>41240</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4355,22 +4869,25 @@
         <v>0.0532</v>
       </c>
       <c r="G107" t="n">
+        <v>41908.66666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>41261.66666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4394,22 +4911,25 @@
         <v>23.3876</v>
       </c>
       <c r="G108" t="n">
+        <v>41965.33333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>41285.16666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4433,22 +4953,25 @@
         <v>58.6219</v>
       </c>
       <c r="G109" t="n">
+        <v>42039.33333333334</v>
+      </c>
+      <c r="H109" t="n">
         <v>41310.5</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4472,22 +4995,25 @@
         <v>73.3501</v>
       </c>
       <c r="G110" t="n">
+        <v>42077.33333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>41333.33333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4511,22 +5037,25 @@
         <v>41.8689</v>
       </c>
       <c r="G111" t="n">
+        <v>42127.33333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>41361.83333333334</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4550,22 +5079,25 @@
         <v>27.21579002</v>
       </c>
       <c r="G112" t="n">
+        <v>42182</v>
+      </c>
+      <c r="H112" t="n">
         <v>41390.16666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4589,24 +5121,25 @@
         <v>73.45601007</v>
       </c>
       <c r="G113" t="n">
+        <v>42199.33333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>41415</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4628,22 +5161,21 @@
         <v>120.0305</v>
       </c>
       <c r="G114" t="n">
+        <v>42222</v>
+      </c>
+      <c r="H114" t="n">
         <v>41440.16666666666</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4667,22 +5199,21 @@
         <v>82.916</v>
       </c>
       <c r="G115" t="n">
+        <v>42253.33333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>41467.33333333334</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4706,22 +5237,21 @@
         <v>36.0055</v>
       </c>
       <c r="G116" t="n">
+        <v>42292.66666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>41497.16666666666</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4745,22 +5275,21 @@
         <v>449.3857</v>
       </c>
       <c r="G117" t="n">
+        <v>42354</v>
+      </c>
+      <c r="H117" t="n">
         <v>41529.66666666666</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4784,22 +5313,21 @@
         <v>140.87911772</v>
       </c>
       <c r="G118" t="n">
+        <v>42400.66666666666</v>
+      </c>
+      <c r="H118" t="n">
         <v>41558</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,22 +5351,21 @@
         <v>84.69889999999999</v>
       </c>
       <c r="G119" t="n">
+        <v>42439.33333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>41587.16666666666</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4862,22 +5389,21 @@
         <v>151.1048</v>
       </c>
       <c r="G120" t="n">
+        <v>42482.66666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>41617.83333333334</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4901,22 +5427,21 @@
         <v>64.22790000000001</v>
       </c>
       <c r="G121" t="n">
+        <v>42518.66666666666</v>
+      </c>
+      <c r="H121" t="n">
         <v>41646.33333333334</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4940,22 +5465,21 @@
         <v>103.0951</v>
       </c>
       <c r="G122" t="n">
+        <v>42544</v>
+      </c>
+      <c r="H122" t="n">
         <v>41678.5</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,22 +5503,21 @@
         <v>16.4506</v>
       </c>
       <c r="G123" t="n">
+        <v>42558.66666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>41706.33333333334</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5018,22 +5541,21 @@
         <v>4.9997</v>
       </c>
       <c r="G124" t="n">
+        <v>42570</v>
+      </c>
+      <c r="H124" t="n">
         <v>41738.16666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5057,22 +5579,21 @@
         <v>1.94222752</v>
       </c>
       <c r="G125" t="n">
+        <v>42595.33333333334</v>
+      </c>
+      <c r="H125" t="n">
         <v>41769</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5096,22 +5617,21 @@
         <v>2.1528</v>
       </c>
       <c r="G126" t="n">
+        <v>42593.33333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>41798.66666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5135,22 +5655,21 @@
         <v>233.2349624</v>
       </c>
       <c r="G127" t="n">
+        <v>42593.33333333334</v>
+      </c>
+      <c r="H127" t="n">
         <v>41828.66666666666</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5174,22 +5693,21 @@
         <v>87.2944</v>
       </c>
       <c r="G128" t="n">
+        <v>42593.33333333334</v>
+      </c>
+      <c r="H128" t="n">
         <v>41856.16666666666</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5213,22 +5731,21 @@
         <v>11.8901</v>
       </c>
       <c r="G129" t="n">
+        <v>42590.66666666666</v>
+      </c>
+      <c r="H129" t="n">
         <v>41883.16666666666</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5252,22 +5769,21 @@
         <v>8.731400000000001</v>
       </c>
       <c r="G130" t="n">
+        <v>42578</v>
+      </c>
+      <c r="H130" t="n">
         <v>41908.83333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5291,22 +5807,21 @@
         <v>2.4522</v>
       </c>
       <c r="G131" t="n">
+        <v>42558</v>
+      </c>
+      <c r="H131" t="n">
         <v>41931.5</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5330,22 +5845,21 @@
         <v>3.3639</v>
       </c>
       <c r="G132" t="n">
+        <v>42528</v>
+      </c>
+      <c r="H132" t="n">
         <v>41951.83333333334</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5369,22 +5883,21 @@
         <v>13.9814</v>
       </c>
       <c r="G133" t="n">
+        <v>42514.66666666666</v>
+      </c>
+      <c r="H133" t="n">
         <v>41976.66666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5408,22 +5921,21 @@
         <v>4.1812</v>
       </c>
       <c r="G134" t="n">
+        <v>42497.33333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>42001.33333333334</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5447,22 +5959,21 @@
         <v>7.0813</v>
       </c>
       <c r="G135" t="n">
+        <v>42468.66666666666</v>
+      </c>
+      <c r="H135" t="n">
         <v>42020</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5486,22 +5997,21 @@
         <v>5.02</v>
       </c>
       <c r="G136" t="n">
+        <v>42430</v>
+      </c>
+      <c r="H136" t="n">
         <v>42036</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5525,22 +6035,21 @@
         <v>7.0846</v>
       </c>
       <c r="G137" t="n">
+        <v>42383.33333333334</v>
+      </c>
+      <c r="H137" t="n">
         <v>42049.83333333334</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5564,22 +6073,21 @@
         <v>102.0641</v>
       </c>
       <c r="G138" t="n">
+        <v>42343.33333333334</v>
+      </c>
+      <c r="H138" t="n">
         <v>42064.16666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5603,22 +6111,21 @@
         <v>0.5499000000000001</v>
       </c>
       <c r="G139" t="n">
+        <v>42296.66666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>42077.83333333334</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5642,22 +6149,21 @@
         <v>2.4539</v>
       </c>
       <c r="G140" t="n">
+        <v>42253.33333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>42089.16666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5681,22 +6187,21 @@
         <v>2.0686</v>
       </c>
       <c r="G141" t="n">
+        <v>42211.33333333334</v>
+      </c>
+      <c r="H141" t="n">
         <v>42096.66666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5720,22 +6225,21 @@
         <v>15.0196</v>
       </c>
       <c r="G142" t="n">
+        <v>42171.33333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>42106</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5759,22 +6263,21 @@
         <v>0.8492</v>
       </c>
       <c r="G143" t="n">
+        <v>42144</v>
+      </c>
+      <c r="H143" t="n">
         <v>42113.16666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5798,22 +6301,21 @@
         <v>0.0585</v>
       </c>
       <c r="G144" t="n">
+        <v>42133.33333333334</v>
+      </c>
+      <c r="H144" t="n">
         <v>42125.5</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5837,22 +6339,21 @@
         <v>31.1296</v>
       </c>
       <c r="G145" t="n">
+        <v>42124</v>
+      </c>
+      <c r="H145" t="n">
         <v>42138.83333333334</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5876,22 +6377,21 @@
         <v>0.6239</v>
       </c>
       <c r="G146" t="n">
+        <v>42114</v>
+      </c>
+      <c r="H146" t="n">
         <v>42154.5</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5915,22 +6415,21 @@
         <v>20.1206</v>
       </c>
       <c r="G147" t="n">
+        <v>42104</v>
+      </c>
+      <c r="H147" t="n">
         <v>42170.16666666666</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5954,22 +6453,21 @@
         <v>11.9315</v>
       </c>
       <c r="G148" t="n">
+        <v>42080</v>
+      </c>
+      <c r="H148" t="n">
         <v>42182.5</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5993,22 +6491,21 @@
         <v>0.1223</v>
       </c>
       <c r="G149" t="n">
+        <v>42071.33333333334</v>
+      </c>
+      <c r="H149" t="n">
         <v>42198.83333333334</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6032,22 +6529,21 @@
         <v>2.2508</v>
       </c>
       <c r="G150" t="n">
+        <v>42068</v>
+      </c>
+      <c r="H150" t="n">
         <v>42210.66666666666</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6071,22 +6567,21 @@
         <v>32.7787</v>
       </c>
       <c r="G151" t="n">
+        <v>42059.33333333334</v>
+      </c>
+      <c r="H151" t="n">
         <v>42218.5</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6110,22 +6605,21 @@
         <v>0.8989</v>
       </c>
       <c r="G152" t="n">
+        <v>42059.33333333334</v>
+      </c>
+      <c r="H152" t="n">
         <v>42223.83333333334</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6149,22 +6643,21 @@
         <v>0.3768</v>
       </c>
       <c r="G153" t="n">
+        <v>42068.66666666666</v>
+      </c>
+      <c r="H153" t="n">
         <v>42234</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,22 +6681,21 @@
         <v>0.4622</v>
       </c>
       <c r="G154" t="n">
+        <v>42069.33333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>42243.83333333334</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6227,22 +6719,21 @@
         <v>2.4532</v>
       </c>
       <c r="G155" t="n">
+        <v>42083.33333333334</v>
+      </c>
+      <c r="H155" t="n">
         <v>42252.33333333334</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6266,22 +6757,21 @@
         <v>21.8153</v>
       </c>
       <c r="G156" t="n">
+        <v>42098.66666666666</v>
+      </c>
+      <c r="H156" t="n">
         <v>42257.66666666666</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6305,22 +6795,21 @@
         <v>0.3491</v>
       </c>
       <c r="G157" t="n">
+        <v>42097.33333333334</v>
+      </c>
+      <c r="H157" t="n">
         <v>42261</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6344,22 +6833,21 @@
         <v>0.0907</v>
       </c>
       <c r="G158" t="n">
+        <v>42107.33333333334</v>
+      </c>
+      <c r="H158" t="n">
         <v>42261</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6383,22 +6871,21 @@
         <v>0.0272</v>
       </c>
       <c r="G159" t="n">
+        <v>42104.66666666666</v>
+      </c>
+      <c r="H159" t="n">
         <v>42262.66666666666</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6422,22 +6909,21 @@
         <v>10</v>
       </c>
       <c r="G160" t="n">
+        <v>42086</v>
+      </c>
+      <c r="H160" t="n">
         <v>42260.33333333334</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6461,22 +6947,21 @@
         <v>0.1144</v>
       </c>
       <c r="G161" t="n">
+        <v>42066.66666666666</v>
+      </c>
+      <c r="H161" t="n">
         <v>42257.83333333334</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6500,22 +6985,21 @@
         <v>5.2488</v>
       </c>
       <c r="G162" t="n">
+        <v>42044</v>
+      </c>
+      <c r="H162" t="n">
         <v>42257.5</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6539,22 +7023,21 @@
         <v>3.5559</v>
       </c>
       <c r="G163" t="n">
+        <v>42034.66666666666</v>
+      </c>
+      <c r="H163" t="n">
         <v>42257.5</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6578,22 +7061,21 @@
         <v>16.2363</v>
       </c>
       <c r="G164" t="n">
+        <v>41996</v>
+      </c>
+      <c r="H164" t="n">
         <v>42251</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6617,22 +7099,21 @@
         <v>10</v>
       </c>
       <c r="G165" t="n">
+        <v>41948.66666666666</v>
+      </c>
+      <c r="H165" t="n">
         <v>42242</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6656,22 +7137,21 @@
         <v>471.8304</v>
       </c>
       <c r="G166" t="n">
+        <v>41914</v>
+      </c>
+      <c r="H166" t="n">
         <v>42230.5</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6695,22 +7175,21 @@
         <v>29.8164</v>
       </c>
       <c r="G167" t="n">
+        <v>41879.33333333334</v>
+      </c>
+      <c r="H167" t="n">
         <v>42216.5</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6734,22 +7213,21 @@
         <v>1.6818</v>
       </c>
       <c r="G168" t="n">
+        <v>41845.33333333334</v>
+      </c>
+      <c r="H168" t="n">
         <v>42204</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6773,22 +7251,21 @@
         <v>26.2673</v>
       </c>
       <c r="G169" t="n">
+        <v>41816</v>
+      </c>
+      <c r="H169" t="n">
         <v>42188</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6812,22 +7289,21 @@
         <v>75.1511</v>
       </c>
       <c r="G170" t="n">
+        <v>41774</v>
+      </c>
+      <c r="H170" t="n">
         <v>42176.5</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6851,22 +7327,21 @@
         <v>4.4081</v>
       </c>
       <c r="G171" t="n">
+        <v>41740</v>
+      </c>
+      <c r="H171" t="n">
         <v>42160.83333333334</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6890,22 +7365,21 @@
         <v>0.2314</v>
       </c>
       <c r="G172" t="n">
+        <v>41718.66666666666</v>
+      </c>
+      <c r="H172" t="n">
         <v>42145.16666666666</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6929,22 +7403,21 @@
         <v>2.2062</v>
       </c>
       <c r="G173" t="n">
+        <v>41698.66666666666</v>
+      </c>
+      <c r="H173" t="n">
         <v>42135.83333333334</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6968,22 +7441,21 @@
         <v>4.0972</v>
       </c>
       <c r="G174" t="n">
+        <v>41673.33333333334</v>
+      </c>
+      <c r="H174" t="n">
         <v>42125.5</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7007,22 +7479,21 @@
         <v>31.258</v>
       </c>
       <c r="G175" t="n">
+        <v>41665.33333333334</v>
+      </c>
+      <c r="H175" t="n">
         <v>42113.33333333334</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7046,22 +7517,21 @@
         <v>137.0738</v>
       </c>
       <c r="G176" t="n">
+        <v>41662.66666666666</v>
+      </c>
+      <c r="H176" t="n">
         <v>42100.33333333334</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7085,22 +7555,21 @@
         <v>0.0414</v>
       </c>
       <c r="G177" t="n">
+        <v>41683.33333333334</v>
+      </c>
+      <c r="H177" t="n">
         <v>42089.83333333334</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7124,22 +7593,21 @@
         <v>12</v>
       </c>
       <c r="G178" t="n">
+        <v>41717.33333333334</v>
+      </c>
+      <c r="H178" t="n">
         <v>42086.66666666666</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7163,22 +7631,21 @@
         <v>89.90000000000001</v>
       </c>
       <c r="G179" t="n">
+        <v>41765.33333333334</v>
+      </c>
+      <c r="H179" t="n">
         <v>42082.5</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7202,22 +7669,21 @@
         <v>1</v>
       </c>
       <c r="G180" t="n">
+        <v>41834</v>
+      </c>
+      <c r="H180" t="n">
         <v>42079.83333333334</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7241,22 +7707,21 @@
         <v>4.7</v>
       </c>
       <c r="G181" t="n">
+        <v>41883.33333333334</v>
+      </c>
+      <c r="H181" t="n">
         <v>42071.66666666666</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7280,22 +7745,21 @@
         <v>20.5</v>
       </c>
       <c r="G182" t="n">
+        <v>41954</v>
+      </c>
+      <c r="H182" t="n">
         <v>42069</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7319,22 +7783,21 @@
         <v>17.8406</v>
       </c>
       <c r="G183" t="n">
+        <v>41998.66666666666</v>
+      </c>
+      <c r="H183" t="n">
         <v>42064</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7358,22 +7821,21 @@
         <v>361.6331</v>
       </c>
       <c r="G184" t="n">
+        <v>42069.33333333334</v>
+      </c>
+      <c r="H184" t="n">
         <v>42062.83333333334</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7397,22 +7859,21 @@
         <v>34.91430368</v>
       </c>
       <c r="G185" t="n">
+        <v>42139.33333333334</v>
+      </c>
+      <c r="H185" t="n">
         <v>42062.5</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7436,22 +7897,21 @@
         <v>35.3</v>
       </c>
       <c r="G186" t="n">
+        <v>42183.33333333334</v>
+      </c>
+      <c r="H186" t="n">
         <v>42058.33333333334</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7475,22 +7935,21 @@
         <v>231.62152583</v>
       </c>
       <c r="G187" t="n">
+        <v>42246</v>
+      </c>
+      <c r="H187" t="n">
         <v>42058.33333333334</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7514,22 +7973,21 @@
         <v>3.0164</v>
       </c>
       <c r="G188" t="n">
+        <v>42290.66666666666</v>
+      </c>
+      <c r="H188" t="n">
         <v>42060.16666666666</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,22 +8011,21 @@
         <v>41.7143</v>
       </c>
       <c r="G189" t="n">
+        <v>42322</v>
+      </c>
+      <c r="H189" t="n">
         <v>42058.33333333334</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7592,22 +8049,21 @@
         <v>22.322</v>
       </c>
       <c r="G190" t="n">
+        <v>42349.33333333334</v>
+      </c>
+      <c r="H190" t="n">
         <v>42056.16666666666</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7631,22 +8087,21 @@
         <v>1.5674</v>
       </c>
       <c r="G191" t="n">
+        <v>42371.33333333334</v>
+      </c>
+      <c r="H191" t="n">
         <v>42053.66666666666</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7670,22 +8125,21 @@
         <v>16.8383</v>
       </c>
       <c r="G192" t="n">
+        <v>42374</v>
+      </c>
+      <c r="H192" t="n">
         <v>42051.33333333334</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7709,22 +8163,21 @@
         <v>10</v>
       </c>
       <c r="G193" t="n">
+        <v>42341.33333333334</v>
+      </c>
+      <c r="H193" t="n">
         <v>42043.33333333334</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7748,22 +8201,21 @@
         <v>16.1634</v>
       </c>
       <c r="G194" t="n">
+        <v>42312</v>
+      </c>
+      <c r="H194" t="n">
         <v>42036.16666666666</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7787,22 +8239,401 @@
         <v>37.1962</v>
       </c>
       <c r="G195" t="n">
+        <v>42282.66666666666</v>
+      </c>
+      <c r="H195" t="n">
         <v>42033.33333333334</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>41840</v>
+      </c>
+      <c r="C196" t="n">
+        <v>42040</v>
+      </c>
+      <c r="D196" t="n">
+        <v>42040</v>
+      </c>
+      <c r="E196" t="n">
+        <v>41510</v>
+      </c>
+      <c r="F196" t="n">
+        <v>199.97</v>
+      </c>
+      <c r="G196" t="n">
+        <v>42272.66666666666</v>
+      </c>
+      <c r="H196" t="n">
+        <v>42032.33333333334</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>41830</v>
+      </c>
+      <c r="C197" t="n">
+        <v>41830</v>
+      </c>
+      <c r="D197" t="n">
+        <v>41830</v>
+      </c>
+      <c r="E197" t="n">
+        <v>41830</v>
+      </c>
+      <c r="F197" t="n">
+        <v>6.3426</v>
+      </c>
+      <c r="G197" t="n">
+        <v>42227.33333333334</v>
+      </c>
+      <c r="H197" t="n">
+        <v>42030</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>41920</v>
+      </c>
+      <c r="C198" t="n">
+        <v>42170</v>
+      </c>
+      <c r="D198" t="n">
+        <v>42170</v>
+      </c>
+      <c r="E198" t="n">
+        <v>41920</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2.491</v>
+      </c>
+      <c r="G198" t="n">
+        <v>42218.66666666666</v>
+      </c>
+      <c r="H198" t="n">
+        <v>42032.83333333334</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>42160</v>
+      </c>
+      <c r="C199" t="n">
+        <v>42150</v>
+      </c>
+      <c r="D199" t="n">
+        <v>42160</v>
+      </c>
+      <c r="E199" t="n">
+        <v>42150</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1.3228</v>
+      </c>
+      <c r="G199" t="n">
+        <v>42189.33333333334</v>
+      </c>
+      <c r="H199" t="n">
+        <v>42036</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>42200</v>
+      </c>
+      <c r="C200" t="n">
+        <v>42200</v>
+      </c>
+      <c r="D200" t="n">
+        <v>42200</v>
+      </c>
+      <c r="E200" t="n">
+        <v>42200</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1.1029</v>
+      </c>
+      <c r="G200" t="n">
+        <v>42164</v>
+      </c>
+      <c r="H200" t="n">
+        <v>42040.16666666666</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>42200</v>
+      </c>
+      <c r="C201" t="n">
+        <v>42200</v>
+      </c>
+      <c r="D201" t="n">
+        <v>42200</v>
+      </c>
+      <c r="E201" t="n">
+        <v>42200</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.1471</v>
+      </c>
+      <c r="G201" t="n">
+        <v>42158.66666666666</v>
+      </c>
+      <c r="H201" t="n">
+        <v>42045.16666666666</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>42200</v>
+      </c>
+      <c r="C202" t="n">
+        <v>42050</v>
+      </c>
+      <c r="D202" t="n">
+        <v>42200</v>
+      </c>
+      <c r="E202" t="n">
+        <v>42050</v>
+      </c>
+      <c r="F202" t="n">
+        <v>63.3097</v>
+      </c>
+      <c r="G202" t="n">
+        <v>42124.66666666666</v>
+      </c>
+      <c r="H202" t="n">
+        <v>42046.66666666666</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>42000</v>
+      </c>
+      <c r="C203" t="n">
+        <v>41900</v>
+      </c>
+      <c r="D203" t="n">
+        <v>42000</v>
+      </c>
+      <c r="E203" t="n">
+        <v>41900</v>
+      </c>
+      <c r="F203" t="n">
+        <v>24</v>
+      </c>
+      <c r="G203" t="n">
+        <v>42086</v>
+      </c>
+      <c r="H203" t="n">
+        <v>42045.66666666666</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>41900</v>
+      </c>
+      <c r="C204" t="n">
+        <v>41800</v>
+      </c>
+      <c r="D204" t="n">
+        <v>41900</v>
+      </c>
+      <c r="E204" t="n">
+        <v>41800</v>
+      </c>
+      <c r="F204" t="n">
+        <v>10</v>
+      </c>
+      <c r="G204" t="n">
+        <v>42055.33333333334</v>
+      </c>
+      <c r="H204" t="n">
+        <v>42038.83333333334</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>41780</v>
+      </c>
+      <c r="C205" t="n">
+        <v>41610</v>
+      </c>
+      <c r="D205" t="n">
+        <v>41780</v>
+      </c>
+      <c r="E205" t="n">
+        <v>41610</v>
+      </c>
+      <c r="F205" t="n">
+        <v>24.6061</v>
+      </c>
+      <c r="G205" t="n">
+        <v>42015.33333333334</v>
+      </c>
+      <c r="H205" t="n">
+        <v>42029</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-14 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-14 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N263"/>
+  <dimension ref="A1:M263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>26.73952535</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,15 @@
         <v>26.73952535</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>39620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +517,15 @@
         <v>26.95542535000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +550,15 @@
         <v>27.23162535000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>39630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +583,15 @@
         <v>10466.29512535</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>39660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -662,20 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,20 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -742,20 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -782,20 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -822,20 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -862,20 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -902,20 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -942,20 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -982,20 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1022,20 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1062,20 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1102,20 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1142,20 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1182,20 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1222,20 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1260,24 +1111,19 @@
         <v>10468.27072535</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>39360</v>
       </c>
       <c r="J22" t="n">
         <v>39360</v>
       </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1302,22 +1148,23 @@
         <v>10468.27072535</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="J23" t="n">
+        <v>39360</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1342,22 +1189,23 @@
         <v>10468.27072535</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="J24" t="n">
+        <v>39360</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1382,22 +1230,19 @@
         <v>10468.27072535</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="J25" t="n">
+        <v>39270</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1422,22 +1267,23 @@
         <v>10468.07662535</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="J26" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1462,24 +1308,23 @@
         <v>10468.07662535</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>39250</v>
       </c>
       <c r="J27" t="n">
-        <v>39250</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1504,24 +1349,23 @@
         <v>10465.15892535</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>39250</v>
       </c>
       <c r="J28" t="n">
-        <v>39250</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1546,24 +1390,21 @@
         <v>10469.51892535</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>39050</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1588,24 +1429,23 @@
         <v>10469.51892535</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>39250</v>
       </c>
       <c r="J30" t="n">
-        <v>39250</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1630,24 +1470,23 @@
         <v>10467.51892535</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>39250</v>
       </c>
       <c r="J31" t="n">
-        <v>39250</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1672,24 +1511,21 @@
         <v>10468.52402535</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>39200</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1716,20 +1552,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1754,24 +1589,21 @@
         <v>10307.28412535</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>39220</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1796,24 +1628,21 @@
         <v>10317.17262535</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>38900</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1838,24 +1667,21 @@
         <v>10305.49962535</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>39240</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1880,24 +1706,23 @@
         <v>10306.94962535</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>38520</v>
       </c>
       <c r="J37" t="n">
-        <v>38520</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1922,22 +1747,23 @@
         <v>10303.94962535</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>39380</v>
+      </c>
+      <c r="J38" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1964,20 +1790,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2004,20 +1829,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2044,20 +1868,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2084,20 +1907,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2124,20 +1946,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2164,20 +1985,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2204,20 +2024,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2244,20 +2063,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2284,20 +2102,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2324,20 +2141,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2362,24 +2178,21 @@
         <v>10416.61412535</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>39160</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2404,24 +2217,21 @@
         <v>10417.53412535</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>39210</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2446,24 +2256,21 @@
         <v>10416.61412535</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>39540</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2488,24 +2295,21 @@
         <v>10415.61562535</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>39350</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2530,24 +2334,23 @@
         <v>10416.04482535</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>39260</v>
       </c>
       <c r="J53" t="n">
-        <v>39260</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2572,24 +2375,23 @@
         <v>10404.93592535</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>39540</v>
       </c>
       <c r="J54" t="n">
-        <v>39540</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2614,24 +2416,21 @@
         <v>10402.14442535</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>39360</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2656,24 +2455,21 @@
         <v>10404.12742535</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>39290</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2698,24 +2494,21 @@
         <v>10411.72742535</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>39300</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>39270</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2742,20 +2535,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2782,20 +2574,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2822,20 +2613,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2862,20 +2652,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2902,20 +2691,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2942,20 +2730,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2982,20 +2769,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3022,20 +2808,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3062,20 +2847,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3102,20 +2886,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3142,20 +2925,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3182,20 +2964,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3222,20 +3003,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3262,20 +3042,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3302,20 +3081,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3342,20 +3120,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3382,20 +3159,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3422,20 +3198,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3462,20 +3237,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3502,20 +3276,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3542,20 +3315,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3582,20 +3354,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3622,20 +3393,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3662,20 +3432,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3702,20 +3471,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3742,20 +3510,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3782,20 +3549,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3822,20 +3588,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3862,20 +3627,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3902,20 +3666,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3942,20 +3705,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3982,20 +3744,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4022,20 +3783,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4062,20 +3822,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4102,20 +3861,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4142,20 +3900,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4182,20 +3939,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4222,20 +3978,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4262,20 +4017,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4302,20 +4056,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4342,20 +4095,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4382,20 +4134,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4422,20 +4173,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4462,20 +4212,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4502,20 +4251,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4542,20 +4290,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4582,20 +4329,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4622,20 +4368,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4662,20 +4407,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4702,20 +4446,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4742,20 +4485,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4782,20 +4524,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4822,20 +4563,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4862,20 +4602,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4902,20 +4641,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4942,20 +4680,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4982,20 +4719,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5022,20 +4758,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5062,20 +4797,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5102,20 +4836,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5142,20 +4875,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5182,20 +4914,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5222,20 +4953,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5262,20 +4992,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5302,20 +5031,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5342,20 +5070,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5382,20 +5109,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5422,20 +5148,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5462,20 +5187,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5502,20 +5226,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5542,20 +5265,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5582,20 +5304,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5622,20 +5343,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5662,20 +5382,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5702,20 +5421,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5742,20 +5460,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5782,20 +5499,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5822,20 +5538,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5862,20 +5577,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5902,20 +5616,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5942,20 +5655,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5982,20 +5694,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6022,20 +5733,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6062,20 +5772,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6102,20 +5811,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6142,20 +5850,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6180,22 +5887,21 @@
         <v>11277.93983961</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>39270</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1.045674815380698</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6220,22 +5926,15 @@
         <v>11277.93983961</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6260,22 +5959,15 @@
         <v>11264.54353961</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6302,20 +5994,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6342,20 +6027,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6382,20 +6060,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6422,20 +6093,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6462,20 +6126,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6502,20 +6159,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6542,20 +6192,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6582,20 +6225,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6622,20 +6258,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6660,22 +6289,15 @@
         <v>10835.68368259</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6700,22 +6322,15 @@
         <v>10831.36298259</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6740,22 +6355,15 @@
         <v>10770.95598259</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6780,20 +6388,15 @@
         <v>10770.95598259</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L159" t="n">
+        <v>1</v>
       </c>
       <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6818,18 +6421,15 @@
         <v>10616.85598259</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6854,18 +6454,15 @@
         <v>10607.25478259</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6890,18 +6487,15 @@
         <v>10674.07278259</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6926,18 +6520,15 @@
         <v>10678.46188259</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6962,18 +6553,15 @@
         <v>10680.46188259</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6998,18 +6586,15 @@
         <v>10680.51508259</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7034,18 +6619,15 @@
         <v>10703.90268259</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7070,18 +6652,15 @@
         <v>10762.52458259</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7106,18 +6685,15 @@
         <v>10689.17448259</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7142,18 +6718,15 @@
         <v>10731.04338259</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7178,18 +6751,15 @@
         <v>10731.04338259</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7214,18 +6784,15 @@
         <v>10657.58737252</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7250,18 +6817,15 @@
         <v>10777.61787252</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7286,18 +6850,15 @@
         <v>10860.53387252</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7322,18 +6883,15 @@
         <v>10896.53937252</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7358,18 +6916,15 @@
         <v>11345.92507252</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7394,18 +6949,15 @@
         <v>11205.0459548</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7430,18 +6982,15 @@
         <v>11289.7448548</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7466,18 +7015,15 @@
         <v>11440.8496548</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7502,18 +7048,15 @@
         <v>11376.6217548</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7538,18 +7081,15 @@
         <v>11273.5266548</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7574,18 +7114,15 @@
         <v>11257.0760548</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7610,18 +7147,15 @@
         <v>11262.0757548</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7646,18 +7180,15 @@
         <v>11260.13352728</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7682,18 +7213,15 @@
         <v>11257.98072728</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7720,16 +7248,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7756,16 +7281,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7790,18 +7312,15 @@
         <v>11403.92128968</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7826,18 +7345,15 @@
         <v>11395.18988968</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7864,16 +7380,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7900,16 +7413,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7936,16 +7446,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7972,16 +7479,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8008,16 +7512,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8044,16 +7545,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8080,16 +7578,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8116,16 +7611,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8152,16 +7644,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8188,16 +7677,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8224,16 +7710,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8260,16 +7743,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8296,16 +7776,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8332,16 +7809,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8368,16 +7842,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8404,16 +7875,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8440,16 +7908,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8476,16 +7941,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8512,16 +7974,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8548,16 +8007,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8584,16 +8040,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8620,16 +8073,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8656,16 +8106,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8692,16 +8139,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8728,16 +8172,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8764,16 +8205,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8800,16 +8238,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8836,16 +8271,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8872,16 +8304,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8908,16 +8337,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8944,16 +8370,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8980,16 +8403,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9016,16 +8436,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9052,16 +8469,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9088,16 +8502,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9122,18 +8533,15 @@
         <v>10873.96278968</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9158,18 +8566,15 @@
         <v>10873.96278968</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9194,18 +8599,15 @@
         <v>10875.64458968</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9230,18 +8632,15 @@
         <v>10849.37728968</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9266,18 +8665,15 @@
         <v>10849.37728968</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9302,18 +8698,15 @@
         <v>10853.78538968</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9338,18 +8731,15 @@
         <v>10853.78538968</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9374,18 +8764,15 @@
         <v>10855.99158968</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9410,18 +8797,15 @@
         <v>10851.89438968</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9446,18 +8830,15 @@
         <v>10883.15238968</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9484,16 +8865,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9518,18 +8896,15 @@
         <v>11020.26758968</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9554,18 +8929,15 @@
         <v>11032.26758968</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9592,16 +8964,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9628,16 +8997,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9664,16 +9030,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9700,16 +9063,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9736,16 +9096,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9772,16 +9129,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9808,16 +9162,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9844,16 +9195,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9880,16 +9228,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9916,16 +9261,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9952,16 +9294,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9988,16 +9327,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10024,16 +9360,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10060,16 +9393,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10096,16 +9426,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10132,16 +9459,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10168,16 +9492,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10204,16 +9525,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10240,16 +9558,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10276,16 +9591,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10312,16 +9624,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10348,16 +9657,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10384,16 +9690,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10420,16 +9723,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10456,16 +9756,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10492,16 +9789,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10528,18 +9822,15 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-14 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>26.73952535</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>26.73952535</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>39620</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>26.95542535000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>39620</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>27.23162535000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>39630</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>10466.29512535</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>39660</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>10466.29512535</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>39670</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +683,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +720,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +757,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +794,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +831,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +868,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +905,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +942,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +979,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1016,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1053,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1090,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1127,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1164,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,15 +1197,15 @@
         <v>10468.27072535</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>39360</v>
-      </c>
-      <c r="J22" t="n">
-        <v>39360</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,17 +1234,13 @@
         <v>10468.27072535</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>39270</v>
-      </c>
-      <c r="J23" t="n">
-        <v>39360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1189,17 +1271,15 @@
         <v>10468.27072535</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>39270</v>
       </c>
-      <c r="J24" t="n">
-        <v>39360</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1230,15 +1310,15 @@
         <v>10468.27072535</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>39270</v>
-      </c>
-      <c r="J25" t="n">
-        <v>39270</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1267,17 +1347,15 @@
         <v>10468.07662535</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>39270</v>
       </c>
-      <c r="J26" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1308,17 +1386,13 @@
         <v>10468.07662535</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>39250</v>
-      </c>
-      <c r="J27" t="n">
-        <v>39270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1349,17 +1423,13 @@
         <v>10465.15892535</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>39250</v>
-      </c>
-      <c r="J28" t="n">
-        <v>39270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -1393,9 +1463,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1429,14 +1497,10 @@
         <v>10469.51892535</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>39250</v>
-      </c>
-      <c r="J30" t="n">
-        <v>39270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1470,14 +1534,10 @@
         <v>10467.51892535</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>39250</v>
-      </c>
-      <c r="J31" t="n">
-        <v>39270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1514,9 +1574,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1553,9 +1611,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1592,9 +1648,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1631,9 +1685,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1670,9 +1722,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1706,14 +1756,10 @@
         <v>10306.94962535</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>38520</v>
-      </c>
-      <c r="J37" t="n">
-        <v>39270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1747,14 +1793,10 @@
         <v>10303.94962535</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>39380</v>
-      </c>
-      <c r="J38" t="n">
-        <v>39270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1791,9 +1833,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1830,9 +1870,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1869,9 +1907,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1908,9 +1944,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1947,9 +1981,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1986,9 +2018,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2025,9 +2055,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2064,9 +2092,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2103,9 +2129,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2142,9 +2166,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2181,9 +2203,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2220,9 +2240,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2259,9 +2277,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2298,9 +2314,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2334,14 +2348,10 @@
         <v>10416.04482535</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>39260</v>
-      </c>
-      <c r="J53" t="n">
-        <v>39270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2375,14 +2385,10 @@
         <v>10404.93592535</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>39540</v>
-      </c>
-      <c r="J54" t="n">
-        <v>39270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2419,9 +2425,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2458,9 +2462,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2497,9 +2499,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2536,9 +2536,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2575,9 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2614,9 +2610,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2653,9 +2647,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2692,9 +2684,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2731,9 +2721,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2770,9 +2758,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2809,9 +2795,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2848,9 +2832,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2887,9 +2869,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2926,9 +2906,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2965,9 +2943,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3004,9 +2980,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3043,9 +3017,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3082,9 +3054,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3121,9 +3091,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3160,9 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3199,9 +3165,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3238,9 +3202,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3277,9 +3239,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3316,9 +3276,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3355,9 +3313,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3394,9 +3350,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3433,9 +3387,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3472,9 +3424,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3511,9 +3461,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3550,9 +3498,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3589,9 +3535,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3628,9 +3572,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,9 +3609,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3706,9 +3646,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3745,9 +3683,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3784,9 +3720,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3823,9 +3757,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3862,9 +3794,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3901,9 +3831,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3940,9 +3868,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3979,9 +3905,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4018,9 +3942,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4057,9 +3979,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4096,9 +4016,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4135,9 +4053,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4174,9 +4090,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4213,9 +4127,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4252,9 +4164,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4291,9 +4201,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4330,9 +4238,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4369,9 +4275,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4408,9 +4312,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4447,9 +4349,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4486,9 +4386,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4525,9 +4423,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4564,9 +4460,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4603,9 +4497,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4642,9 +4534,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4681,9 +4571,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4720,9 +4608,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4759,9 +4645,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4798,9 +4682,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4837,9 +4719,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4876,9 +4756,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4915,9 +4793,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4954,9 +4830,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4993,9 +4867,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5032,9 +4904,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5071,9 +4941,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5110,9 +4978,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5149,9 +5015,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5188,9 +5052,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5227,9 +5089,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5266,9 +5126,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5305,9 +5163,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5344,9 +5200,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5383,9 +5237,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5422,9 +5274,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5461,9 +5311,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5500,9 +5348,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5539,9 +5385,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5578,9 +5422,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5617,9 +5459,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5656,9 +5496,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5695,9 +5533,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5734,9 +5570,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5773,9 +5607,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5812,9 +5644,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5851,9 +5681,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5887,19 +5715,17 @@
         <v>11277.93983961</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>39270</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.045674815380698</v>
+        <v>1</v>
       </c>
       <c r="M144" t="inlineStr"/>
     </row>
@@ -5926,11 +5752,15 @@
         <v>11277.93983961</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5959,11 +5789,15 @@
         <v>11264.54353961</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5996,7 +5830,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6029,7 +5867,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6062,7 +5904,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6095,7 +5941,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6128,7 +5978,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6161,7 +6015,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6194,7 +6052,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6227,7 +6089,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6260,7 +6126,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6289,11 +6159,15 @@
         <v>10835.68368259</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6322,11 +6196,15 @@
         <v>10831.36298259</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6355,11 +6233,15 @@
         <v>10770.95598259</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6388,11 +6270,15 @@
         <v>10770.95598259</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6421,11 +6307,15 @@
         <v>10616.85598259</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6454,11 +6344,15 @@
         <v>10607.25478259</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6487,11 +6381,15 @@
         <v>10674.07278259</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6520,11 +6418,15 @@
         <v>10678.46188259</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6553,11 +6455,15 @@
         <v>10680.46188259</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6586,11 +6492,15 @@
         <v>10680.51508259</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6619,11 +6529,15 @@
         <v>10703.90268259</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6652,11 +6566,15 @@
         <v>10762.52458259</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6685,11 +6603,15 @@
         <v>10689.17448259</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6718,11 +6640,15 @@
         <v>10731.04338259</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6751,11 +6677,15 @@
         <v>10731.04338259</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6784,11 +6714,15 @@
         <v>10657.58737252</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6817,11 +6751,15 @@
         <v>10777.61787252</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6850,11 +6788,15 @@
         <v>10860.53387252</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6883,11 +6825,15 @@
         <v>10896.53937252</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6916,11 +6862,15 @@
         <v>11345.92507252</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6949,11 +6899,15 @@
         <v>11205.0459548</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6982,11 +6936,15 @@
         <v>11289.7448548</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7015,11 +6973,15 @@
         <v>11440.8496548</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7048,11 +7010,15 @@
         <v>11376.6217548</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7081,11 +7047,15 @@
         <v>11273.5266548</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7114,11 +7084,15 @@
         <v>11257.0760548</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7147,11 +7121,15 @@
         <v>11262.0757548</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7180,11 +7158,15 @@
         <v>11260.13352728</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7213,11 +7195,15 @@
         <v>11257.98072728</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7250,7 +7236,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7283,7 +7273,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7312,11 +7306,15 @@
         <v>11403.92128968</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7345,11 +7343,15 @@
         <v>11395.18988968</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7382,7 +7384,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7415,7 +7421,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7448,7 +7458,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7477,14 +7491,16 @@
         <v>11393.46088968</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
@@ -7510,7 +7526,7 @@
         <v>11386.37958968</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7543,7 +7559,7 @@
         <v>11381.35958968</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7576,7 +7592,7 @@
         <v>11374.27498968</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -8467,7 +8483,7 @@
         <v>11355.79318968</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8500,7 +8516,7 @@
         <v>11345.79318968</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8533,7 +8549,7 @@
         <v>10873.96278968</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8566,7 +8582,7 @@
         <v>10873.96278968</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8599,7 +8615,7 @@
         <v>10875.64458968</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8632,7 +8648,7 @@
         <v>10849.37728968</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8665,7 +8681,7 @@
         <v>10849.37728968</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8698,7 +8714,7 @@
         <v>10853.78538968</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8731,7 +8747,7 @@
         <v>10853.78538968</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8764,7 +8780,7 @@
         <v>10855.99158968</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8797,7 +8813,7 @@
         <v>10851.89438968</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8830,7 +8846,7 @@
         <v>10883.15238968</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8896,7 +8912,7 @@
         <v>11020.26758968</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8929,7 +8945,7 @@
         <v>11032.26758968</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9490,7 +9506,7 @@
         <v>11455.94511183</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9523,7 +9539,7 @@
         <v>11255.97511183</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9556,7 +9572,7 @@
         <v>11249.63251183</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9589,7 +9605,7 @@
         <v>11252.12351183</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9622,7 +9638,7 @@
         <v>11250.80071183</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9655,7 +9671,7 @@
         <v>11251.90361183</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9688,7 +9704,7 @@
         <v>11251.90361183</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9721,7 +9737,7 @@
         <v>11188.59391183</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9754,7 +9770,7 @@
         <v>11164.59391183</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9787,7 +9803,7 @@
         <v>11154.59391183</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9820,7 +9836,7 @@
         <v>11129.98781183</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9831,6 +9847,6 @@
       <c r="M263" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-14 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -975,18 +975,16 @@
         <v>10456.39512535</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1016,11 +1014,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1053,11 +1047,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1090,11 +1080,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1127,11 +1113,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1164,11 +1146,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1201,11 +1179,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1238,11 +1212,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1271,17 +1241,11 @@
         <v>10468.27072535</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>39270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1314,11 +1278,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1347,17 +1307,11 @@
         <v>10468.07662535</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>39270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1390,11 +1344,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1427,11 +1377,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1464,11 +1410,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1501,11 +1443,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1538,11 +1476,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1575,11 +1509,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1612,11 +1542,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1649,11 +1575,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1686,11 +1608,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1723,11 +1641,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1760,11 +1674,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1797,11 +1707,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1834,11 +1740,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1871,11 +1773,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1908,11 +1806,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1945,11 +1839,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1982,11 +1872,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2019,11 +1905,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2056,11 +1938,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2093,11 +1971,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2130,11 +2004,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2037,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2204,11 +2070,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2241,11 +2103,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2278,11 +2136,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2315,11 +2169,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2352,11 +2202,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2389,11 +2235,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2426,11 +2268,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2463,11 +2301,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2500,11 +2334,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2537,11 +2367,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2574,11 +2400,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2611,11 +2433,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2648,11 +2466,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2685,11 +2499,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2722,11 +2532,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2759,11 +2565,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2796,11 +2598,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2833,11 +2631,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2870,11 +2664,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2907,11 +2697,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2944,11 +2730,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2981,11 +2763,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3018,11 +2796,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3051,15 +2825,11 @@
         <v>10461.33862535</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3088,15 +2858,11 @@
         <v>10461.33862535</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3125,15 +2891,11 @@
         <v>10461.36442535</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3162,15 +2924,11 @@
         <v>10461.11142535</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3199,15 +2957,11 @@
         <v>10444.31822535</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3236,15 +2990,11 @@
         <v>10739.95662535</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3273,15 +3023,11 @@
         <v>10730.20812535</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3310,15 +3056,11 @@
         <v>10675.04232535</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3347,15 +3089,11 @@
         <v>10756.98062535</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3384,15 +3122,11 @@
         <v>10637.82702535</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3421,15 +3155,11 @@
         <v>10650.23862535</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3458,15 +3188,11 @@
         <v>10660.93182535</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3495,15 +3221,11 @@
         <v>11001.04722535</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3532,15 +3254,11 @@
         <v>10988.78852535</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3569,15 +3287,11 @@
         <v>10988.78852535</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3606,15 +3320,11 @@
         <v>10988.78852535</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3643,15 +3353,11 @@
         <v>10988.78852535</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3680,15 +3386,11 @@
         <v>10988.86292535</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3717,15 +3419,11 @@
         <v>10973.42632535</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3754,15 +3452,11 @@
         <v>10974.42632535</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3791,15 +3485,11 @@
         <v>10975.66632535</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3828,15 +3518,11 @@
         <v>10969.66632535</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3865,15 +3551,11 @@
         <v>11138.16870393</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3902,15 +3584,11 @@
         <v>11138.16870393</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3939,15 +3617,11 @@
         <v>11151.61412535</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3976,15 +3650,11 @@
         <v>11151.97494298</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4013,15 +3683,11 @@
         <v>11253.18895691</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4050,15 +3716,11 @@
         <v>11321.27117164</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4087,15 +3749,11 @@
         <v>11315.70287164</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4124,15 +3782,11 @@
         <v>11259.05467164</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4161,15 +3815,11 @@
         <v>11275.41847164</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4198,15 +3848,11 @@
         <v>11265.66193961</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4235,15 +3881,11 @@
         <v>11229.66193961</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4272,15 +3914,11 @@
         <v>11235.42163961</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4309,15 +3947,11 @@
         <v>11233.49023961</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4346,15 +3980,11 @@
         <v>11233.49023961</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4383,15 +4013,11 @@
         <v>11228.63893961</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4420,15 +4046,11 @@
         <v>11228.63893961</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4457,15 +4079,11 @@
         <v>11230.20833961</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4498,11 +4116,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4535,11 +4149,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4572,11 +4182,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4215,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4646,11 +4248,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4683,11 +4281,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4720,11 +4314,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4757,11 +4347,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4794,11 +4380,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4831,11 +4413,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4868,11 +4446,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4905,11 +4479,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4942,11 +4512,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4979,11 +4545,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5016,11 +4578,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5053,11 +4611,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5090,11 +4644,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5127,11 +4677,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5164,11 +4710,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5201,11 +4743,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5238,11 +4776,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5275,11 +4809,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5312,11 +4842,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5349,11 +4875,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5386,11 +4908,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5423,11 +4941,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5460,11 +4974,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5497,11 +5007,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5534,11 +5040,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5571,11 +5073,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5608,11 +5106,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5645,11 +5139,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5682,11 +5172,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5719,11 +5205,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5756,11 +5238,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5793,11 +5271,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +5304,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5867,11 +5337,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5904,11 +5370,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5941,11 +5403,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5978,11 +5436,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6015,11 +5469,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6052,11 +5502,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6089,11 +5535,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6126,11 +5568,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6163,11 +5601,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6200,11 +5634,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6237,11 +5667,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6274,11 +5700,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6311,11 +5733,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6348,11 +5766,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6385,11 +5799,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6422,11 +5832,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6459,11 +5865,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6496,11 +5898,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6533,11 +5931,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6570,11 +5964,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6607,11 +5997,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6644,11 +6030,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6681,11 +6063,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6718,11 +6096,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6755,11 +6129,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6792,11 +6162,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6829,11 +6195,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6866,11 +6228,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6903,11 +6261,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6940,11 +6294,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6977,11 +6327,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7014,11 +6360,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +6393,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7088,11 +6426,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7125,11 +6459,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7162,11 +6492,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7199,11 +6525,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7236,11 +6558,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7273,11 +6591,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7310,11 +6624,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7347,11 +6657,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7384,11 +6690,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7421,11 +6723,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7458,11 +6756,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7491,16 +6785,14 @@
         <v>11393.46088968</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
       <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
@@ -7526,7 +6818,7 @@
         <v>11386.37958968</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7559,7 +6851,7 @@
         <v>11381.35958968</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7592,7 +6884,7 @@
         <v>11374.27498968</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -8483,7 +7775,7 @@
         <v>11355.79318968</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8516,7 +7808,7 @@
         <v>11345.79318968</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8549,7 +7841,7 @@
         <v>10873.96278968</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8582,7 +7874,7 @@
         <v>10873.96278968</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8615,7 +7907,7 @@
         <v>10875.64458968</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8648,7 +7940,7 @@
         <v>10849.37728968</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8681,7 +7973,7 @@
         <v>10849.37728968</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8714,7 +8006,7 @@
         <v>10853.78538968</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8747,7 +8039,7 @@
         <v>10853.78538968</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8780,7 +8072,7 @@
         <v>10855.99158968</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8813,7 +8105,7 @@
         <v>10851.89438968</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8846,7 +8138,7 @@
         <v>10883.15238968</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9506,7 +8798,7 @@
         <v>11455.94511183</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9539,7 +8831,7 @@
         <v>11255.97511183</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9572,7 +8864,7 @@
         <v>11249.63251183</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9605,7 +8897,7 @@
         <v>11252.12351183</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9638,7 +8930,7 @@
         <v>11250.80071183</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9671,7 +8963,7 @@
         <v>11251.90361183</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9704,7 +8996,7 @@
         <v>11251.90361183</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9737,7 +9029,7 @@
         <v>11188.59391183</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9770,7 +9062,7 @@
         <v>11164.59391183</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9803,7 +9095,7 @@
         <v>11154.59391183</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9836,7 +9128,7 @@
         <v>11129.98781183</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9847,6 +9139,6 @@
       <c r="M263" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-14 BackTest ZEC.xlsx
@@ -640,11 +640,9 @@
         <v>10466.29512535</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>39670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -975,16 +973,18 @@
         <v>10456.39512535</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
       <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1014,7 +1014,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1047,7 +1051,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1080,7 +1088,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1113,7 +1125,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1146,7 +1162,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1179,7 +1199,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1212,7 +1236,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1245,7 +1273,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1278,7 +1310,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1311,7 +1347,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1344,7 +1384,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1377,7 +1421,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1410,7 +1458,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1443,7 +1495,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1476,7 +1532,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1509,7 +1569,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1542,7 +1606,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1575,7 +1643,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1608,7 +1680,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1641,7 +1717,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1674,7 +1754,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1707,7 +1791,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1740,7 +1828,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1773,7 +1865,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1806,7 +1902,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1839,7 +1939,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1872,7 +1976,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1905,7 +2013,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1938,7 +2050,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1971,7 +2087,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2004,7 +2124,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2037,7 +2161,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2070,7 +2198,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2103,7 +2235,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2136,7 +2272,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2169,7 +2309,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2202,7 +2346,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2235,7 +2383,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2268,7 +2420,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2301,7 +2457,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2334,7 +2494,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2367,7 +2531,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2400,7 +2568,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2433,7 +2605,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2466,7 +2642,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2499,7 +2679,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2532,7 +2716,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2565,7 +2753,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2598,7 +2790,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2631,7 +2827,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2664,7 +2864,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2697,7 +2901,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2730,7 +2938,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2763,7 +2975,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2796,7 +3012,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2825,11 +3045,15 @@
         <v>10461.33862535</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2858,11 +3082,15 @@
         <v>10461.33862535</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2891,11 +3119,15 @@
         <v>10461.36442535</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2924,11 +3156,15 @@
         <v>10461.11142535</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2957,11 +3193,15 @@
         <v>10444.31822535</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2990,11 +3230,15 @@
         <v>10739.95662535</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3023,11 +3267,15 @@
         <v>10730.20812535</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3056,11 +3304,15 @@
         <v>10675.04232535</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3089,11 +3341,15 @@
         <v>10756.98062535</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3122,11 +3378,15 @@
         <v>10637.82702535</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3155,11 +3415,15 @@
         <v>10650.23862535</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3188,11 +3452,15 @@
         <v>10660.93182535</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3221,11 +3489,15 @@
         <v>11001.04722535</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3254,11 +3526,15 @@
         <v>10988.78852535</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3287,11 +3563,15 @@
         <v>10988.78852535</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3320,11 +3600,15 @@
         <v>10988.78852535</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3353,11 +3637,15 @@
         <v>10988.78852535</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3386,11 +3674,15 @@
         <v>10988.86292535</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3419,11 +3711,15 @@
         <v>10973.42632535</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3452,11 +3748,15 @@
         <v>10974.42632535</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3485,11 +3785,15 @@
         <v>10975.66632535</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3518,11 +3822,15 @@
         <v>10969.66632535</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3551,11 +3859,15 @@
         <v>11138.16870393</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3584,11 +3896,15 @@
         <v>11138.16870393</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3617,11 +3933,15 @@
         <v>11151.61412535</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3650,11 +3970,15 @@
         <v>11151.97494298</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3683,11 +4007,15 @@
         <v>11253.18895691</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3716,11 +4044,15 @@
         <v>11321.27117164</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3749,11 +4081,15 @@
         <v>11315.70287164</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3782,11 +4118,15 @@
         <v>11259.05467164</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3815,11 +4155,15 @@
         <v>11275.41847164</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3848,11 +4192,15 @@
         <v>11265.66193961</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3881,11 +4229,15 @@
         <v>11229.66193961</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3914,11 +4266,15 @@
         <v>11235.42163961</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3947,11 +4303,15 @@
         <v>11233.49023961</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3980,11 +4340,15 @@
         <v>11233.49023961</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4013,11 +4377,15 @@
         <v>11228.63893961</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4046,11 +4414,15 @@
         <v>11228.63893961</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4079,11 +4451,15 @@
         <v>11230.20833961</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4116,7 +4492,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4149,7 +4529,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4182,7 +4566,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4215,7 +4603,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4248,7 +4640,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4281,7 +4677,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4314,7 +4714,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4347,7 +4751,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4380,7 +4788,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4413,7 +4825,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4446,7 +4862,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4479,7 +4899,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4512,7 +4936,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4545,7 +4973,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4578,7 +5010,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4611,7 +5047,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4644,7 +5084,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4677,7 +5121,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4710,7 +5158,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4743,7 +5195,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4776,7 +5232,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4809,7 +5269,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4842,7 +5306,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4875,7 +5343,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4908,7 +5380,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4941,7 +5417,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4974,7 +5454,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5007,7 +5491,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5040,7 +5528,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5073,7 +5565,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5106,7 +5602,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5139,7 +5639,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5172,7 +5676,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5205,7 +5713,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5238,7 +5750,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5271,7 +5787,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5304,7 +5824,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5337,7 +5861,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5370,7 +5898,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5403,7 +5935,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5436,7 +5972,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5469,7 +6009,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5502,7 +6046,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5535,7 +6083,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5568,7 +6120,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5601,7 +6157,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5634,7 +6194,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5667,7 +6231,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5700,7 +6268,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5733,7 +6305,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5766,7 +6342,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5799,7 +6379,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5832,7 +6416,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5865,7 +6453,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5898,7 +6490,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5931,7 +6527,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5960,14 +6560,16 @@
         <v>10762.52458259</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
@@ -5993,7 +6595,7 @@
         <v>10689.17448259</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6026,7 +6628,7 @@
         <v>10731.04338259</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6059,7 +6661,7 @@
         <v>10731.04338259</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6092,7 +6694,7 @@
         <v>10657.58737252</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6125,7 +6727,7 @@
         <v>10777.61787252</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6158,7 +6760,7 @@
         <v>10860.53387252</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6191,7 +6793,7 @@
         <v>10896.53937252</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6224,7 +6826,7 @@
         <v>11345.92507252</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6257,7 +6859,7 @@
         <v>11205.0459548</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6290,7 +6892,7 @@
         <v>11289.7448548</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6323,7 +6925,7 @@
         <v>11440.8496548</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6356,7 +6958,7 @@
         <v>11376.6217548</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6389,7 +6991,7 @@
         <v>11273.5266548</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6422,7 +7024,7 @@
         <v>11257.0760548</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6455,7 +7057,7 @@
         <v>11262.0757548</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6488,7 +7090,7 @@
         <v>11260.13352728</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6521,7 +7123,7 @@
         <v>11257.98072728</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6554,7 +7156,7 @@
         <v>11491.21568968</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6587,7 +7189,7 @@
         <v>11403.92128968</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6620,7 +7222,7 @@
         <v>11403.92128968</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6653,7 +7255,7 @@
         <v>11395.18988968</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6686,7 +7288,7 @@
         <v>11397.64208968</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6719,7 +7321,7 @@
         <v>11397.64208968</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6752,7 +7354,7 @@
         <v>11397.64208968</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6785,7 +7387,7 @@
         <v>11393.46088968</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6818,7 +7420,7 @@
         <v>11386.37958968</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6851,7 +7453,7 @@
         <v>11381.35958968</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6884,7 +7486,7 @@
         <v>11374.27498968</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6917,7 +7519,7 @@
         <v>11476.33908968</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6950,7 +7552,7 @@
         <v>11475.78918968</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6983,7 +7585,7 @@
         <v>11473.33528968</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7016,7 +7618,7 @@
         <v>11471.26668968</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7049,7 +7651,7 @@
         <v>11486.28628968</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7082,7 +7684,7 @@
         <v>11486.28628968</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7115,7 +7717,7 @@
         <v>11486.34478968</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7148,7 +7750,7 @@
         <v>11455.21518968</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7181,7 +7783,7 @@
         <v>11455.21518968</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7214,7 +7816,7 @@
         <v>11455.21518968</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7247,7 +7849,7 @@
         <v>11443.28368968</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7280,7 +7882,7 @@
         <v>11443.40598968</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7313,7 +7915,7 @@
         <v>11443.40598968</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7346,7 +7948,7 @@
         <v>11410.62728968</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7379,7 +7981,7 @@
         <v>11410.62728968</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8303,7 +8905,7 @@
         <v>10943.36758968</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8336,7 +8938,7 @@
         <v>10938.66758968</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8369,7 +8971,7 @@
         <v>10959.16758968</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8402,7 +9004,7 @@
         <v>10941.32698968</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8435,7 +9037,7 @@
         <v>11302.96008968</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8468,7 +9070,7 @@
         <v>11268.045786</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8501,7 +9103,7 @@
         <v>11232.745786</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8534,7 +9136,7 @@
         <v>11464.36731183</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8567,7 +9169,7 @@
         <v>11461.35091183</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8600,7 +9202,7 @@
         <v>11419.63661183</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8633,7 +9235,7 @@
         <v>11397.31461183</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8666,7 +9268,7 @@
         <v>11395.74721183</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8963,7 +9565,7 @@
         <v>11251.90361183</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>

--- a/BackTest/2020-01-14 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-14 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M263"/>
+  <dimension ref="A1:L263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>0.2286</v>
       </c>
       <c r="G2" t="n">
-        <v>26.73952535</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,15 @@
         <v>6.9</v>
       </c>
       <c r="G3" t="n">
-        <v>26.73952535</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>39620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +503,15 @@
         <v>0.2159</v>
       </c>
       <c r="G4" t="n">
-        <v>26.95542535000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>39620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +533,15 @@
         <v>0.2762</v>
       </c>
       <c r="G5" t="n">
-        <v>27.23162535000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>39630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,24 +563,15 @@
         <v>10439.0635</v>
       </c>
       <c r="G6" t="n">
-        <v>10466.29512535</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>39660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,22 +593,15 @@
         <v>2.0083</v>
       </c>
       <c r="G7" t="n">
-        <v>10466.29512535</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,22 +623,15 @@
         <v>0.3962</v>
       </c>
       <c r="G8" t="n">
-        <v>10466.29512535</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -711,22 +653,15 @@
         <v>0.0762</v>
       </c>
       <c r="G9" t="n">
-        <v>10466.29512535</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -748,22 +683,15 @@
         <v>0.0762</v>
       </c>
       <c r="G10" t="n">
-        <v>10466.29512535</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -785,22 +713,15 @@
         <v>0.3362</v>
       </c>
       <c r="G11" t="n">
-        <v>10466.63132535</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -822,22 +743,15 @@
         <v>0.2362</v>
       </c>
       <c r="G12" t="n">
-        <v>10466.39512535</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -859,22 +773,15 @@
         <v>0.0762</v>
       </c>
       <c r="G13" t="n">
-        <v>10466.39512535</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -896,22 +803,15 @@
         <v>0.0762</v>
       </c>
       <c r="G14" t="n">
-        <v>10466.39512535</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -933,22 +833,15 @@
         <v>163257.9606</v>
       </c>
       <c r="G15" t="n">
-        <v>10466.39512535</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -970,22 +863,15 @@
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>10456.39512535</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1007,22 +893,15 @@
         <v>2.276</v>
       </c>
       <c r="G17" t="n">
-        <v>10456.39512535</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1044,22 +923,15 @@
         <v>14.9866</v>
       </c>
       <c r="G18" t="n">
-        <v>10471.38172535</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1081,22 +953,15 @@
         <v>7.2048</v>
       </c>
       <c r="G19" t="n">
-        <v>10471.38172535</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1118,22 +983,15 @@
         <v>1.2572</v>
       </c>
       <c r="G20" t="n">
-        <v>10470.12452535</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1155,22 +1013,15 @@
         <v>0.0165</v>
       </c>
       <c r="G21" t="n">
-        <v>10470.10802535</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1192,22 +1043,15 @@
         <v>1.8373</v>
       </c>
       <c r="G22" t="n">
-        <v>10468.27072535</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1229,22 +1073,15 @@
         <v>7.8926</v>
       </c>
       <c r="G23" t="n">
-        <v>10468.27072535</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1266,22 +1103,15 @@
         <v>6.0774</v>
       </c>
       <c r="G24" t="n">
-        <v>10468.27072535</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1303,22 +1133,15 @@
         <v>0.0001</v>
       </c>
       <c r="G25" t="n">
-        <v>10468.27072535</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1340,22 +1163,15 @@
         <v>0.1941</v>
       </c>
       <c r="G26" t="n">
-        <v>10468.07662535</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1377,22 +1193,15 @@
         <v>0.495</v>
       </c>
       <c r="G27" t="n">
-        <v>10468.07662535</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1414,22 +1223,15 @@
         <v>2.9177</v>
       </c>
       <c r="G28" t="n">
-        <v>10465.15892535</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1451,22 +1253,19 @@
         <v>4.36</v>
       </c>
       <c r="G29" t="n">
-        <v>10469.51892535</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>39050</v>
+      </c>
+      <c r="I29" t="n">
+        <v>39050</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1488,22 +1287,23 @@
         <v>0.1</v>
       </c>
       <c r="G30" t="n">
-        <v>10469.51892535</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>39250</v>
+      </c>
+      <c r="I30" t="n">
+        <v>39050</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1525,22 +1325,23 @@
         <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>10467.51892535</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>39250</v>
+      </c>
+      <c r="I31" t="n">
+        <v>39050</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1562,22 +1363,19 @@
         <v>1.0051</v>
       </c>
       <c r="G32" t="n">
-        <v>10468.52402535</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>39200</v>
+      </c>
+      <c r="I32" t="n">
+        <v>39200</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1599,22 +1397,23 @@
         <v>1.2122</v>
       </c>
       <c r="G33" t="n">
-        <v>10467.31182535</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>39250</v>
+      </c>
+      <c r="I33" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1636,22 +1435,23 @@
         <v>160.0277</v>
       </c>
       <c r="G34" t="n">
-        <v>10307.28412535</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>39220</v>
+      </c>
+      <c r="I34" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1673,22 +1473,23 @@
         <v>9.888500000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>10317.17262535</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>38900</v>
+      </c>
+      <c r="I35" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1710,22 +1511,23 @@
         <v>11.673</v>
       </c>
       <c r="G36" t="n">
-        <v>10305.49962535</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>39240</v>
+      </c>
+      <c r="I36" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1747,22 +1549,23 @@
         <v>1.45</v>
       </c>
       <c r="G37" t="n">
-        <v>10306.94962535</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>38520</v>
+      </c>
+      <c r="I37" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1784,22 +1587,23 @@
         <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>10303.94962535</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>39380</v>
+      </c>
+      <c r="I38" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1821,22 +1625,23 @@
         <v>12.7443</v>
       </c>
       <c r="G39" t="n">
-        <v>10316.69392535</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>38860</v>
+      </c>
+      <c r="I39" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1858,22 +1663,23 @@
         <v>2.7035</v>
       </c>
       <c r="G40" t="n">
-        <v>10319.39742535</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>39290</v>
+      </c>
+      <c r="I40" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1895,22 +1701,23 @@
         <v>0.5448</v>
       </c>
       <c r="G41" t="n">
-        <v>10319.94222535</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>39510</v>
+      </c>
+      <c r="I41" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1932,22 +1739,23 @@
         <v>38</v>
       </c>
       <c r="G42" t="n">
-        <v>10319.94222535</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>39520</v>
+      </c>
+      <c r="I42" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1969,22 +1777,23 @@
         <v>1.5947</v>
       </c>
       <c r="G43" t="n">
-        <v>10321.53692535</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>39520</v>
+      </c>
+      <c r="I43" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2006,22 +1815,21 @@
         <v>21.6702</v>
       </c>
       <c r="G44" t="n">
-        <v>10321.53692535</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2043,22 +1851,21 @@
         <v>3.1865</v>
       </c>
       <c r="G45" t="n">
-        <v>10318.35042535</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2080,22 +1887,23 @@
         <v>50.5371</v>
       </c>
       <c r="G46" t="n">
-        <v>10267.81332535</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>39490</v>
+      </c>
+      <c r="I46" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2117,22 +1925,23 @@
         <v>18.2789</v>
       </c>
       <c r="G47" t="n">
-        <v>10286.09222535</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>39400</v>
+      </c>
+      <c r="I47" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2154,22 +1963,23 @@
         <v>0.7534999999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>10285.33872535</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>39450</v>
+      </c>
+      <c r="I48" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2191,22 +2001,23 @@
         <v>131.2754</v>
       </c>
       <c r="G49" t="n">
-        <v>10416.61412535</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>39160</v>
+      </c>
+      <c r="I49" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2228,22 +2039,23 @@
         <v>0.92</v>
       </c>
       <c r="G50" t="n">
-        <v>10417.53412535</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>39210</v>
+      </c>
+      <c r="I50" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2265,22 +2077,21 @@
         <v>0.92</v>
       </c>
       <c r="G51" t="n">
-        <v>10416.61412535</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2302,22 +2113,21 @@
         <v>0.9985000000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>10415.61562535</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2339,22 +2149,21 @@
         <v>0.4292</v>
       </c>
       <c r="G53" t="n">
-        <v>10416.04482535</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2376,22 +2185,21 @@
         <v>11.1089</v>
       </c>
       <c r="G54" t="n">
-        <v>10404.93592535</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2413,22 +2221,21 @@
         <v>2.7915</v>
       </c>
       <c r="G55" t="n">
-        <v>10402.14442535</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2450,22 +2257,21 @@
         <v>1.983</v>
       </c>
       <c r="G56" t="n">
-        <v>10404.12742535</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2487,22 +2293,23 @@
         <v>7.6</v>
       </c>
       <c r="G57" t="n">
-        <v>10411.72742535</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>39300</v>
+      </c>
+      <c r="I57" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2524,22 +2331,21 @@
         <v>64.7</v>
       </c>
       <c r="G58" t="n">
-        <v>10476.42742535</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2561,22 +2367,21 @@
         <v>15.1</v>
       </c>
       <c r="G59" t="n">
-        <v>10491.52742535</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2598,22 +2403,21 @@
         <v>4.4</v>
       </c>
       <c r="G60" t="n">
-        <v>10491.52742535</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2635,22 +2439,21 @@
         <v>7.3669</v>
       </c>
       <c r="G61" t="n">
-        <v>10498.89432535</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2672,22 +2475,21 @@
         <v>24</v>
       </c>
       <c r="G62" t="n">
-        <v>10522.89432535</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2709,22 +2511,21 @@
         <v>56.2289</v>
       </c>
       <c r="G63" t="n">
-        <v>10579.12322535</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2746,22 +2547,21 @@
         <v>13.9359</v>
       </c>
       <c r="G64" t="n">
-        <v>10565.18732535</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2783,22 +2583,21 @@
         <v>12</v>
       </c>
       <c r="G65" t="n">
-        <v>10553.18732535</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2820,22 +2619,21 @@
         <v>154.7269</v>
       </c>
       <c r="G66" t="n">
-        <v>10398.46042535</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2857,22 +2655,21 @@
         <v>56.2289</v>
       </c>
       <c r="G67" t="n">
-        <v>10398.46042535</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2894,22 +2691,21 @@
         <v>4.2191</v>
       </c>
       <c r="G68" t="n">
-        <v>10402.67952535</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2931,22 +2727,21 @@
         <v>12</v>
       </c>
       <c r="G69" t="n">
-        <v>10390.67952535</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2968,22 +2763,21 @@
         <v>70.5851</v>
       </c>
       <c r="G70" t="n">
-        <v>10461.26462535</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3005,22 +2799,21 @@
         <v>0.074</v>
       </c>
       <c r="G71" t="n">
-        <v>10461.33862535</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3042,22 +2835,21 @@
         <v>0.1692</v>
       </c>
       <c r="G72" t="n">
-        <v>10461.33862535</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3079,22 +2871,21 @@
         <v>0.0338</v>
       </c>
       <c r="G73" t="n">
-        <v>10461.33862535</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3116,22 +2907,21 @@
         <v>0.0258</v>
       </c>
       <c r="G74" t="n">
-        <v>10461.36442535</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3153,22 +2943,21 @@
         <v>0.253</v>
       </c>
       <c r="G75" t="n">
-        <v>10461.11142535</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3190,22 +2979,21 @@
         <v>16.7932</v>
       </c>
       <c r="G76" t="n">
-        <v>10444.31822535</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3227,22 +3015,21 @@
         <v>295.6384</v>
       </c>
       <c r="G77" t="n">
-        <v>10739.95662535</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3264,22 +3051,21 @@
         <v>9.7485</v>
       </c>
       <c r="G78" t="n">
-        <v>10730.20812535</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3301,22 +3087,21 @@
         <v>55.1658</v>
       </c>
       <c r="G79" t="n">
-        <v>10675.04232535</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3338,22 +3123,21 @@
         <v>81.9383</v>
       </c>
       <c r="G80" t="n">
-        <v>10756.98062535</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3375,22 +3159,21 @@
         <v>119.1536</v>
       </c>
       <c r="G81" t="n">
-        <v>10637.82702535</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3412,22 +3195,21 @@
         <v>12.4116</v>
       </c>
       <c r="G82" t="n">
-        <v>10650.23862535</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3449,22 +3231,21 @@
         <v>10.6932</v>
       </c>
       <c r="G83" t="n">
-        <v>10660.93182535</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3486,22 +3267,21 @@
         <v>340.1154</v>
       </c>
       <c r="G84" t="n">
-        <v>11001.04722535</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3523,22 +3303,21 @@
         <v>12.2587</v>
       </c>
       <c r="G85" t="n">
-        <v>10988.78852535</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3560,22 +3339,21 @@
         <v>0.0746</v>
       </c>
       <c r="G86" t="n">
-        <v>10988.78852535</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3597,22 +3375,21 @@
         <v>4.5922</v>
       </c>
       <c r="G87" t="n">
-        <v>10988.78852535</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3634,22 +3411,21 @@
         <v>44.7368</v>
       </c>
       <c r="G88" t="n">
-        <v>10988.78852535</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3671,22 +3447,21 @@
         <v>0.07439999999999999</v>
       </c>
       <c r="G89" t="n">
-        <v>10988.86292535</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3708,22 +3483,21 @@
         <v>15.4366</v>
       </c>
       <c r="G90" t="n">
-        <v>10973.42632535</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3745,22 +3519,21 @@
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>10974.42632535</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3782,22 +3555,21 @@
         <v>1.24</v>
       </c>
       <c r="G92" t="n">
-        <v>10975.66632535</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3819,22 +3591,21 @@
         <v>6</v>
       </c>
       <c r="G93" t="n">
-        <v>10969.66632535</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3856,22 +3627,21 @@
         <v>168.50237858</v>
       </c>
       <c r="G94" t="n">
-        <v>11138.16870393</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3893,22 +3663,21 @@
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>11138.16870393</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3930,22 +3699,21 @@
         <v>13.44542142</v>
       </c>
       <c r="G96" t="n">
-        <v>11151.61412535</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3967,22 +3735,21 @@
         <v>0.36081763</v>
       </c>
       <c r="G97" t="n">
-        <v>11151.97494298</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4004,22 +3771,21 @@
         <v>101.21401393</v>
       </c>
       <c r="G98" t="n">
-        <v>11253.18895691</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4041,22 +3807,21 @@
         <v>68.08221473</v>
       </c>
       <c r="G99" t="n">
-        <v>11321.27117164</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4078,22 +3843,21 @@
         <v>5.5683</v>
       </c>
       <c r="G100" t="n">
-        <v>11315.70287164</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4115,22 +3879,21 @@
         <v>56.6482</v>
       </c>
       <c r="G101" t="n">
-        <v>11259.05467164</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4152,22 +3915,21 @@
         <v>16.3638</v>
       </c>
       <c r="G102" t="n">
-        <v>11275.41847164</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4189,22 +3951,21 @@
         <v>9.756532030000001</v>
       </c>
       <c r="G103" t="n">
-        <v>11265.66193961</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4226,22 +3987,21 @@
         <v>36</v>
       </c>
       <c r="G104" t="n">
-        <v>11229.66193961</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4263,22 +4023,21 @@
         <v>5.7597</v>
       </c>
       <c r="G105" t="n">
-        <v>11235.42163961</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4300,22 +4059,21 @@
         <v>1.9314</v>
       </c>
       <c r="G106" t="n">
-        <v>11233.49023961</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4337,22 +4095,21 @@
         <v>1.4442</v>
       </c>
       <c r="G107" t="n">
-        <v>11233.49023961</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4374,22 +4131,21 @@
         <v>4.8513</v>
       </c>
       <c r="G108" t="n">
-        <v>11228.63893961</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4411,22 +4167,21 @@
         <v>34.217</v>
       </c>
       <c r="G109" t="n">
-        <v>11228.63893961</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4448,22 +4203,21 @@
         <v>1.5694</v>
       </c>
       <c r="G110" t="n">
-        <v>11230.20833961</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4485,22 +4239,21 @@
         <v>2.4045</v>
       </c>
       <c r="G111" t="n">
-        <v>11232.61283961</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4522,22 +4275,21 @@
         <v>20.8267</v>
       </c>
       <c r="G112" t="n">
-        <v>11253.43953961</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4559,22 +4311,21 @@
         <v>9.112500000000001</v>
       </c>
       <c r="G113" t="n">
-        <v>11253.43953961</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4596,22 +4347,21 @@
         <v>11.4372</v>
       </c>
       <c r="G114" t="n">
-        <v>11242.00233961</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4633,22 +4383,21 @@
         <v>18.5</v>
       </c>
       <c r="G115" t="n">
-        <v>11223.50233961</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4670,22 +4419,21 @@
         <v>2.671</v>
       </c>
       <c r="G116" t="n">
-        <v>11223.50233961</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4707,22 +4455,21 @@
         <v>0.2</v>
       </c>
       <c r="G117" t="n">
-        <v>11223.50233961</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4744,22 +4491,21 @@
         <v>3.9965</v>
       </c>
       <c r="G118" t="n">
-        <v>11223.50233961</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4781,22 +4527,21 @@
         <v>0.0679</v>
       </c>
       <c r="G119" t="n">
-        <v>11223.57023961</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4818,22 +4563,21 @@
         <v>2.9038</v>
       </c>
       <c r="G120" t="n">
-        <v>11220.66643961</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4855,22 +4599,21 @@
         <v>4.208</v>
       </c>
       <c r="G121" t="n">
-        <v>11224.87443961</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4892,22 +4635,21 @@
         <v>18.1115</v>
       </c>
       <c r="G122" t="n">
-        <v>11206.76293961</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4929,22 +4671,21 @@
         <v>4.0414</v>
       </c>
       <c r="G123" t="n">
-        <v>11206.76293961</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4966,22 +4707,21 @@
         <v>3.2001</v>
       </c>
       <c r="G124" t="n">
-        <v>11206.76293961</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5003,22 +4743,21 @@
         <v>18.6056</v>
       </c>
       <c r="G125" t="n">
-        <v>11225.36853961</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5040,22 +4779,21 @@
         <v>24.3</v>
       </c>
       <c r="G126" t="n">
-        <v>11201.06853961</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5077,22 +4815,21 @@
         <v>0.5</v>
       </c>
       <c r="G127" t="n">
-        <v>11201.56853961</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5114,22 +4851,21 @@
         <v>0.111</v>
       </c>
       <c r="G128" t="n">
-        <v>11201.67953961</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5151,22 +4887,21 @@
         <v>104.6106</v>
       </c>
       <c r="G129" t="n">
-        <v>11306.29013961</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5188,22 +4923,21 @@
         <v>17.0691</v>
       </c>
       <c r="G130" t="n">
-        <v>11323.35923961</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5225,22 +4959,21 @@
         <v>0.7328</v>
       </c>
       <c r="G131" t="n">
-        <v>11322.62643961001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5262,22 +4995,21 @@
         <v>0.0235</v>
       </c>
       <c r="G132" t="n">
-        <v>11322.62643961001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5299,22 +5031,21 @@
         <v>9.574299999999999</v>
       </c>
       <c r="G133" t="n">
-        <v>11332.20073961001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5336,22 +5067,21 @@
         <v>0.4257</v>
       </c>
       <c r="G134" t="n">
-        <v>11332.20073961001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5373,22 +5103,21 @@
         <v>0.1459</v>
       </c>
       <c r="G135" t="n">
-        <v>11332.20073961001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5410,22 +5139,21 @@
         <v>0.9058</v>
       </c>
       <c r="G136" t="n">
-        <v>11332.20073961001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5447,22 +5175,21 @@
         <v>13.4302</v>
       </c>
       <c r="G137" t="n">
-        <v>11332.20073961001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5484,22 +5211,21 @@
         <v>30</v>
       </c>
       <c r="G138" t="n">
-        <v>11362.20073961001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5521,22 +5247,21 @@
         <v>3</v>
       </c>
       <c r="G139" t="n">
-        <v>11365.20073961001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5558,22 +5283,21 @@
         <v>10</v>
       </c>
       <c r="G140" t="n">
-        <v>11355.20073961001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5595,22 +5319,21 @@
         <v>0.0566</v>
       </c>
       <c r="G141" t="n">
-        <v>11355.25733961001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5632,22 +5355,21 @@
         <v>70.5772</v>
       </c>
       <c r="G142" t="n">
-        <v>11284.68013961001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5669,22 +5391,21 @@
         <v>6.2013</v>
       </c>
       <c r="G143" t="n">
-        <v>11278.47883961</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5706,22 +5427,21 @@
         <v>0.539</v>
       </c>
       <c r="G144" t="n">
-        <v>11277.93983961</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5743,22 +5463,21 @@
         <v>8.4695</v>
       </c>
       <c r="G145" t="n">
-        <v>11277.93983961</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5780,22 +5499,21 @@
         <v>13.3963</v>
       </c>
       <c r="G146" t="n">
-        <v>11264.54353961</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5817,22 +5535,21 @@
         <v>24.5143</v>
       </c>
       <c r="G147" t="n">
-        <v>11240.02923961</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5854,22 +5571,21 @@
         <v>1.0852</v>
       </c>
       <c r="G148" t="n">
-        <v>11241.11443961</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5891,22 +5607,21 @@
         <v>0.06633733999999999</v>
       </c>
       <c r="G149" t="n">
-        <v>11241.11443961</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5928,22 +5643,21 @@
         <v>75.0574</v>
       </c>
       <c r="G150" t="n">
-        <v>11316.17183961</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5965,22 +5679,21 @@
         <v>23.20912364</v>
       </c>
       <c r="G151" t="n">
-        <v>11292.96271597</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6002,22 +5715,21 @@
         <v>2.8091</v>
       </c>
       <c r="G152" t="n">
-        <v>11290.15361597</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6039,22 +5751,21 @@
         <v>3.3862</v>
       </c>
       <c r="G153" t="n">
-        <v>11293.53981597</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6076,22 +5787,21 @@
         <v>2.99907149</v>
       </c>
       <c r="G154" t="n">
-        <v>11296.53888746</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6113,22 +5823,21 @@
         <v>491.03090487</v>
       </c>
       <c r="G155" t="n">
-        <v>10805.50798259</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6150,22 +5859,21 @@
         <v>30.1757</v>
       </c>
       <c r="G156" t="n">
-        <v>10835.68368259</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6187,22 +5895,21 @@
         <v>4.3207</v>
       </c>
       <c r="G157" t="n">
-        <v>10831.36298259</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6224,22 +5931,21 @@
         <v>60.407</v>
       </c>
       <c r="G158" t="n">
-        <v>10770.95598259</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6261,22 +5967,21 @@
         <v>9.041399999999999</v>
       </c>
       <c r="G159" t="n">
-        <v>10770.95598259</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6298,22 +6003,21 @@
         <v>154.1</v>
       </c>
       <c r="G160" t="n">
-        <v>10616.85598259</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6335,22 +6039,21 @@
         <v>9.6012</v>
       </c>
       <c r="G161" t="n">
-        <v>10607.25478259</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6372,22 +6075,21 @@
         <v>66.818</v>
       </c>
       <c r="G162" t="n">
-        <v>10674.07278259</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6409,22 +6111,21 @@
         <v>4.3891</v>
       </c>
       <c r="G163" t="n">
-        <v>10678.46188259</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6446,22 +6147,21 @@
         <v>2</v>
       </c>
       <c r="G164" t="n">
-        <v>10680.46188259</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6483,22 +6183,21 @@
         <v>0.0532</v>
       </c>
       <c r="G165" t="n">
-        <v>10680.51508259</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6520,22 +6219,21 @@
         <v>23.3876</v>
       </c>
       <c r="G166" t="n">
-        <v>10703.90268259</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6557,20 +6255,21 @@
         <v>58.6219</v>
       </c>
       <c r="G167" t="n">
-        <v>10762.52458259</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
       </c>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6592,18 +6291,21 @@
         <v>73.3501</v>
       </c>
       <c r="G168" t="n">
-        <v>10689.17448259</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6625,18 +6327,21 @@
         <v>41.8689</v>
       </c>
       <c r="G169" t="n">
-        <v>10731.04338259</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6658,18 +6363,21 @@
         <v>27.21579002</v>
       </c>
       <c r="G170" t="n">
-        <v>10731.04338259</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6691,18 +6399,23 @@
         <v>73.45601007</v>
       </c>
       <c r="G171" t="n">
-        <v>10657.58737252</v>
-      </c>
-      <c r="H171" t="n">
         <v>2</v>
       </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>39200</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1.075867346938776</v>
+      </c>
       <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>1.018693982074264</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6724,18 +6437,15 @@
         <v>120.0305</v>
       </c>
       <c r="G172" t="n">
-        <v>10777.61787252</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6757,18 +6467,15 @@
         <v>82.916</v>
       </c>
       <c r="G173" t="n">
-        <v>10860.53387252</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6790,18 +6497,15 @@
         <v>36.0055</v>
       </c>
       <c r="G174" t="n">
-        <v>10896.53937252</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6823,18 +6527,15 @@
         <v>449.3857</v>
       </c>
       <c r="G175" t="n">
-        <v>11345.92507252</v>
-      </c>
-      <c r="H175" t="n">
         <v>2</v>
       </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6856,18 +6557,15 @@
         <v>140.87911772</v>
       </c>
       <c r="G176" t="n">
-        <v>11205.0459548</v>
-      </c>
-      <c r="H176" t="n">
         <v>2</v>
       </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6889,18 +6587,15 @@
         <v>84.69889999999999</v>
       </c>
       <c r="G177" t="n">
-        <v>11289.7448548</v>
-      </c>
-      <c r="H177" t="n">
         <v>2</v>
       </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6922,18 +6617,15 @@
         <v>151.1048</v>
       </c>
       <c r="G178" t="n">
-        <v>11440.8496548</v>
-      </c>
-      <c r="H178" t="n">
         <v>2</v>
       </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6955,18 +6647,15 @@
         <v>64.22790000000001</v>
       </c>
       <c r="G179" t="n">
-        <v>11376.6217548</v>
-      </c>
-      <c r="H179" t="n">
         <v>2</v>
       </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6988,18 +6677,15 @@
         <v>103.0951</v>
       </c>
       <c r="G180" t="n">
-        <v>11273.5266548</v>
-      </c>
-      <c r="H180" t="n">
         <v>2</v>
       </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7021,18 +6707,15 @@
         <v>16.4506</v>
       </c>
       <c r="G181" t="n">
-        <v>11257.0760548</v>
-      </c>
-      <c r="H181" t="n">
         <v>2</v>
       </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7054,18 +6737,15 @@
         <v>4.9997</v>
       </c>
       <c r="G182" t="n">
-        <v>11262.0757548</v>
-      </c>
-      <c r="H182" t="n">
         <v>2</v>
       </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7087,18 +6767,15 @@
         <v>1.94222752</v>
       </c>
       <c r="G183" t="n">
-        <v>11260.13352728</v>
-      </c>
-      <c r="H183" t="n">
         <v>2</v>
       </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7120,18 +6797,15 @@
         <v>2.1528</v>
       </c>
       <c r="G184" t="n">
-        <v>11257.98072728</v>
-      </c>
-      <c r="H184" t="n">
         <v>2</v>
       </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7153,18 +6827,15 @@
         <v>233.2349624</v>
       </c>
       <c r="G185" t="n">
-        <v>11491.21568968</v>
-      </c>
-      <c r="H185" t="n">
         <v>2</v>
       </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7186,18 +6857,15 @@
         <v>87.2944</v>
       </c>
       <c r="G186" t="n">
-        <v>11403.92128968</v>
-      </c>
-      <c r="H186" t="n">
         <v>2</v>
       </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7219,18 +6887,15 @@
         <v>11.8901</v>
       </c>
       <c r="G187" t="n">
-        <v>11403.92128968</v>
-      </c>
-      <c r="H187" t="n">
         <v>2</v>
       </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7252,18 +6917,15 @@
         <v>8.731400000000001</v>
       </c>
       <c r="G188" t="n">
-        <v>11395.18988968</v>
-      </c>
-      <c r="H188" t="n">
         <v>2</v>
       </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7285,18 +6947,15 @@
         <v>2.4522</v>
       </c>
       <c r="G189" t="n">
-        <v>11397.64208968</v>
-      </c>
-      <c r="H189" t="n">
         <v>2</v>
       </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7318,18 +6977,15 @@
         <v>3.3639</v>
       </c>
       <c r="G190" t="n">
-        <v>11397.64208968</v>
-      </c>
-      <c r="H190" t="n">
         <v>2</v>
       </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7351,18 +7007,15 @@
         <v>13.9814</v>
       </c>
       <c r="G191" t="n">
-        <v>11397.64208968</v>
-      </c>
-      <c r="H191" t="n">
         <v>2</v>
       </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7384,18 +7037,15 @@
         <v>4.1812</v>
       </c>
       <c r="G192" t="n">
-        <v>11393.46088968</v>
-      </c>
-      <c r="H192" t="n">
         <v>2</v>
       </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7417,18 +7067,15 @@
         <v>7.0813</v>
       </c>
       <c r="G193" t="n">
-        <v>11386.37958968</v>
-      </c>
-      <c r="H193" t="n">
         <v>2</v>
       </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7450,18 +7097,15 @@
         <v>5.02</v>
       </c>
       <c r="G194" t="n">
-        <v>11381.35958968</v>
-      </c>
-      <c r="H194" t="n">
         <v>2</v>
       </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7483,18 +7127,15 @@
         <v>7.0846</v>
       </c>
       <c r="G195" t="n">
-        <v>11374.27498968</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7516,18 +7157,15 @@
         <v>102.0641</v>
       </c>
       <c r="G196" t="n">
-        <v>11476.33908968</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7549,18 +7187,15 @@
         <v>0.5499000000000001</v>
       </c>
       <c r="G197" t="n">
-        <v>11475.78918968</v>
-      </c>
-      <c r="H197" t="n">
         <v>2</v>
       </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7582,18 +7217,15 @@
         <v>2.4539</v>
       </c>
       <c r="G198" t="n">
-        <v>11473.33528968</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7615,18 +7247,15 @@
         <v>2.0686</v>
       </c>
       <c r="G199" t="n">
-        <v>11471.26668968</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7648,18 +7277,15 @@
         <v>15.0196</v>
       </c>
       <c r="G200" t="n">
-        <v>11486.28628968</v>
-      </c>
-      <c r="H200" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7681,18 +7307,15 @@
         <v>0.8492</v>
       </c>
       <c r="G201" t="n">
-        <v>11486.28628968</v>
-      </c>
-      <c r="H201" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7714,18 +7337,15 @@
         <v>0.0585</v>
       </c>
       <c r="G202" t="n">
-        <v>11486.34478968</v>
-      </c>
-      <c r="H202" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7747,18 +7367,15 @@
         <v>31.1296</v>
       </c>
       <c r="G203" t="n">
-        <v>11455.21518968</v>
-      </c>
-      <c r="H203" t="n">
         <v>2</v>
       </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7780,18 +7397,15 @@
         <v>0.6239</v>
       </c>
       <c r="G204" t="n">
-        <v>11455.21518968</v>
-      </c>
-      <c r="H204" t="n">
         <v>2</v>
       </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7813,18 +7427,15 @@
         <v>20.1206</v>
       </c>
       <c r="G205" t="n">
-        <v>11455.21518968</v>
-      </c>
-      <c r="H205" t="n">
         <v>2</v>
       </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7846,18 +7457,15 @@
         <v>11.9315</v>
       </c>
       <c r="G206" t="n">
-        <v>11443.28368968</v>
-      </c>
-      <c r="H206" t="n">
         <v>2</v>
       </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7879,18 +7487,15 @@
         <v>0.1223</v>
       </c>
       <c r="G207" t="n">
-        <v>11443.40598968</v>
-      </c>
-      <c r="H207" t="n">
         <v>2</v>
       </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7912,18 +7517,15 @@
         <v>2.2508</v>
       </c>
       <c r="G208" t="n">
-        <v>11443.40598968</v>
-      </c>
-      <c r="H208" t="n">
         <v>2</v>
       </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7945,18 +7547,15 @@
         <v>32.7787</v>
       </c>
       <c r="G209" t="n">
-        <v>11410.62728968</v>
-      </c>
-      <c r="H209" t="n">
         <v>2</v>
       </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7978,18 +7577,15 @@
         <v>0.8989</v>
       </c>
       <c r="G210" t="n">
-        <v>11410.62728968</v>
-      </c>
-      <c r="H210" t="n">
         <v>2</v>
       </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8011,18 +7607,15 @@
         <v>0.3768</v>
       </c>
       <c r="G211" t="n">
-        <v>11411.00408968</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8044,18 +7637,15 @@
         <v>0.4622</v>
       </c>
       <c r="G212" t="n">
-        <v>11410.54188968</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8077,18 +7667,15 @@
         <v>2.4532</v>
       </c>
       <c r="G213" t="n">
-        <v>11412.99508968</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8110,18 +7697,15 @@
         <v>21.8153</v>
       </c>
       <c r="G214" t="n">
-        <v>11391.17978968</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8143,18 +7727,15 @@
         <v>0.3491</v>
       </c>
       <c r="G215" t="n">
-        <v>11390.83068968</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8176,18 +7757,15 @@
         <v>0.0907</v>
       </c>
       <c r="G216" t="n">
-        <v>11390.92138968</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8209,18 +7787,15 @@
         <v>0.0272</v>
       </c>
       <c r="G217" t="n">
-        <v>11390.94858968</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8242,18 +7817,15 @@
         <v>10</v>
       </c>
       <c r="G218" t="n">
-        <v>11380.94858968</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8275,18 +7847,15 @@
         <v>0.1144</v>
       </c>
       <c r="G219" t="n">
-        <v>11380.83418968</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8308,18 +7877,15 @@
         <v>5.2488</v>
       </c>
       <c r="G220" t="n">
-        <v>11375.58538968</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8341,18 +7907,15 @@
         <v>3.5559</v>
       </c>
       <c r="G221" t="n">
-        <v>11372.02948968</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8374,18 +7937,15 @@
         <v>16.2363</v>
       </c>
       <c r="G222" t="n">
-        <v>11355.79318968</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8407,18 +7967,15 @@
         <v>10</v>
       </c>
       <c r="G223" t="n">
-        <v>11345.79318968</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8440,18 +7997,15 @@
         <v>471.8304</v>
       </c>
       <c r="G224" t="n">
-        <v>10873.96278968</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8473,18 +8027,15 @@
         <v>29.8164</v>
       </c>
       <c r="G225" t="n">
-        <v>10873.96278968</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8506,18 +8057,15 @@
         <v>1.6818</v>
       </c>
       <c r="G226" t="n">
-        <v>10875.64458968</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8539,18 +8087,15 @@
         <v>26.2673</v>
       </c>
       <c r="G227" t="n">
-        <v>10849.37728968</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8572,18 +8117,15 @@
         <v>75.1511</v>
       </c>
       <c r="G228" t="n">
-        <v>10849.37728968</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8605,18 +8147,15 @@
         <v>4.4081</v>
       </c>
       <c r="G229" t="n">
-        <v>10853.78538968</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8638,18 +8177,15 @@
         <v>0.2314</v>
       </c>
       <c r="G230" t="n">
-        <v>10853.78538968</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8671,18 +8207,15 @@
         <v>2.2062</v>
       </c>
       <c r="G231" t="n">
-        <v>10855.99158968</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8704,18 +8237,15 @@
         <v>4.0972</v>
       </c>
       <c r="G232" t="n">
-        <v>10851.89438968</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8737,18 +8267,15 @@
         <v>31.258</v>
       </c>
       <c r="G233" t="n">
-        <v>10883.15238968</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8770,18 +8297,15 @@
         <v>137.0738</v>
       </c>
       <c r="G234" t="n">
-        <v>11020.22618968</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8803,18 +8327,15 @@
         <v>0.0414</v>
       </c>
       <c r="G235" t="n">
-        <v>11020.26758968</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8836,18 +8357,15 @@
         <v>12</v>
       </c>
       <c r="G236" t="n">
-        <v>11032.26758968</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8869,18 +8387,15 @@
         <v>89.90000000000001</v>
       </c>
       <c r="G237" t="n">
-        <v>10942.36758968</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8902,18 +8417,15 @@
         <v>1</v>
       </c>
       <c r="G238" t="n">
-        <v>10943.36758968</v>
-      </c>
-      <c r="H238" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8935,18 +8447,15 @@
         <v>4.7</v>
       </c>
       <c r="G239" t="n">
-        <v>10938.66758968</v>
-      </c>
-      <c r="H239" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8968,18 +8477,15 @@
         <v>20.5</v>
       </c>
       <c r="G240" t="n">
-        <v>10959.16758968</v>
-      </c>
-      <c r="H240" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9001,18 +8507,15 @@
         <v>17.8406</v>
       </c>
       <c r="G241" t="n">
-        <v>10941.32698968</v>
-      </c>
-      <c r="H241" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9034,18 +8537,15 @@
         <v>361.6331</v>
       </c>
       <c r="G242" t="n">
-        <v>11302.96008968</v>
-      </c>
-      <c r="H242" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9067,18 +8567,15 @@
         <v>34.91430368</v>
       </c>
       <c r="G243" t="n">
-        <v>11268.045786</v>
-      </c>
-      <c r="H243" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9100,18 +8597,15 @@
         <v>35.3</v>
       </c>
       <c r="G244" t="n">
-        <v>11232.745786</v>
-      </c>
-      <c r="H244" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9133,18 +8627,15 @@
         <v>231.62152583</v>
       </c>
       <c r="G245" t="n">
-        <v>11464.36731183</v>
-      </c>
-      <c r="H245" t="n">
         <v>2</v>
       </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9166,18 +8657,15 @@
         <v>3.0164</v>
       </c>
       <c r="G246" t="n">
-        <v>11461.35091183</v>
-      </c>
-      <c r="H246" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9199,18 +8687,15 @@
         <v>41.7143</v>
       </c>
       <c r="G247" t="n">
-        <v>11419.63661183</v>
-      </c>
-      <c r="H247" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9232,18 +8717,15 @@
         <v>22.322</v>
       </c>
       <c r="G248" t="n">
-        <v>11397.31461183</v>
-      </c>
-      <c r="H248" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9265,18 +8747,15 @@
         <v>1.5674</v>
       </c>
       <c r="G249" t="n">
-        <v>11395.74721183</v>
-      </c>
-      <c r="H249" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9298,18 +8777,15 @@
         <v>16.8383</v>
       </c>
       <c r="G250" t="n">
-        <v>11412.58551183</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9331,18 +8807,15 @@
         <v>10</v>
       </c>
       <c r="G251" t="n">
-        <v>11402.58551183</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9364,18 +8837,15 @@
         <v>16.1634</v>
       </c>
       <c r="G252" t="n">
-        <v>11418.74891183</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9397,18 +8867,15 @@
         <v>37.1962</v>
       </c>
       <c r="G253" t="n">
-        <v>11455.94511183</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9430,18 +8897,15 @@
         <v>199.97</v>
       </c>
       <c r="G254" t="n">
-        <v>11255.97511183</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9463,18 +8927,15 @@
         <v>6.3426</v>
       </c>
       <c r="G255" t="n">
-        <v>11249.63251183</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9496,18 +8957,15 @@
         <v>2.491</v>
       </c>
       <c r="G256" t="n">
-        <v>11252.12351183</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9529,18 +8987,15 @@
         <v>1.3228</v>
       </c>
       <c r="G257" t="n">
-        <v>11250.80071183</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9562,18 +9017,15 @@
         <v>1.1029</v>
       </c>
       <c r="G258" t="n">
-        <v>11251.90361183</v>
-      </c>
-      <c r="H258" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9595,18 +9047,15 @@
         <v>0.1471</v>
       </c>
       <c r="G259" t="n">
-        <v>11251.90361183</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9628,18 +9077,15 @@
         <v>63.3097</v>
       </c>
       <c r="G260" t="n">
-        <v>11188.59391183</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9661,18 +9107,15 @@
         <v>24</v>
       </c>
       <c r="G261" t="n">
-        <v>11164.59391183</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9694,18 +9137,15 @@
         <v>10</v>
       </c>
       <c r="G262" t="n">
-        <v>11154.59391183</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9727,18 +9167,15 @@
         <v>24.6061</v>
       </c>
       <c r="G263" t="n">
-        <v>11129.98781183</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
